--- a/FEM/Output/comparison_triaxial.xlsx
+++ b/FEM/Output/comparison_triaxial.xlsx
@@ -1,73 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HHH/Desktop/Git/FEM/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF48807-C6A6-CC4B-87EE-B5BC019A3765}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FB70CF-89DD-CC44-BDD7-523576A304BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="460" windowWidth="23140" windowHeight="17040" xr2:uid="{6FEF4706-8CFD-764F-A62E-A73FD66A4C76}"/>
+    <workbookView xWindow="2200" yWindow="1720" windowWidth="23140" windowHeight="17040" activeTab="1" xr2:uid="{6FEF4706-8CFD-764F-A62E-A73FD66A4C76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$12:$A$18</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$19:$A$28</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$12:$A$18</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$19:$A$28</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$29:$A$34</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$6:$A$11</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$12:$C$18</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$C$19:$C$28</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$C$29:$C$34</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$5:$C$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$29:$A$34</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$12:$A$18</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$A$19:$A$28</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$A$29:$A$34</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$A$6:$A$11</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$C$12:$C$18</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$C$19:$C$28</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$C$29:$C$34</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$C$5:$C$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$A$12:$A$18</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$A$19:$A$28</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$A$29:$A$34</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$A$6:$A$11</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$C$12:$C$18</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$C$19:$C$28</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$C$29:$C$34</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$C$5:$C$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$6:$A$11</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$A$12:$A$18</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$A$19:$A$28</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$A$29:$A$34</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$A$6:$A$11</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$C$12:$C$18</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$C$19:$C$28</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$C$29:$C$34</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$C$5:$C$11</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$12:$C$18</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$19:$C$28</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$29:$C$34</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$5:$C$11</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Deviator stress (psi)</t>
   </si>
@@ -87,12 +36,42 @@
   <si>
     <t>Confining pressure (psi)</t>
   </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Axial strain (in./in.)</t>
+  </si>
+  <si>
+    <t>Resilient Modulus (psi)</t>
+  </si>
+  <si>
+    <t>Test Group</t>
+  </si>
+  <si>
+    <t>Measured Result</t>
+  </si>
+  <si>
+    <t>Displacement Upper Clamp (in.)</t>
+  </si>
+  <si>
+    <t>Displacement Lower Clamp (in.)</t>
+  </si>
+  <si>
+    <t>GT-PAVE Result</t>
+  </si>
+  <si>
+    <t>C-FLEX Result</t>
+  </si>
+  <si>
+    <t>Simulation Group</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,16 +79,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF454545"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -117,13 +108,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,6 +795,759 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D2E7-254A-AADE-2E85809BF751}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1474169040"/>
+        <c:axId val="1474170720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1474169040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Axial</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Strain</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(in./in.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1474170720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000006E-4"/>
+        <c:minorUnit val="1.0000000000000003E-4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1474170720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Deviator</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Stress</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>(psi)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1474169040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Triaxial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Test</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3psi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.577511003139247E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6228820227666163E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6808009422850414E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5489-5D4D-94F9-E8FB2B099502}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5psi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$6:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.03471218996073E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3950554412553557E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.443522824895577E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5489-5D4D-94F9-E8FB2B099502}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10psi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.3712415820923837E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4065578393765603E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.48908211933422E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5489-5D4D-94F9-E8FB2B099502}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>15psi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$12:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.9942326790920657E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0383254370631139E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3440880135668576E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5489-5D4D-94F9-E8FB2B099502}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>20psi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.5123523992965415E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2536249448917275E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1091739938572251E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5489-5D4D-94F9-E8FB2B099502}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1097,7 +1950,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1638,6 +3047,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6834FF-0BCC-544F-8CA3-A8BDAAC8DEC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1953,9 +3405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BF94C6-7622-8C49-A6C3-5BE020A88110}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -2342,4 +3792,884 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A0966C-B8B6-BC46-A53C-B5783069CE64}">
+  <dimension ref="A1:U34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" ht="48">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>19017.3</v>
+      </c>
+      <c r="D3" s="10">
+        <f>B3/C3</f>
+        <v>1.577511003139247E-4</v>
+      </c>
+      <c r="E3" s="14">
+        <v>3</v>
+      </c>
+      <c r="F3" s="13">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="15">
+        <f>-(G3-H3)/6</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="6">
+        <f>(J3-K3)/6</f>
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>22875.599999999999</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" ref="D4:D17" si="0">B4/C4</f>
+        <v>2.6228820227666163E-4</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="15">
+        <f t="shared" ref="I4:I34" si="1">-(G4-H4)/6</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="6">
+        <f t="shared" ref="L4:L34" si="2">(J4-K4)/6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>24451.200000000001</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>3.6808009422850414E-4</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>24573.5</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>2.03471218996073E-4</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5">
+        <v>-4.5100000000000001E-3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-1.33E-3</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="1"/>
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>29454.6</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3950554412553557E-4</v>
+      </c>
+      <c r="E7" s="14">
+        <v>5</v>
+      </c>
+      <c r="F7" s="13">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>33757</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>4.443522824895577E-4</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="3">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>42172</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>2.3712415820923837E-4</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45386.9</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>4.4065578393765603E-4</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2">
+        <v>46231.5</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>6.48908211933422E-4</v>
+      </c>
+      <c r="E11" s="14">
+        <v>10</v>
+      </c>
+      <c r="F11" s="13">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="3">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>50144.6</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9942326790920657E-4</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>49369.3</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>3.0383254370631139E-4</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2">
+        <v>56136.800000000003</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>5.3440880135668576E-4</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="3">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
+        <v>59705</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>2.5123523992965415E-4</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="13">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2">
+        <v>61469.9</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>3.2536249448917275E-4</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="13">
+        <v>30</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2">
+        <v>65475.3</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>6.1091739938572251E-4</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="13">
+        <v>35</v>
+      </c>
+      <c r="G17" s="5">
+        <v>-6.6600000000000001E-3</v>
+      </c>
+      <c r="H17" s="5">
+        <v>-1.9599999999999999E-3</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="1"/>
+        <v>7.8333333333333336E-4</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="E18" s="3">
+        <v>15</v>
+      </c>
+      <c r="F18" s="13">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="E19" s="3"/>
+      <c r="F19" s="13">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="E20" s="3"/>
+      <c r="F20" s="13">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="E21" s="3"/>
+      <c r="F21" s="13">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="E22" s="3"/>
+      <c r="F22" s="13">
+        <v>25</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="E23" s="3"/>
+      <c r="F23" s="13">
+        <v>30</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="E24" s="3"/>
+      <c r="F24" s="13">
+        <v>35</v>
+      </c>
+      <c r="G24" s="5">
+        <v>-5.8399999999999997E-3</v>
+      </c>
+      <c r="H24" s="5">
+        <v>-1.74E-3</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="1"/>
+        <v>6.8333333333333321E-4</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="E25" s="3">
+        <v>20</v>
+      </c>
+      <c r="F25" s="13">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="E26" s="3"/>
+      <c r="F26" s="13">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="E27" s="3"/>
+      <c r="F27" s="13">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="E28" s="3"/>
+      <c r="F28" s="13">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="E29" s="3"/>
+      <c r="F29" s="13">
+        <v>25</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="E30" s="3"/>
+      <c r="F30" s="13">
+        <v>30</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="E31" s="3"/>
+      <c r="F31" s="13">
+        <v>35</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="E32" s="3"/>
+      <c r="F32" s="13">
+        <v>40</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12">
+      <c r="E33" s="3"/>
+      <c r="F33" s="13">
+        <v>45</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12">
+      <c r="E34" s="3"/>
+      <c r="F34" s="13">
+        <v>50</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E17"/>
+    <mergeCell ref="E18:E24"/>
+    <mergeCell ref="E25:E34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/FEM/Output/comparison_triaxial.xlsx
+++ b/FEM/Output/comparison_triaxial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HHH/Desktop/Git/FEM/Output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HHH/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FB70CF-89DD-CC44-BDD7-523576A304BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC84A8D1-BC53-9F4D-AC86-2CCEE5954621}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1720" windowWidth="23140" windowHeight="17040" activeTab="1" xr2:uid="{6FEF4706-8CFD-764F-A62E-A73FD66A4C76}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="27160" windowHeight="16820" activeTab="1" xr2:uid="{6FEF4706-8CFD-764F-A62E-A73FD66A4C76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -71,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,9 +191,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -198,18 +200,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -218,10 +211,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1551,6 +1556,463 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>3psi_GT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.006666666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2883333333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3666666666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2999999999999998E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F3C-2647-8BBB-19F31D0D5522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>5psi_GT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$7:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.3266666666666669E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9833333333333328E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3166666666666662E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4666666666666659E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$7:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4F3C-2647-8BBB-19F31D0D5522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>10psi_GT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$11:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7533333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9849999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1833333333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1166666666666672E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9833333333333336E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8333333333333336E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$11:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4F3C-2647-8BBB-19F31D0D5522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>15psi_GT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$18:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4983333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5100000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4833333333333336E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3833333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9833333333333342E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8333333333333321E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$18:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4F3C-2647-8BBB-19F31D0D5522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>20psi_GT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$25:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3233333333333334E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2483333333333331E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0833333333333337E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6499999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3666666666666663E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0499999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7166666666666666E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4666666666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0666666666666658E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$25:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4F3C-2647-8BBB-19F31D0D5522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3068,15 +3530,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>16329</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>397329</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3405,16 +3867,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BF94C6-7622-8C49-A6C3-5BE020A88110}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3425,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2.5</v>
       </c>
@@ -3436,7 +3900,7 @@
         <v>1.4640000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -3447,7 +3911,7 @@
         <v>2.7520000000000002E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
@@ -3458,7 +3922,7 @@
         <v>3.6880000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3469,7 +3933,7 @@
         <v>1.517E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -3480,7 +3944,7 @@
         <v>2.5700000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>15</v>
       </c>
@@ -3491,7 +3955,7 @@
         <v>3.6900000000000002E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20</v>
       </c>
@@ -3502,7 +3966,7 @@
         <v>4.8099999999999998E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>25</v>
       </c>
@@ -3513,7 +3977,7 @@
         <v>5.8600000000000004E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>30</v>
       </c>
@@ -3524,7 +3988,7 @@
         <v>6.7469999999999997E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>35</v>
       </c>
@@ -3535,7 +3999,7 @@
         <v>7.6429999999999998E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -3546,7 +4010,7 @@
         <v>1.5589999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3557,7 +4021,7 @@
         <v>2.6039999999999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15</v>
       </c>
@@ -3568,7 +4032,7 @@
         <v>3.6529999999999999E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20</v>
       </c>
@@ -3579,7 +4043,7 @@
         <v>4.5189999999999998E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>25</v>
       </c>
@@ -3590,7 +4054,7 @@
         <v>5.442E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30</v>
       </c>
@@ -3601,7 +4065,7 @@
         <v>6.1260000000000004E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>35</v>
       </c>
@@ -3612,7 +4076,7 @@
         <v>6.9229999999999997E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3623,7 +4087,7 @@
         <v>1.4679999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -3634,7 +4098,7 @@
         <v>2.4389999999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>15</v>
       </c>
@@ -3645,7 +4109,7 @@
         <v>3.3770000000000002E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3656,7 +4120,7 @@
         <v>4.1060000000000001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>25</v>
       </c>
@@ -3667,7 +4131,7 @@
         <v>4.927E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>30</v>
       </c>
@@ -3678,7 +4142,7 @@
         <v>5.7149999999999996E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>35</v>
       </c>
@@ -3689,7 +4153,7 @@
         <v>6.4720000000000001E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>40</v>
       </c>
@@ -3700,7 +4164,7 @@
         <v>7.2009999999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>45</v>
       </c>
@@ -3711,7 +4175,7 @@
         <v>7.9049999999999997E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>50</v>
       </c>
@@ -3722,7 +4186,7 @@
         <v>8.2370000000000002E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
@@ -3733,7 +4197,7 @@
         <v>2.1460000000000001E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>20</v>
       </c>
@@ -3744,7 +4208,7 @@
         <v>3.5169999999999998E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3755,7 +4219,7 @@
         <v>4.8819999999999999E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>40</v>
       </c>
@@ -3766,7 +4230,7 @@
         <v>6.1580000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>50</v>
       </c>
@@ -3777,7 +4241,7 @@
         <v>7.3559999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>60</v>
       </c>
@@ -3798,11 +4262,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A0966C-B8B6-BC46-A53C-B5783069CE64}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" customWidth="1"/>
@@ -3812,70 +4276,70 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:21" ht="48">
-      <c r="A2" s="4" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -3884,25 +4348,29 @@
       <c r="C3" s="2">
         <v>19017.3</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <f>B3/C3</f>
         <v>1.577511003139247E-4</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="15">
         <v>3</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="9">
         <v>3</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="15">
+      <c r="G3" s="4">
+        <v>-1.7700000000000001E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-5.6599999999999999E-4</v>
+      </c>
+      <c r="I3" s="10">
         <f>-(G3-H3)/6</f>
-        <v>0</v>
+        <v>2.006666666666667E-4</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <f>(J3-K3)/6</f>
         <v>0</v>
       </c>
@@ -3910,66 +4378,74 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
       <c r="B4" s="2">
         <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>22875.599999999999</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <f t="shared" ref="D4:D17" si="0">B4/C4</f>
         <v>2.6228820227666163E-4</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13">
+      <c r="E4" s="15"/>
+      <c r="F4" s="9">
         <v>6</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="15">
+      <c r="G4" s="4">
+        <v>-2.8400000000000001E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-8.6700000000000004E-4</v>
+      </c>
+      <c r="I4" s="10">
         <f t="shared" ref="I4:I34" si="1">-(G4-H4)/6</f>
-        <v>0</v>
+        <v>3.2883333333333332E-4</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <f t="shared" ref="L4:L34" si="2">(J4-K4)/6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
       <c r="B5" s="2">
         <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>24451.200000000001</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>3.6808009422850414E-4</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13">
+      <c r="E5" s="15"/>
+      <c r="F5" s="9">
         <v>9</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="15">
+      <c r="G5" s="4">
+        <v>-3.7399999999999998E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-1.1199999999999999E-3</v>
+      </c>
+      <c r="I5" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3666666666666664E-4</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -3978,93 +4454,101 @@
       <c r="C6" s="2">
         <v>24573.5</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>2.03471218996073E-4</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13">
+      <c r="E6" s="15"/>
+      <c r="F6" s="9">
         <v>12</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>-4.5100000000000001E-3</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>-1.33E-3</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="10">
         <f t="shared" si="1"/>
         <v>5.2999999999999998E-4</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
       <c r="B7" s="2">
         <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>29454.6</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>3.3950554412553557E-4</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="15">
         <v>5</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="9">
         <v>5</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="15">
+      <c r="G7" s="4">
+        <v>-2.0400000000000001E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-6.4400000000000004E-4</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3266666666666669E-4</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
       <c r="B8" s="2">
         <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>33757</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>4.443522824895577E-4</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13">
+      <c r="E8" s="15"/>
+      <c r="F8" s="9">
         <v>10</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="15">
+      <c r="G8" s="4">
+        <v>-3.4199999999999999E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-1.0300000000000001E-3</v>
+      </c>
+      <c r="I8" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.9833333333333328E-4</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>10</v>
       </c>
       <c r="B9" s="2">
@@ -4073,89 +4557,101 @@
       <c r="C9" s="2">
         <v>42172</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>2.3712415820923837E-4</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13">
+      <c r="E9" s="15"/>
+      <c r="F9" s="9">
         <v>15</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="15">
+      <c r="G9" s="4">
+        <v>-4.5399999999999998E-3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-1.3500000000000001E-3</v>
+      </c>
+      <c r="I9" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.3166666666666662E-4</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
       <c r="B10" s="2">
         <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>45386.9</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>4.4065578393765603E-4</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13">
+      <c r="E10" s="15"/>
+      <c r="F10" s="9">
         <v>20</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="15">
+      <c r="G10" s="4">
+        <v>-5.4999999999999997E-3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-1.6199999999999999E-3</v>
+      </c>
+      <c r="I10" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.4666666666666659E-4</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
       <c r="B11" s="2">
         <v>30</v>
       </c>
       <c r="C11" s="2">
         <v>46231.5</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>6.48908211933422E-4</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="15">
         <v>10</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="9">
         <v>5</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="15">
+      <c r="G11" s="4">
+        <v>-1.56E-3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-5.0799999999999999E-4</v>
+      </c>
+      <c r="I11" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.7533333333333333E-4</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
         <v>15</v>
       </c>
       <c r="B12" s="2">
@@ -4164,87 +4660,99 @@
       <c r="C12" s="2">
         <v>50144.6</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>1.9942326790920657E-4</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13">
+      <c r="E12" s="15"/>
+      <c r="F12" s="9">
         <v>10</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="15">
+      <c r="G12" s="4">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-8.0900000000000004E-4</v>
+      </c>
+      <c r="I12" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.9849999999999999E-4</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
       <c r="B13" s="2">
         <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>49369.3</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>3.0383254370631139E-4</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13">
+      <c r="E13" s="15"/>
+      <c r="F13" s="9">
         <v>15</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="15">
+      <c r="G13" s="4">
+        <v>-3.5300000000000002E-3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-1.08E-3</v>
+      </c>
+      <c r="I13" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.083333333333333E-4</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
       <c r="B14" s="2">
         <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>56136.800000000003</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>5.3440880135668576E-4</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13">
+      <c r="E14" s="15"/>
+      <c r="F14" s="9">
         <v>20</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="15">
+      <c r="G14" s="4">
+        <v>-4.45E-3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-1.34E-3</v>
+      </c>
+      <c r="I14" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.1833333333333332E-4</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
         <v>20</v>
       </c>
       <c r="B15" s="2">
@@ -4253,399 +4761,471 @@
       <c r="C15" s="2">
         <v>59705</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>2.5123523992965415E-4</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13">
+      <c r="E15" s="15"/>
+      <c r="F15" s="9">
         <v>25</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="15">
+      <c r="G15" s="4">
+        <v>-5.2300000000000003E-3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-1.56E-3</v>
+      </c>
+      <c r="I15" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.1166666666666672E-4</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
       <c r="B16" s="2">
         <v>20</v>
       </c>
       <c r="C16" s="2">
         <v>61469.9</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>3.2536249448917275E-4</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13">
+      <c r="E16" s="15"/>
+      <c r="F16" s="9">
         <v>30</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="15">
+      <c r="G16" s="4">
+        <v>-5.96E-3</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-1.7700000000000001E-3</v>
+      </c>
+      <c r="I16" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>6.9833333333333336E-4</v>
+      </c>
+      <c r="J16" s="4"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
       <c r="B17" s="2">
         <v>40</v>
       </c>
       <c r="C17" s="2">
         <v>65475.3</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>6.1091739938572251E-4</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13">
+      <c r="E17" s="15"/>
+      <c r="F17" s="9">
         <v>35</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>-6.6600000000000001E-3</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>-1.9599999999999999E-3</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="10">
         <f t="shared" si="1"/>
         <v>7.8333333333333336E-4</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="E18" s="3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E18" s="11">
         <v>15</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="9">
         <v>5</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="15">
+      <c r="G18" s="4">
+        <v>-1.3500000000000001E-3</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-4.5100000000000001E-4</v>
+      </c>
+      <c r="I18" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.4983333333333333E-4</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="E19" s="3"/>
-      <c r="F19" s="13">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E19" s="11"/>
+      <c r="F19" s="9">
         <v>10</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="15">
+      <c r="G19" s="4">
+        <v>-2.2100000000000002E-3</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-7.0399999999999998E-4</v>
+      </c>
+      <c r="I19" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5100000000000003E-4</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="E20" s="3"/>
-      <c r="F20" s="13">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="11"/>
+      <c r="F20" s="9">
         <v>15</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="15">
+      <c r="G20" s="4">
+        <v>-3.0300000000000001E-3</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-9.3999999999999997E-4</v>
+      </c>
+      <c r="I20" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.4833333333333336E-4</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="E21" s="3"/>
-      <c r="F21" s="13">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E21" s="11"/>
+      <c r="F21" s="9">
         <v>20</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="15">
+      <c r="G21" s="4">
+        <v>-3.7799999999999999E-3</v>
+      </c>
+      <c r="H21" s="4">
+        <v>-1.15E-3</v>
+      </c>
+      <c r="I21" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3833333333333333E-4</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="E22" s="3"/>
-      <c r="F22" s="13">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E22" s="11"/>
+      <c r="F22" s="9">
         <v>25</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="15">
+      <c r="G22" s="4">
+        <v>-4.47E-3</v>
+      </c>
+      <c r="H22" s="4">
+        <v>-1.3500000000000001E-3</v>
+      </c>
+      <c r="I22" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.1999999999999995E-4</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="E23" s="3"/>
-      <c r="F23" s="13">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E23" s="11"/>
+      <c r="F23" s="9">
         <v>30</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="15">
+      <c r="G23" s="4">
+        <v>-5.13E-3</v>
+      </c>
+      <c r="H23" s="4">
+        <v>-1.5399999999999999E-3</v>
+      </c>
+      <c r="I23" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.9833333333333342E-4</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="E24" s="3"/>
-      <c r="F24" s="13">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E24" s="11"/>
+      <c r="F24" s="9">
         <v>35</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>-5.8399999999999997E-3</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>-1.74E-3</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="10">
         <f t="shared" si="1"/>
         <v>6.8333333333333321E-4</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="E25" s="3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E25" s="11">
         <v>20</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="9">
         <v>5</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="15">
+      <c r="G25" s="4">
+        <v>-1.2099999999999999E-3</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-4.1599999999999997E-4</v>
+      </c>
+      <c r="I25" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.3233333333333334E-4</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="E26" s="3"/>
-      <c r="F26" s="13">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E26" s="11"/>
+      <c r="F26" s="9">
         <v>10</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="15">
+      <c r="G26" s="4">
+        <v>-1.99E-3</v>
+      </c>
+      <c r="H26" s="4">
+        <v>-6.4099999999999997E-4</v>
+      </c>
+      <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2483333333333331E-4</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="E27" s="3"/>
-      <c r="F27" s="13">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E27" s="11"/>
+      <c r="F27" s="9">
         <v>15</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="15">
+      <c r="G27" s="4">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-8.4999999999999995E-4</v>
+      </c>
+      <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.0833333333333337E-4</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="E28" s="3"/>
-      <c r="F28" s="13">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E28" s="11"/>
+      <c r="F28" s="9">
         <v>20</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="15">
+      <c r="G28" s="4">
+        <v>-3.3899999999999998E-3</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-1.0499999999999999E-3</v>
+      </c>
+      <c r="I28" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="E29" s="3"/>
-      <c r="F29" s="13">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E29" s="11"/>
+      <c r="F29" s="9">
         <v>25</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="15">
+      <c r="G29" s="4">
+        <v>-4.0200000000000001E-3</v>
+      </c>
+      <c r="H29" s="4">
+        <v>-1.23E-3</v>
+      </c>
+      <c r="I29" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6499999999999997E-4</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="E30" s="3"/>
-      <c r="F30" s="13">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E30" s="11"/>
+      <c r="F30" s="9">
         <v>30</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="15">
+      <c r="G30" s="4">
+        <v>-4.62E-3</v>
+      </c>
+      <c r="H30" s="4">
+        <v>-1.4E-3</v>
+      </c>
+      <c r="I30" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.3666666666666663E-4</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="E31" s="3"/>
-      <c r="F31" s="13">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E31" s="11"/>
+      <c r="F31" s="9">
         <v>35</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="15">
+      <c r="G31" s="4">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="H31" s="4">
+        <v>-1.57E-3</v>
+      </c>
+      <c r="I31" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.0499999999999996E-4</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="E32" s="3"/>
-      <c r="F32" s="13">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E32" s="11"/>
+      <c r="F32" s="9">
         <v>40</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="15">
+      <c r="G32" s="4">
+        <v>-5.7499999999999999E-3</v>
+      </c>
+      <c r="H32" s="4">
+        <v>-1.72E-3</v>
+      </c>
+      <c r="I32" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.7166666666666666E-4</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="6">
+      <c r="L32" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:12">
-      <c r="E33" s="3"/>
-      <c r="F33" s="13">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E33" s="11"/>
+      <c r="F33" s="9">
         <v>45</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="15">
+      <c r="G33" s="4">
+        <v>-6.3899999999999998E-3</v>
+      </c>
+      <c r="H33" s="4">
+        <v>-1.91E-3</v>
+      </c>
+      <c r="I33" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.4666666666666664E-4</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="6">
+      <c r="L33" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:12">
-      <c r="E34" s="3"/>
-      <c r="F34" s="13">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E34" s="11"/>
+      <c r="F34" s="9">
         <v>50</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="15">
+      <c r="G34" s="4">
+        <v>-6.8999999999999999E-3</v>
+      </c>
+      <c r="H34" s="4">
+        <v>-2.0600000000000002E-3</v>
+      </c>
+      <c r="I34" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.0666666666666658E-4</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="6">
+      <c r="L34" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>

--- a/FEM/Output/comparison_triaxial.xlsx
+++ b/FEM/Output/comparison_triaxial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HHH/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HHH/Desktop/Git/FEM/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC84A8D1-BC53-9F4D-AC86-2CCEE5954621}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3852F7B5-0ADF-694F-8FB7-98FFF936F503}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="460" windowWidth="27160" windowHeight="16820" activeTab="1" xr2:uid="{6FEF4706-8CFD-764F-A62E-A73FD66A4C76}"/>
   </bookViews>
@@ -21,17 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Deviator stress (psi)</t>
   </si>
@@ -71,12 +66,15 @@
   <si>
     <t>Simulation Group</t>
   </si>
+  <si>
+    <t>Error( %)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,8 +88,15 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -194,9 +205,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -217,6 +225,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -226,7 +240,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,7 +1204,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1196,18 +1217,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1"/>
               <a:t>Triaxial</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1" baseline="0"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>Test</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" baseline="0"/>
+              <a:t>Test - GT-PAVE</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2000" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1224,7 +1245,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2052,7 +2073,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2065,26 +2086,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
                   <a:t>Axial</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
                   <a:t>Strain</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
                   <a:t>(in./in.)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2101,7 +2122,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2136,7 +2157,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2186,7 +2207,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2199,26 +2220,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
                   <a:t>Deviator</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" baseline="0"/>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" baseline="0"/>
                   <a:t>Stress</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" baseline="0"/>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" baseline="0"/>
                   <a:t>(psi)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2235,7 +2256,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2270,7 +2291,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2312,7 +2333,1374 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1"/>
+              <a:t>Triaxial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" baseline="0"/>
+              <a:t>Test - GT-PAVE &amp; C-FLEX</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3psi_CFLEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$3:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0083083333333334E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2464616666666668E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2589666666666674E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1238500000000008E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A28-6443-9EDF-F2432EEC1BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5psi_CFLEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$7:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.3776133333333331E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9152833333333336E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1793333333333342E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2567333333333336E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$7:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A28-6443-9EDF-F2432EEC1BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10psi_CFLEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$11:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.8151316666666661E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0471650000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1379666666666666E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1152000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0007666666666659E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8112333333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5592000000000009E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$11:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A28-6443-9EDF-F2432EEC1BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>15psi_CFLEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$18:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5510933333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6005599999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5543199999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4333000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2477833333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0065999999999993E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7170499999999998E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$18:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8A28-6443-9EDF-F2432EEC1BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>20psi_CFLEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$25:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4079266666666668E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3254150000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1764583333333335E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9747666666666666E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7255666666666659E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4338166666666665E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1040666666666672E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7401833333333334E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3456333333333341E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9233333333333326E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$25:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8A28-6443-9EDF-F2432EEC1BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>3psi_GT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.006666666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2883333333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3666666666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2999999999999998E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8A28-6443-9EDF-F2432EEC1BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>5psi_GT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$7:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.3266666666666669E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9833333333333328E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3166666666666662E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4666666666666659E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$7:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8A28-6443-9EDF-F2432EEC1BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>10psi_GT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$11:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7533333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9849999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1833333333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1166666666666672E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9833333333333336E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8333333333333336E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$11:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8A28-6443-9EDF-F2432EEC1BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>15psi_GT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$18:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4983333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5100000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4833333333333336E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3833333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9833333333333342E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8333333333333321E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$18:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8A28-6443-9EDF-F2432EEC1BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>20psi_GT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$25:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3233333333333334E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2483333333333331E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0833333333333337E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6499999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3666666666666663E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0499999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7166666666666666E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4666666666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0666666666666658E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$25:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8A28-6443-9EDF-F2432EEC1BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1474169040"/>
+        <c:axId val="1474170720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1474169040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+                  <a:t>Axial</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+                  <a:t>Strain</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+                  <a:t>(in./in.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1474170720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000006E-4"/>
+        <c:minorUnit val="1.0000000000000003E-4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1474170720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+                  <a:t>Deviator</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" baseline="0"/>
+                  <a:t>Stress</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" baseline="0"/>
+                  <a:t>(psi)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1474169040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2452,6 +3840,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2969,6 +4397,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3529,16 +5473,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>16329</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>433615</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
+      <xdr:rowOff>192314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>397329</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>814615</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3560,6 +5504,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>406401</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D969C4C-5D2B-1A4A-8F3F-AFC3AC7826F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3871,14 +5853,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3889,7 +5871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2.5</v>
       </c>
@@ -3900,7 +5882,7 @@
         <v>1.4640000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -3911,7 +5893,7 @@
         <v>2.7520000000000002E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>9</v>
       </c>
@@ -3922,7 +5904,7 @@
         <v>3.6880000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3933,7 +5915,7 @@
         <v>1.517E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -3944,7 +5926,7 @@
         <v>2.5700000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -3955,7 +5937,7 @@
         <v>3.6900000000000002E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>20</v>
       </c>
@@ -3966,7 +5948,7 @@
         <v>4.8099999999999998E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>25</v>
       </c>
@@ -3977,7 +5959,7 @@
         <v>5.8600000000000004E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>30</v>
       </c>
@@ -3988,7 +5970,7 @@
         <v>6.7469999999999997E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>35</v>
       </c>
@@ -3999,7 +5981,7 @@
         <v>7.6429999999999998E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -4010,7 +5992,7 @@
         <v>1.5589999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4021,7 +6003,7 @@
         <v>2.6039999999999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>15</v>
       </c>
@@ -4032,7 +6014,7 @@
         <v>3.6529999999999999E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -4043,7 +6025,7 @@
         <v>4.5189999999999998E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>25</v>
       </c>
@@ -4054,7 +6036,7 @@
         <v>5.442E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>30</v>
       </c>
@@ -4065,7 +6047,7 @@
         <v>6.1260000000000004E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>35</v>
       </c>
@@ -4076,7 +6058,7 @@
         <v>6.9229999999999997E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -4087,7 +6069,7 @@
         <v>1.4679999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>10</v>
       </c>
@@ -4098,7 +6080,7 @@
         <v>2.4389999999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -4109,7 +6091,7 @@
         <v>3.3770000000000002E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4120,7 +6102,7 @@
         <v>4.1060000000000001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>25</v>
       </c>
@@ -4131,7 +6113,7 @@
         <v>4.927E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>30</v>
       </c>
@@ -4142,7 +6124,7 @@
         <v>5.7149999999999996E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>35</v>
       </c>
@@ -4153,7 +6135,7 @@
         <v>6.4720000000000001E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>40</v>
       </c>
@@ -4164,7 +6146,7 @@
         <v>7.2009999999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>45</v>
       </c>
@@ -4175,7 +6157,7 @@
         <v>7.9049999999999997E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>50</v>
       </c>
@@ -4186,7 +6168,7 @@
         <v>8.2370000000000002E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>10</v>
       </c>
@@ -4197,7 +6179,7 @@
         <v>2.1460000000000001E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>20</v>
       </c>
@@ -4208,7 +6190,7 @@
         <v>3.5169999999999998E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4219,7 +6201,7 @@
         <v>4.8819999999999999E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>40</v>
       </c>
@@ -4230,7 +6212,7 @@
         <v>6.1580000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>50</v>
       </c>
@@ -4241,7 +6223,7 @@
         <v>7.3559999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>60</v>
       </c>
@@ -4260,13 +6242,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A0966C-B8B6-BC46-A53C-B5783069CE64}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AQ30" sqref="AQ30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" customWidth="1"/>
@@ -4274,33 +6256,35 @@
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:21" ht="48">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -4310,10 +6294,10 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -4337,9 +6321,12 @@
       <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="M2" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="12">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -4348,14 +6335,14 @@
       <c r="C3" s="2">
         <v>19017.3</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <f>B3/C3</f>
         <v>1.577511003139247E-4</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>3</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>3</v>
       </c>
       <c r="G3" s="4">
@@ -4364,34 +6351,42 @@
       <c r="H3" s="4">
         <v>-5.6599999999999999E-4</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <f>-(G3-H3)/6</f>
         <v>2.006666666666667E-4</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="5">
-        <f>(J3-K3)/6</f>
-        <v>0</v>
+      <c r="J3" s="4">
+        <v>-1.76296E-3</v>
+      </c>
+      <c r="K3" s="4">
+        <v>-5.5797500000000005E-4</v>
+      </c>
+      <c r="L3" s="9">
+        <f>-(J3-K3)/6</f>
+        <v>2.0083083333333334E-4</v>
+      </c>
+      <c r="M3" s="19">
+        <f>ABS(I3-L3)/I3*100</f>
+        <v>8.1810631229222774E-2</v>
       </c>
       <c r="U3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:21">
+      <c r="A4" s="12"/>
       <c r="B4" s="2">
         <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>22875.599999999999</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f t="shared" ref="D4:D17" si="0">B4/C4</f>
         <v>2.6228820227666163E-4</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="9">
+      <c r="E4" s="11"/>
+      <c r="F4" s="8">
         <v>6</v>
       </c>
       <c r="G4" s="4">
@@ -4400,31 +6395,39 @@
       <c r="H4" s="4">
         <v>-8.6700000000000004E-4</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <f t="shared" ref="I4:I34" si="1">-(G4-H4)/6</f>
         <v>3.2883333333333332E-4</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="5">
-        <f t="shared" ref="L4:L34" si="2">(J4-K4)/6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="J4" s="4">
+        <v>-2.79496E-3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>-8.4708299999999999E-4</v>
+      </c>
+      <c r="L4" s="9">
+        <f t="shared" ref="L4:L34" si="2">-(J4-K4)/6</f>
+        <v>3.2464616666666668E-4</v>
+      </c>
+      <c r="M4" s="19">
+        <f t="shared" ref="M4:M34" si="3">ABS(I4-L4)/I4*100</f>
+        <v>1.2733400912316184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="12"/>
       <c r="B5" s="2">
         <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>24451.200000000001</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>3.6808009422850414E-4</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="9">
+      <c r="E5" s="11"/>
+      <c r="F5" s="8">
         <v>9</v>
       </c>
       <c r="G5" s="4">
@@ -4433,19 +6436,27 @@
       <c r="H5" s="4">
         <v>-1.1199999999999999E-3</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <f t="shared" si="1"/>
         <v>4.3666666666666664E-4</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="5">
+      <c r="J5" s="4">
+        <v>-3.6374200000000001E-3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>-1.08204E-3</v>
+      </c>
+      <c r="L5" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+        <v>4.2589666666666674E-4</v>
+      </c>
+      <c r="M5" s="19">
+        <f t="shared" si="3"/>
+        <v>2.4664122137404347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -4454,12 +6465,12 @@
       <c r="C6" s="2">
         <v>24573.5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>2.03471218996073E-4</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="9">
+      <c r="E6" s="11"/>
+      <c r="F6" s="8">
         <v>12</v>
       </c>
       <c r="G6" s="4">
@@ -4468,33 +6479,41 @@
       <c r="H6" s="4">
         <v>-1.33E-3</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <f t="shared" si="1"/>
         <v>5.2999999999999998E-4</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="5">
+      <c r="J6" s="4">
+        <v>-4.3567900000000001E-3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>-1.2824799999999999E-3</v>
+      </c>
+      <c r="L6" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+        <v>5.1238500000000008E-4</v>
+      </c>
+      <c r="M6" s="19">
+        <f t="shared" si="3"/>
+        <v>3.3235849056603595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="12"/>
       <c r="B7" s="2">
         <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>29454.6</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>3.3950554412553557E-4</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>5</v>
       </c>
       <c r="G7" s="4">
@@ -4503,31 +6522,39 @@
       <c r="H7" s="4">
         <v>-6.4400000000000004E-4</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <f t="shared" si="1"/>
         <v>2.3266666666666669E-4</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="5">
+      <c r="J7" s="4">
+        <v>-2.0743799999999998E-3</v>
+      </c>
+      <c r="K7" s="4">
+        <v>-6.47812E-4</v>
+      </c>
+      <c r="L7" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+        <v>2.3776133333333331E-4</v>
+      </c>
+      <c r="M7" s="19">
+        <f t="shared" si="3"/>
+        <v>2.1896848137535598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="12"/>
       <c r="B8" s="2">
         <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>33757</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>4.443522824895577E-4</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="9">
+      <c r="E8" s="11"/>
+      <c r="F8" s="8">
         <v>10</v>
       </c>
       <c r="G8" s="4">
@@ -4536,19 +6563,27 @@
       <c r="H8" s="4">
         <v>-1.0300000000000001E-3</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <f t="shared" si="1"/>
         <v>3.9833333333333328E-4</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="5">
+      <c r="J8" s="4">
+        <v>-3.3594900000000001E-3</v>
+      </c>
+      <c r="K8" s="4">
+        <v>-1.0103200000000001E-3</v>
+      </c>
+      <c r="L8" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+        <v>3.9152833333333336E-4</v>
+      </c>
+      <c r="M8" s="19">
+        <f t="shared" si="3"/>
+        <v>1.7083682008368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="12">
         <v>10</v>
       </c>
       <c r="B9" s="2">
@@ -4557,12 +6592,12 @@
       <c r="C9" s="2">
         <v>42172</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>2.3712415820923837E-4</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="9">
+      <c r="E9" s="11"/>
+      <c r="F9" s="8">
         <v>15</v>
       </c>
       <c r="G9" s="4">
@@ -4571,31 +6606,39 @@
       <c r="H9" s="4">
         <v>-1.3500000000000001E-3</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <f t="shared" si="1"/>
         <v>5.3166666666666662E-4</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="5">
+      <c r="J9" s="4">
+        <v>-4.41362E-3</v>
+      </c>
+      <c r="K9" s="4">
+        <v>-1.30602E-3</v>
+      </c>
+      <c r="L9" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+        <v>5.1793333333333342E-4</v>
+      </c>
+      <c r="M9" s="19">
+        <f t="shared" si="3"/>
+        <v>2.583072100313454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="12"/>
       <c r="B10" s="2">
         <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>45386.9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>4.4065578393765603E-4</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="9">
+      <c r="E10" s="11"/>
+      <c r="F10" s="8">
         <v>20</v>
       </c>
       <c r="G10" s="4">
@@ -4604,33 +6647,41 @@
       <c r="H10" s="4">
         <v>-1.6199999999999999E-3</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <f t="shared" si="1"/>
         <v>6.4666666666666659E-4</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="5">
+      <c r="J10" s="4">
+        <v>-5.3113500000000003E-3</v>
+      </c>
+      <c r="K10" s="4">
+        <v>-1.5573099999999999E-3</v>
+      </c>
+      <c r="L10" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+        <v>6.2567333333333336E-4</v>
+      </c>
+      <c r="M10" s="19">
+        <f t="shared" si="3"/>
+        <v>3.2463917525773045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="12"/>
       <c r="B11" s="2">
         <v>30</v>
       </c>
       <c r="C11" s="2">
         <v>46231.5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>6.48908211933422E-4</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>10</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>5</v>
       </c>
       <c r="G11" s="4">
@@ -4639,19 +6690,27 @@
       <c r="H11" s="4">
         <v>-5.0799999999999999E-4</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <f t="shared" si="1"/>
         <v>1.7533333333333333E-4</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="5">
+      <c r="J11" s="4">
+        <v>-1.6078799999999999E-3</v>
+      </c>
+      <c r="K11" s="4">
+        <v>-5.1880100000000005E-4</v>
+      </c>
+      <c r="L11" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+        <v>1.8151316666666661E-4</v>
+      </c>
+      <c r="M11" s="19">
+        <f t="shared" si="3"/>
+        <v>3.5246197718630898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="12">
         <v>15</v>
       </c>
       <c r="B12" s="2">
@@ -4660,12 +6719,12 @@
       <c r="C12" s="2">
         <v>50144.6</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>1.9942326790920657E-4</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="9">
+      <c r="E12" s="11"/>
+      <c r="F12" s="8">
         <v>10</v>
       </c>
       <c r="G12" s="4">
@@ -4674,31 +6733,39 @@
       <c r="H12" s="4">
         <v>-8.0900000000000004E-4</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <f t="shared" si="1"/>
         <v>2.9849999999999999E-4</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="5">
+      <c r="J12" s="4">
+        <v>-2.6446600000000001E-3</v>
+      </c>
+      <c r="K12" s="4">
+        <v>-8.1636100000000004E-4</v>
+      </c>
+      <c r="L12" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+        <v>3.0471650000000002E-4</v>
+      </c>
+      <c r="M12" s="19">
+        <f t="shared" si="3"/>
+        <v>2.082579564489123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="12"/>
       <c r="B13" s="2">
         <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>49369.3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>3.0383254370631139E-4</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="9">
+      <c r="E13" s="11"/>
+      <c r="F13" s="8">
         <v>15</v>
       </c>
       <c r="G13" s="4">
@@ -4707,31 +6774,39 @@
       <c r="H13" s="4">
         <v>-1.08E-3</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <f t="shared" si="1"/>
         <v>4.083333333333333E-4</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="5">
+      <c r="J13" s="4">
+        <v>-3.5593899999999999E-3</v>
+      </c>
+      <c r="K13" s="4">
+        <v>-1.07661E-3</v>
+      </c>
+      <c r="L13" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+        <v>4.1379666666666666E-4</v>
+      </c>
+      <c r="M13" s="19">
+        <f t="shared" si="3"/>
+        <v>1.3379591836734759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="12"/>
       <c r="B14" s="2">
         <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>56136.800000000003</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>5.3440880135668576E-4</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="9">
+      <c r="E14" s="11"/>
+      <c r="F14" s="8">
         <v>20</v>
       </c>
       <c r="G14" s="4">
@@ -4740,19 +6815,27 @@
       <c r="H14" s="4">
         <v>-1.34E-3</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <f t="shared" si="1"/>
         <v>5.1833333333333332E-4</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="5">
+      <c r="J14" s="4">
+        <v>-4.3771699999999997E-3</v>
+      </c>
+      <c r="K14" s="4">
+        <v>-1.3080500000000001E-3</v>
+      </c>
+      <c r="L14" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+        <v>5.1152000000000001E-4</v>
+      </c>
+      <c r="M14" s="19">
+        <f t="shared" si="3"/>
+        <v>1.3144694533762016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="12">
         <v>20</v>
       </c>
       <c r="B15" s="2">
@@ -4761,12 +6844,12 @@
       <c r="C15" s="2">
         <v>59705</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>2.5123523992965415E-4</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="9">
+      <c r="E15" s="11"/>
+      <c r="F15" s="8">
         <v>25</v>
       </c>
       <c r="G15" s="4">
@@ -4775,31 +6858,39 @@
       <c r="H15" s="4">
         <v>-1.56E-3</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <f t="shared" si="1"/>
         <v>6.1166666666666672E-4</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="5">
+      <c r="J15" s="4">
+        <v>-5.1172800000000001E-3</v>
+      </c>
+      <c r="K15" s="4">
+        <v>-1.5168200000000001E-3</v>
+      </c>
+      <c r="L15" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+        <v>6.0007666666666659E-4</v>
+      </c>
+      <c r="M15" s="19">
+        <f t="shared" si="3"/>
+        <v>1.8948228882833991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="12"/>
       <c r="B16" s="2">
         <v>20</v>
       </c>
       <c r="C16" s="2">
         <v>61469.9</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>3.2536249448917275E-4</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="9">
+      <c r="E16" s="11"/>
+      <c r="F16" s="8">
         <v>30</v>
       </c>
       <c r="G16" s="4">
@@ -4808,31 +6899,39 @@
       <c r="H16" s="4">
         <v>-1.7700000000000001E-3</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <f t="shared" si="1"/>
         <v>6.9833333333333336E-4</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="5">
+      <c r="J16" s="4">
+        <v>-5.7940300000000004E-3</v>
+      </c>
+      <c r="K16" s="4">
+        <v>-1.70729E-3</v>
+      </c>
+      <c r="L16" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+        <v>6.8112333333333332E-4</v>
+      </c>
+      <c r="M16" s="19">
+        <f t="shared" si="3"/>
+        <v>2.4644391408114608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="12"/>
       <c r="B17" s="2">
         <v>40</v>
       </c>
       <c r="C17" s="2">
         <v>65475.3</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>6.1091739938572251E-4</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="9">
+      <c r="E17" s="11"/>
+      <c r="F17" s="8">
         <v>35</v>
       </c>
       <c r="G17" s="4">
@@ -4841,22 +6940,30 @@
       <c r="H17" s="4">
         <v>-1.9599999999999999E-3</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <f t="shared" si="1"/>
         <v>7.8333333333333336E-4</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="5">
+      <c r="J17" s="4">
+        <v>-6.4182500000000003E-3</v>
+      </c>
+      <c r="K17" s="4">
+        <v>-1.88273E-3</v>
+      </c>
+      <c r="L17" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E18" s="11">
+        <v>7.5592000000000009E-4</v>
+      </c>
+      <c r="M17" s="19">
+        <f t="shared" si="3"/>
+        <v>3.4995744680850982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="E18" s="12">
         <v>15</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>5</v>
       </c>
       <c r="G18" s="4">
@@ -4865,20 +6972,28 @@
       <c r="H18" s="4">
         <v>-4.5100000000000001E-4</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <f t="shared" si="1"/>
         <v>1.4983333333333333E-4</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="5">
+      <c r="J18" s="4">
+        <v>-1.38922E-3</v>
+      </c>
+      <c r="K18" s="4">
+        <v>-4.5856400000000001E-4</v>
+      </c>
+      <c r="L18" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E19" s="11"/>
-      <c r="F19" s="9">
+        <v>1.5510933333333333E-4</v>
+      </c>
+      <c r="M18" s="19">
+        <f t="shared" si="3"/>
+        <v>3.5212458286985506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="E19" s="12"/>
+      <c r="F19" s="8">
         <v>10</v>
       </c>
       <c r="G19" s="4">
@@ -4887,20 +7002,28 @@
       <c r="H19" s="4">
         <v>-7.0399999999999998E-4</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <f t="shared" si="1"/>
         <v>2.5100000000000003E-4</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="5">
+      <c r="J19" s="4">
+        <v>-2.27618E-3</v>
+      </c>
+      <c r="K19" s="4">
+        <v>-7.1584399999999999E-4</v>
+      </c>
+      <c r="L19" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E20" s="11"/>
-      <c r="F20" s="9">
+        <v>2.6005599999999999E-4</v>
+      </c>
+      <c r="M19" s="19">
+        <f t="shared" si="3"/>
+        <v>3.6079681274900244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="E20" s="12"/>
+      <c r="F20" s="8">
         <v>15</v>
       </c>
       <c r="G20" s="4">
@@ -4909,20 +7032,28 @@
       <c r="H20" s="4">
         <v>-9.3999999999999997E-4</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <f t="shared" si="1"/>
         <v>3.4833333333333336E-4</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="5">
+      <c r="J20" s="4">
+        <v>-3.0789900000000002E-3</v>
+      </c>
+      <c r="K20" s="4">
+        <v>-9.4639799999999999E-4</v>
+      </c>
+      <c r="L20" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E21" s="11"/>
-      <c r="F21" s="9">
+        <v>3.5543199999999998E-4</v>
+      </c>
+      <c r="M20" s="19">
+        <f t="shared" si="3"/>
+        <v>2.0378947368420919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="E21" s="12"/>
+      <c r="F21" s="8">
         <v>20</v>
       </c>
       <c r="G21" s="4">
@@ -4931,20 +7062,28 @@
       <c r="H21" s="4">
         <v>-1.15E-3</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <f t="shared" si="1"/>
         <v>4.3833333333333333E-4</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="5">
+      <c r="J21" s="4">
+        <v>-3.8170700000000001E-3</v>
+      </c>
+      <c r="K21" s="4">
+        <v>-1.1570899999999999E-3</v>
+      </c>
+      <c r="L21" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E22" s="11"/>
-      <c r="F22" s="9">
+        <v>4.4333000000000003E-4</v>
+      </c>
+      <c r="M21" s="19">
+        <f t="shared" si="3"/>
+        <v>1.1399239543726312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="E22" s="12"/>
+      <c r="F22" s="8">
         <v>25</v>
       </c>
       <c r="G22" s="4">
@@ -4953,20 +7092,28 @@
       <c r="H22" s="4">
         <v>-1.3500000000000001E-3</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <f t="shared" si="1"/>
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="5">
+      <c r="J22" s="4">
+        <v>-4.4998199999999999E-3</v>
+      </c>
+      <c r="K22" s="4">
+        <v>-1.35115E-3</v>
+      </c>
+      <c r="L22" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E23" s="11"/>
-      <c r="F23" s="9">
+        <v>5.2477833333333332E-4</v>
+      </c>
+      <c r="M22" s="19">
+        <f t="shared" si="3"/>
+        <v>0.91891025641026203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="E23" s="12"/>
+      <c r="F23" s="8">
         <v>30</v>
       </c>
       <c r="G23" s="4">
@@ -4975,20 +7122,28 @@
       <c r="H23" s="4">
         <v>-1.5399999999999999E-3</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <f t="shared" si="1"/>
         <v>5.9833333333333342E-4</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="5">
+      <c r="J23" s="4">
+        <v>-5.1351000000000001E-3</v>
+      </c>
+      <c r="K23" s="4">
+        <v>-1.5311400000000001E-3</v>
+      </c>
+      <c r="L23" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E24" s="11"/>
-      <c r="F24" s="9">
+        <v>6.0065999999999993E-4</v>
+      </c>
+      <c r="M23" s="19">
+        <f t="shared" si="3"/>
+        <v>0.38885793871863672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="E24" s="12"/>
+      <c r="F24" s="8">
         <v>35</v>
       </c>
       <c r="G24" s="4">
@@ -4997,22 +7152,30 @@
       <c r="H24" s="4">
         <v>-1.74E-3</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <f t="shared" si="1"/>
         <v>6.8333333333333321E-4</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="5">
+      <c r="J24" s="4">
+        <v>-5.7293400000000003E-3</v>
+      </c>
+      <c r="K24" s="4">
+        <v>-1.69911E-3</v>
+      </c>
+      <c r="L24" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E25" s="11">
+        <v>6.7170499999999998E-4</v>
+      </c>
+      <c r="M24" s="19">
+        <f t="shared" si="3"/>
+        <v>1.7017073170731558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="E25" s="12">
         <v>20</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>5</v>
       </c>
       <c r="G25" s="4">
@@ -5021,20 +7184,28 @@
       <c r="H25" s="4">
         <v>-4.1599999999999997E-4</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <f t="shared" si="1"/>
         <v>1.3233333333333334E-4</v>
       </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="5">
+      <c r="J25" s="4">
+        <v>-1.2723400000000001E-3</v>
+      </c>
+      <c r="K25" s="4">
+        <v>-4.27584E-4</v>
+      </c>
+      <c r="L25" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E26" s="11"/>
-      <c r="F26" s="9">
+        <v>1.4079266666666668E-4</v>
+      </c>
+      <c r="M25" s="19">
+        <f t="shared" si="3"/>
+        <v>6.3924433249370347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="E26" s="12"/>
+      <c r="F26" s="8">
         <v>10</v>
       </c>
       <c r="G26" s="4">
@@ -5043,20 +7214,28 @@
       <c r="H26" s="4">
         <v>-6.4099999999999997E-4</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f t="shared" si="1"/>
         <v>2.2483333333333331E-4</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="5">
+      <c r="J26" s="4">
+        <v>-2.0495800000000001E-3</v>
+      </c>
+      <c r="K26" s="4">
+        <v>-6.5433099999999997E-4</v>
+      </c>
+      <c r="L26" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E27" s="11"/>
-      <c r="F27" s="9">
+        <v>2.3254150000000002E-4</v>
+      </c>
+      <c r="M26" s="19">
+        <f t="shared" si="3"/>
+        <v>3.4283914010378216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="E27" s="12"/>
+      <c r="F27" s="8">
         <v>15</v>
       </c>
       <c r="G27" s="4">
@@ -5065,20 +7244,28 @@
       <c r="H27" s="4">
         <v>-8.4999999999999995E-4</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="9">
         <f t="shared" si="1"/>
         <v>3.0833333333333337E-4</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="5">
+      <c r="J27" s="4">
+        <v>-2.76779E-3</v>
+      </c>
+      <c r="K27" s="4">
+        <v>-8.6191499999999999E-4</v>
+      </c>
+      <c r="L27" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E28" s="11"/>
-      <c r="F28" s="9">
+        <v>3.1764583333333335E-4</v>
+      </c>
+      <c r="M27" s="19">
+        <f t="shared" si="3"/>
+        <v>3.0202702702702666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="E28" s="12"/>
+      <c r="F28" s="8">
         <v>20</v>
       </c>
       <c r="G28" s="4">
@@ -5087,20 +7274,28 @@
       <c r="H28" s="4">
         <v>-1.0499999999999999E-3</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <f t="shared" si="1"/>
         <v>3.8999999999999999E-4</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="5">
+      <c r="J28" s="4">
+        <v>-3.4398499999999999E-3</v>
+      </c>
+      <c r="K28" s="4">
+        <v>-1.05499E-3</v>
+      </c>
+      <c r="L28" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E29" s="11"/>
-      <c r="F29" s="9">
+        <v>3.9747666666666666E-4</v>
+      </c>
+      <c r="M28" s="19">
+        <f t="shared" si="3"/>
+        <v>1.9170940170940158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="E29" s="12"/>
+      <c r="F29" s="8">
         <v>25</v>
       </c>
       <c r="G29" s="4">
@@ -5109,20 +7304,28 @@
       <c r="H29" s="4">
         <v>-1.23E-3</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
         <f t="shared" si="1"/>
         <v>4.6499999999999997E-4</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="5">
+      <c r="J29" s="4">
+        <v>-4.0707399999999998E-3</v>
+      </c>
+      <c r="K29" s="4">
+        <v>-1.2354E-3</v>
+      </c>
+      <c r="L29" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E30" s="11"/>
-      <c r="F30" s="9">
+        <v>4.7255666666666659E-4</v>
+      </c>
+      <c r="M29" s="19">
+        <f t="shared" si="3"/>
+        <v>1.6250896057347572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="E30" s="12"/>
+      <c r="F30" s="8">
         <v>30</v>
       </c>
       <c r="G30" s="4">
@@ -5131,20 +7334,28 @@
       <c r="H30" s="4">
         <v>-1.4E-3</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <f t="shared" si="1"/>
         <v>5.3666666666666663E-4</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="5">
+      <c r="J30" s="4">
+        <v>-4.6650399999999996E-3</v>
+      </c>
+      <c r="K30" s="4">
+        <v>-1.40475E-3</v>
+      </c>
+      <c r="L30" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E31" s="11"/>
-      <c r="F31" s="9">
+        <v>5.4338166666666665E-4</v>
+      </c>
+      <c r="M30" s="19">
+        <f t="shared" si="3"/>
+        <v>1.2512422360248485</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="E31" s="12"/>
+      <c r="F31" s="8">
         <v>35</v>
       </c>
       <c r="G31" s="4">
@@ -5153,20 +7364,28 @@
       <c r="H31" s="4">
         <v>-1.57E-3</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <f t="shared" si="1"/>
         <v>6.0499999999999996E-4</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="5">
+      <c r="J31" s="4">
+        <v>-5.2268000000000002E-3</v>
+      </c>
+      <c r="K31" s="4">
+        <v>-1.5643600000000001E-3</v>
+      </c>
+      <c r="L31" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E32" s="11"/>
-      <c r="F32" s="9">
+        <v>6.1040666666666672E-4</v>
+      </c>
+      <c r="M31" s="19">
+        <f t="shared" si="3"/>
+        <v>0.89366391184574523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="E32" s="12"/>
+      <c r="F32" s="8">
         <v>40</v>
       </c>
       <c r="G32" s="4">
@@ -5175,20 +7394,28 @@
       <c r="H32" s="4">
         <v>-1.72E-3</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <f t="shared" si="1"/>
         <v>6.7166666666666666E-4</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="5">
+      <c r="J32" s="4">
+        <v>-5.75948E-3</v>
+      </c>
+      <c r="K32" s="4">
+        <v>-1.7153699999999999E-3</v>
+      </c>
+      <c r="L32" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E33" s="11"/>
-      <c r="F33" s="9">
+        <v>6.7401833333333334E-4</v>
+      </c>
+      <c r="M32" s="19">
+        <f t="shared" si="3"/>
+        <v>0.35012406947891117</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13">
+      <c r="E33" s="12"/>
+      <c r="F33" s="8">
         <v>45</v>
       </c>
       <c r="G33" s="4">
@@ -5197,20 +7424,28 @@
       <c r="H33" s="4">
         <v>-1.91E-3</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="9">
         <f t="shared" si="1"/>
         <v>7.4666666666666664E-4</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="5">
+      <c r="J33" s="4">
+        <v>-6.2661000000000001E-3</v>
+      </c>
+      <c r="K33" s="4">
+        <v>-1.8587199999999999E-3</v>
+      </c>
+      <c r="L33" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E34" s="11"/>
-      <c r="F34" s="9">
+        <v>7.3456333333333341E-4</v>
+      </c>
+      <c r="M33" s="19">
+        <f t="shared" si="3"/>
+        <v>1.6209821428571289</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13">
+      <c r="E34" s="12"/>
+      <c r="F34" s="8">
         <v>50</v>
       </c>
       <c r="G34" s="4">
@@ -5219,34 +7454,147 @@
       <c r="H34" s="4">
         <v>-2.0600000000000002E-3</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <f t="shared" si="1"/>
         <v>8.0666666666666658E-4</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="5">
+      <c r="J34" s="4">
+        <v>-6.7492300000000002E-3</v>
+      </c>
+      <c r="K34" s="4">
+        <v>-1.9952300000000002E-3</v>
+      </c>
+      <c r="L34" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>7.9233333333333326E-4</v>
+      </c>
+      <c r="M34" s="19">
+        <f t="shared" si="3"/>
+        <v>1.7768595041322301</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13">
+      <c r="M35" s="18"/>
+    </row>
+    <row r="38" spans="5:13">
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" spans="5:13">
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" spans="5:13">
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="5:13">
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="5:13">
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" spans="5:13">
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" spans="5:13">
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="5:13">
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" spans="5:13">
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" spans="5:13">
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" spans="5:13">
+      <c r="J48" s="16"/>
+    </row>
+    <row r="49" spans="10:10">
+      <c r="J49" s="16"/>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" s="16"/>
+    </row>
+    <row r="51" spans="10:10">
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" spans="10:10">
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="10:10">
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" spans="10:10">
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" spans="10:10">
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" spans="10:10">
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" spans="10:10">
+      <c r="J59" s="16"/>
+    </row>
+    <row r="60" spans="10:10">
+      <c r="J60" s="16"/>
+    </row>
+    <row r="61" spans="10:10">
+      <c r="J61" s="16"/>
+    </row>
+    <row r="62" spans="10:10">
+      <c r="J62" s="16"/>
+    </row>
+    <row r="63" spans="10:10">
+      <c r="J63" s="16"/>
+    </row>
+    <row r="64" spans="10:10">
+      <c r="J64" s="16"/>
+    </row>
+    <row r="65" spans="10:10">
+      <c r="J65" s="16"/>
+    </row>
+    <row r="66" spans="10:10">
+      <c r="J66" s="16"/>
+    </row>
+    <row r="67" spans="10:10">
+      <c r="J67" s="16"/>
+    </row>
+    <row r="68" spans="10:10">
+      <c r="J68" s="16"/>
+    </row>
+    <row r="69" spans="10:10">
+      <c r="J69" s="16"/>
+    </row>
+    <row r="70" spans="10:10">
+      <c r="J70" s="16"/>
+    </row>
+    <row r="71" spans="10:10">
+      <c r="J71" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="E11:E17"/>
     <mergeCell ref="E18:E24"/>
     <mergeCell ref="E25:E34"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/FEM/Output/comparison_triaxial.xlsx
+++ b/FEM/Output/comparison_triaxial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HHH/Desktop/Git/FEM/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3852F7B5-0ADF-694F-8FB7-98FFF936F503}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6940ED1C-C642-FD4E-A7C9-49F5D0DE9A51}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="460" windowWidth="27160" windowHeight="16820" activeTab="1" xr2:uid="{6FEF4706-8CFD-764F-A62E-A73FD66A4C76}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Deviator stress (psi)</t>
   </si>
@@ -69,12 +69,18 @@
   <si>
     <t>Error( %)</t>
   </si>
+  <si>
+    <t>Zero-Deviator Result, C-FLEX</t>
+  </si>
+  <si>
+    <t>Zero-Deviator Result, GT-PAVE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -225,7 +231,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -240,14 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1612,16 +1621,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.006666666666667E-4</c:v>
+                  <c:v>1.5446833333333337E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2883333333333332E-4</c:v>
+                  <c:v>2.8263499999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3666666666666664E-4</c:v>
+                  <c:v>3.9046833333333331E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999998E-4</c:v>
+                  <c:v>4.8380166666666665E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1689,16 +1698,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3266666666666669E-4</c:v>
+                  <c:v>1.9034733333333337E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9833333333333328E-4</c:v>
+                  <c:v>3.5601399999999993E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3166666666666662E-4</c:v>
+                  <c:v>4.8934733333333327E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4666666666666659E-4</c:v>
+                  <c:v>6.0434733333333325E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,25 +1775,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.7533333333333333E-4</c:v>
+                  <c:v>1.343855E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9849999999999999E-4</c:v>
+                  <c:v>2.5755216666666666E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.083333333333333E-4</c:v>
+                  <c:v>3.6738549999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1833333333333332E-4</c:v>
+                  <c:v>4.7738549999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1166666666666672E-4</c:v>
+                  <c:v>5.7071883333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9833333333333336E-4</c:v>
+                  <c:v>6.5738550000000008E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8333333333333336E-4</c:v>
+                  <c:v>7.4238550000000009E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,25 +1870,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.4983333333333333E-4</c:v>
+                  <c:v>1.079175E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5100000000000003E-4</c:v>
+                  <c:v>2.0908416666666669E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4833333333333336E-4</c:v>
+                  <c:v>3.0641750000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3833333333333333E-4</c:v>
+                  <c:v>3.9641749999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1999999999999995E-4</c:v>
+                  <c:v>4.7808416666666662E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9833333333333342E-4</c:v>
+                  <c:v>5.5641750000000008E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8333333333333321E-4</c:v>
+                  <c:v>6.4141749999999987E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1956,34 +1965,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.3233333333333334E-4</c:v>
+                  <c:v>8.8661500000000005E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2483333333333331E-4</c:v>
+                  <c:v>1.8116149999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0833333333333337E-4</c:v>
+                  <c:v>2.6466150000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8999999999999999E-4</c:v>
+                  <c:v>3.4632816666666666E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6499999999999997E-4</c:v>
+                  <c:v>4.2132816666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3666666666666663E-4</c:v>
+                  <c:v>4.9299483333333329E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0499999999999996E-4</c:v>
+                  <c:v>5.6132816666666662E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7166666666666666E-4</c:v>
+                  <c:v>6.2799483333333332E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4666666666666664E-4</c:v>
+                  <c:v>7.029948333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0666666666666658E-4</c:v>
+                  <c:v>7.6299483333333324E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2514,16 +2523,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0083083333333334E-4</c:v>
+                  <c:v>1.5463250000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2464616666666668E-4</c:v>
+                  <c:v>2.7844783333333335E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2589666666666674E-4</c:v>
+                  <c:v>3.7969833333333341E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1238500000000008E-4</c:v>
+                  <c:v>4.6618666666666675E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2593,16 +2602,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3776133333333331E-4</c:v>
+                  <c:v>1.9544199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9152833333333336E-4</c:v>
+                  <c:v>3.4920900000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1793333333333342E-4</c:v>
+                  <c:v>4.7561400000000007E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2567333333333336E-4</c:v>
+                  <c:v>5.8335400000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2672,25 +2681,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.8151316666666661E-4</c:v>
+                  <c:v>1.4056533333333329E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0471650000000002E-4</c:v>
+                  <c:v>2.6376866666666669E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1379666666666666E-4</c:v>
+                  <c:v>3.7284883333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1152000000000001E-4</c:v>
+                  <c:v>4.7057216666666668E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0007666666666659E-4</c:v>
+                  <c:v>5.5912883333333321E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8112333333333332E-4</c:v>
+                  <c:v>6.4017549999999994E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5592000000000009E-4</c:v>
+                  <c:v>7.1497216666666671E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2769,25 +2778,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.5510933333333333E-4</c:v>
+                  <c:v>1.1319349999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6005599999999999E-4</c:v>
+                  <c:v>2.1814016666666666E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5543199999999998E-4</c:v>
+                  <c:v>3.1351616666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4333000000000003E-4</c:v>
+                  <c:v>4.0141416666666669E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2477833333333332E-4</c:v>
+                  <c:v>4.8286249999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0065999999999993E-4</c:v>
+                  <c:v>5.5874416666666659E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7170499999999998E-4</c:v>
+                  <c:v>6.2978916666666664E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2866,34 +2875,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.4079266666666668E-4</c:v>
+                  <c:v>9.7120833333333347E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3254150000000002E-4</c:v>
+                  <c:v>1.8886966666666668E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1764583333333335E-4</c:v>
+                  <c:v>2.7397400000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9747666666666666E-4</c:v>
+                  <c:v>3.5380483333333332E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7255666666666659E-4</c:v>
+                  <c:v>4.2888483333333326E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4338166666666665E-4</c:v>
+                  <c:v>4.9970983333333331E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1040666666666672E-4</c:v>
+                  <c:v>5.6673483333333338E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7401833333333334E-4</c:v>
+                  <c:v>6.3034650000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3456333333333341E-4</c:v>
+                  <c:v>6.9089150000000007E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9233333333333326E-4</c:v>
+                  <c:v>7.4866149999999992E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2979,16 +2988,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.006666666666667E-4</c:v>
+                  <c:v>1.5446833333333337E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2883333333333332E-4</c:v>
+                  <c:v>2.8263499999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3666666666666664E-4</c:v>
+                  <c:v>3.9046833333333331E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999998E-4</c:v>
+                  <c:v>4.8380166666666665E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3056,16 +3065,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3266666666666669E-4</c:v>
+                  <c:v>1.9034733333333337E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9833333333333328E-4</c:v>
+                  <c:v>3.5601399999999993E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3166666666666662E-4</c:v>
+                  <c:v>4.8934733333333327E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4666666666666659E-4</c:v>
+                  <c:v>6.0434733333333325E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3133,25 +3142,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.7533333333333333E-4</c:v>
+                  <c:v>1.343855E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9849999999999999E-4</c:v>
+                  <c:v>2.5755216666666666E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.083333333333333E-4</c:v>
+                  <c:v>3.6738549999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1833333333333332E-4</c:v>
+                  <c:v>4.7738549999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1166666666666672E-4</c:v>
+                  <c:v>5.7071883333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9833333333333336E-4</c:v>
+                  <c:v>6.5738550000000008E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8333333333333336E-4</c:v>
+                  <c:v>7.4238550000000009E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3228,25 +3237,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.4983333333333333E-4</c:v>
+                  <c:v>1.079175E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5100000000000003E-4</c:v>
+                  <c:v>2.0908416666666669E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4833333333333336E-4</c:v>
+                  <c:v>3.0641750000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3833333333333333E-4</c:v>
+                  <c:v>3.9641749999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1999999999999995E-4</c:v>
+                  <c:v>4.7808416666666662E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9833333333333342E-4</c:v>
+                  <c:v>5.5641750000000008E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8333333333333321E-4</c:v>
+                  <c:v>6.4141749999999987E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3323,34 +3332,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.3233333333333334E-4</c:v>
+                  <c:v>8.8661500000000005E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2483333333333331E-4</c:v>
+                  <c:v>1.8116149999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0833333333333337E-4</c:v>
+                  <c:v>2.6466150000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8999999999999999E-4</c:v>
+                  <c:v>3.4632816666666666E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6499999999999997E-4</c:v>
+                  <c:v>4.2132816666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3666666666666663E-4</c:v>
+                  <c:v>4.9299483333333329E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0499999999999996E-4</c:v>
+                  <c:v>5.6132816666666662E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7166666666666666E-4</c:v>
+                  <c:v>6.2799483333333332E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4666666666666664E-4</c:v>
+                  <c:v>7.029948333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0666666666666658E-4</c:v>
+                  <c:v>7.6299483333333324E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3398,6 +3407,1216 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-8A28-6443-9EDF-F2432EEC1BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1474169040"/>
+        <c:axId val="1474170720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1474169040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+                  <a:t>Axial</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+                  <a:t>Strain</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+                  <a:t>(in./in.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1474170720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000006E-4"/>
+        <c:minorUnit val="1.0000000000000003E-4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1474170720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+                  <a:t>Deviator</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" baseline="0"/>
+                  <a:t>Stress</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" baseline="0"/>
+                  <a:t>(psi)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1474169040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1"/>
+              <a:t>Triaxial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" baseline="0"/>
+              <a:t>Test - C-FLEX</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3psi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.577511003139247E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6228820227666163E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6808009422850414E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42C1-AD40-9F59-28B1DA86FE49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5psi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$6:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.03471218996073E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3950554412553557E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.443522824895577E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42C1-AD40-9F59-28B1DA86FE49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10psi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.3712415820923837E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4065578393765603E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.48908211933422E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-42C1-AD40-9F59-28B1DA86FE49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>15psi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$12:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.9942326790920657E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0383254370631139E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3440880135668576E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-42C1-AD40-9F59-28B1DA86FE49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>20psi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.5123523992965415E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2536249448917275E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1091739938572251E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-42C1-AD40-9F59-28B1DA86FE49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>3psi_CFLEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$3:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.5463250000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7844783333333335E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7969833333333341E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6618666666666675E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-42C1-AD40-9F59-28B1DA86FE49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>5psi_CFLEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$7:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9544199999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4920900000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7561400000000007E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8335400000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$7:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-42C1-AD40-9F59-28B1DA86FE49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>10psi_CFLEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$11:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4056533333333329E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6376866666666669E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7284883333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7057216666666668E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5912883333333321E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4017549999999994E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1497216666666671E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$11:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-42C1-AD40-9F59-28B1DA86FE49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>15psi_CFLEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$18:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1319349999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1814016666666666E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1351616666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0141416666666669E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8286249999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5874416666666659E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2978916666666664E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$18:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-42C1-AD40-9F59-28B1DA86FE49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>20psi_CFLEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$25:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.7120833333333347E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8886966666666668E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7397400000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5380483333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2888483333333326E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9970983333333331E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6673483333333338E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3034650000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9089150000000007E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4866149999999992E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$25:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-42C1-AD40-9F59-28B1DA86FE49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3880,6 +5099,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4913,6 +6172,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5473,16 +7248,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>433615</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>192314</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>814615</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>103414</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>110067</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>137280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5511,16 +7286,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>26611</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>406401</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>125186</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>238276</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22980</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5542,6 +7317,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>787401</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>131233</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3755196-C1FD-3D4A-8100-C87D07DDE778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5853,14 +7666,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5871,7 +7684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2.5</v>
       </c>
@@ -5882,7 +7695,7 @@
         <v>1.4640000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -5893,7 +7706,7 @@
         <v>2.7520000000000002E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
@@ -5904,7 +7717,7 @@
         <v>3.6880000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -5915,7 +7728,7 @@
         <v>1.517E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -5926,7 +7739,7 @@
         <v>2.5700000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>15</v>
       </c>
@@ -5937,7 +7750,7 @@
         <v>3.6900000000000002E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20</v>
       </c>
@@ -5948,7 +7761,7 @@
         <v>4.8099999999999998E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>25</v>
       </c>
@@ -5959,7 +7772,7 @@
         <v>5.8600000000000004E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>30</v>
       </c>
@@ -5970,7 +7783,7 @@
         <v>6.7469999999999997E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>35</v>
       </c>
@@ -5981,7 +7794,7 @@
         <v>7.6429999999999998E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -5992,7 +7805,7 @@
         <v>1.5589999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -6003,7 +7816,7 @@
         <v>2.6039999999999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15</v>
       </c>
@@ -6014,7 +7827,7 @@
         <v>3.6529999999999999E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20</v>
       </c>
@@ -6025,7 +7838,7 @@
         <v>4.5189999999999998E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>25</v>
       </c>
@@ -6036,7 +7849,7 @@
         <v>5.442E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30</v>
       </c>
@@ -6047,7 +7860,7 @@
         <v>6.1260000000000004E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>35</v>
       </c>
@@ -6058,7 +7871,7 @@
         <v>6.9229999999999997E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -6069,7 +7882,7 @@
         <v>1.4679999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -6080,7 +7893,7 @@
         <v>2.4389999999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>15</v>
       </c>
@@ -6091,7 +7904,7 @@
         <v>3.3770000000000002E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6102,7 +7915,7 @@
         <v>4.1060000000000001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>25</v>
       </c>
@@ -6113,7 +7926,7 @@
         <v>4.927E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>30</v>
       </c>
@@ -6124,7 +7937,7 @@
         <v>5.7149999999999996E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>35</v>
       </c>
@@ -6135,7 +7948,7 @@
         <v>6.4720000000000001E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>40</v>
       </c>
@@ -6146,7 +7959,7 @@
         <v>7.2009999999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>45</v>
       </c>
@@ -6157,7 +7970,7 @@
         <v>7.9049999999999997E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>50</v>
       </c>
@@ -6168,7 +7981,7 @@
         <v>8.2370000000000002E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
@@ -6179,7 +7992,7 @@
         <v>2.1460000000000001E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>20</v>
       </c>
@@ -6190,7 +8003,7 @@
         <v>3.5169999999999998E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6201,7 +8014,7 @@
         <v>4.8819999999999999E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>40</v>
       </c>
@@ -6212,7 +8025,7 @@
         <v>6.1580000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>50</v>
       </c>
@@ -6223,7 +8036,7 @@
         <v>7.3559999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>60</v>
       </c>
@@ -6242,49 +8055,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A0966C-B8B6-BC46-A53C-B5783069CE64}">
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AQ30" sqref="AQ30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
     <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
       <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:21" ht="48">
+      <c r="N1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -6321,12 +8151,30 @@
       <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="12">
+      <c r="N2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -6339,7 +8187,7 @@
         <f>B3/C3</f>
         <v>1.577511003139247E-4</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="20">
         <v>3</v>
       </c>
       <c r="F3" s="8">
@@ -6352,8 +8200,8 @@
         <v>-5.6599999999999999E-4</v>
       </c>
       <c r="I3" s="9">
-        <f>-(G3-H3)/6</f>
-        <v>2.006666666666667E-4</v>
+        <f>-(G3-H3)/6-P3</f>
+        <v>1.5446833333333337E-4</v>
       </c>
       <c r="J3" s="4">
         <v>-1.76296E-3</v>
@@ -6362,19 +8210,39 @@
         <v>-5.5797500000000005E-4</v>
       </c>
       <c r="L3" s="9">
-        <f>-(J3-K3)/6</f>
-        <v>2.0083083333333334E-4</v>
-      </c>
-      <c r="M3" s="19">
+        <f>-(J3-K3)/6-S3</f>
+        <v>1.5463250000000001E-4</v>
+      </c>
+      <c r="M3" s="15">
         <f>ABS(I3-L3)/I3*100</f>
-        <v>8.1810631229222774E-2</v>
-      </c>
-      <c r="U3" t="s">
+        <v>0.10627852526406081</v>
+      </c>
+      <c r="N3" s="4">
+        <v>-4.6758800000000001E-4</v>
+      </c>
+      <c r="O3" s="4">
+        <v>-1.9039799999999999E-4</v>
+      </c>
+      <c r="P3" s="11">
+        <f>-(N3-O3)/6</f>
+        <v>4.6198333333333335E-5</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>-4.6758800000000001E-4</v>
+      </c>
+      <c r="R3" s="4">
+        <v>-1.9039799999999999E-4</v>
+      </c>
+      <c r="S3" s="11">
+        <f>-(Q3-R3)/6</f>
+        <v>4.6198333333333335E-5</v>
+      </c>
+      <c r="X3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
       <c r="B4" s="2">
         <v>6</v>
       </c>
@@ -6385,7 +8253,7 @@
         <f t="shared" ref="D4:D17" si="0">B4/C4</f>
         <v>2.6228820227666163E-4</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="8">
         <v>6</v>
       </c>
@@ -6396,8 +8264,8 @@
         <v>-8.6700000000000004E-4</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ref="I4:I34" si="1">-(G4-H4)/6</f>
-        <v>3.2883333333333332E-4</v>
+        <f t="shared" ref="I4:I34" si="1">-(G4-H4)/6-P4</f>
+        <v>2.8263499999999999E-4</v>
       </c>
       <c r="J4" s="4">
         <v>-2.79496E-3</v>
@@ -6406,16 +8274,36 @@
         <v>-8.4708299999999999E-4</v>
       </c>
       <c r="L4" s="9">
-        <f t="shared" ref="L4:L34" si="2">-(J4-K4)/6</f>
-        <v>3.2464616666666668E-4</v>
-      </c>
-      <c r="M4" s="19">
-        <f t="shared" ref="M4:M34" si="3">ABS(I4-L4)/I4*100</f>
-        <v>1.2733400912316184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="12"/>
+        <f>-(J4-K4)/6-S4</f>
+        <v>2.7844783333333335E-4</v>
+      </c>
+      <c r="M4" s="15">
+        <f t="shared" ref="M4:M34" si="2">ABS(I4-L4)/I4*100</f>
+        <v>1.481474929384768</v>
+      </c>
+      <c r="N4" s="4">
+        <v>-4.6758800000000001E-4</v>
+      </c>
+      <c r="O4" s="4">
+        <v>-1.9039799999999999E-4</v>
+      </c>
+      <c r="P4" s="11">
+        <f t="shared" ref="P4:P34" si="3">-(N4-O4)/6</f>
+        <v>4.6198333333333335E-5</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>-4.6758800000000001E-4</v>
+      </c>
+      <c r="R4" s="4">
+        <v>-1.9039799999999999E-4</v>
+      </c>
+      <c r="S4" s="11">
+        <f t="shared" ref="S4:S34" si="4">-(Q4-R4)/6</f>
+        <v>4.6198333333333335E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
       <c r="B5" s="2">
         <v>9</v>
       </c>
@@ -6426,7 +8314,7 @@
         <f t="shared" si="0"/>
         <v>3.6808009422850414E-4</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="8">
         <v>9</v>
       </c>
@@ -6438,7 +8326,7 @@
       </c>
       <c r="I5" s="9">
         <f t="shared" si="1"/>
-        <v>4.3666666666666664E-4</v>
+        <v>3.9046833333333331E-4</v>
       </c>
       <c r="J5" s="4">
         <v>-3.6374200000000001E-3</v>
@@ -6447,16 +8335,36 @@
         <v>-1.08204E-3</v>
       </c>
       <c r="L5" s="9">
+        <f>-(J5-K5)/6-S5</f>
+        <v>3.7969833333333341E-4</v>
+      </c>
+      <c r="M5" s="15">
         <f t="shared" si="2"/>
-        <v>4.2589666666666674E-4</v>
-      </c>
-      <c r="M5" s="19">
+        <v>2.7582262326009963</v>
+      </c>
+      <c r="N5" s="4">
+        <v>-4.6758800000000001E-4</v>
+      </c>
+      <c r="O5" s="4">
+        <v>-1.9039799999999999E-4</v>
+      </c>
+      <c r="P5" s="11">
         <f t="shared" si="3"/>
-        <v>2.4664122137404347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="12">
+        <v>4.6198333333333335E-5</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>-4.6758800000000001E-4</v>
+      </c>
+      <c r="R5" s="4">
+        <v>-1.9039799999999999E-4</v>
+      </c>
+      <c r="S5" s="11">
+        <f t="shared" si="4"/>
+        <v>4.6198333333333335E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -6469,7 +8377,7 @@
         <f t="shared" si="0"/>
         <v>2.03471218996073E-4</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="8">
         <v>12</v>
       </c>
@@ -6481,7 +8389,7 @@
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>5.2999999999999998E-4</v>
+        <v>4.8380166666666665E-4</v>
       </c>
       <c r="J6" s="4">
         <v>-4.3567900000000001E-3</v>
@@ -6490,16 +8398,36 @@
         <v>-1.2824799999999999E-3</v>
       </c>
       <c r="L6" s="9">
+        <f>-(J6-K6)/6-S6</f>
+        <v>4.6618666666666675E-4</v>
+      </c>
+      <c r="M6" s="15">
         <f t="shared" si="2"/>
-        <v>5.1238500000000008E-4</v>
-      </c>
-      <c r="M6" s="19">
+        <v>3.640954798970633</v>
+      </c>
+      <c r="N6" s="4">
+        <v>-4.6758800000000001E-4</v>
+      </c>
+      <c r="O6" s="4">
+        <v>-1.9039799999999999E-4</v>
+      </c>
+      <c r="P6" s="11">
         <f t="shared" si="3"/>
-        <v>3.3235849056603595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="12"/>
+        <v>4.6198333333333335E-5</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>-4.6758800000000001E-4</v>
+      </c>
+      <c r="R6" s="4">
+        <v>-1.9039799999999999E-4</v>
+      </c>
+      <c r="S6" s="11">
+        <f t="shared" si="4"/>
+        <v>4.6198333333333335E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
       <c r="B7" s="2">
         <v>10</v>
       </c>
@@ -6510,7 +8438,7 @@
         <f t="shared" si="0"/>
         <v>3.3950554412553557E-4</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="20">
         <v>5</v>
       </c>
       <c r="F7" s="8">
@@ -6524,7 +8452,7 @@
       </c>
       <c r="I7" s="9">
         <f t="shared" si="1"/>
-        <v>2.3266666666666669E-4</v>
+        <v>1.9034733333333337E-4</v>
       </c>
       <c r="J7" s="4">
         <v>-2.0743799999999998E-3</v>
@@ -6533,16 +8461,36 @@
         <v>-6.47812E-4</v>
       </c>
       <c r="L7" s="9">
+        <f>-(J7-K7)/6-S7</f>
+        <v>1.9544199999999999E-4</v>
+      </c>
+      <c r="M7" s="15">
         <f t="shared" si="2"/>
-        <v>2.3776133333333331E-4</v>
-      </c>
-      <c r="M7" s="19">
+        <v>2.6765106594610986</v>
+      </c>
+      <c r="N7" s="4">
+        <v>-4.2969299999999998E-4</v>
+      </c>
+      <c r="O7" s="4">
+        <v>-1.7577700000000001E-4</v>
+      </c>
+      <c r="P7" s="11">
         <f t="shared" si="3"/>
-        <v>2.1896848137535598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="12"/>
+        <v>4.2319333333333326E-5</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>-4.2969299999999998E-4</v>
+      </c>
+      <c r="R7" s="4">
+        <v>-1.7577700000000001E-4</v>
+      </c>
+      <c r="S7" s="11">
+        <f t="shared" si="4"/>
+        <v>4.2319333333333326E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
       <c r="B8" s="2">
         <v>15</v>
       </c>
@@ -6553,7 +8501,7 @@
         <f t="shared" si="0"/>
         <v>4.443522824895577E-4</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="8">
         <v>10</v>
       </c>
@@ -6565,7 +8513,7 @@
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>3.9833333333333328E-4</v>
+        <v>3.5601399999999993E-4</v>
       </c>
       <c r="J8" s="4">
         <v>-3.3594900000000001E-3</v>
@@ -6574,16 +8522,36 @@
         <v>-1.0103200000000001E-3</v>
       </c>
       <c r="L8" s="9">
+        <f>-(J8-K8)/6-S8</f>
+        <v>3.4920900000000001E-4</v>
+      </c>
+      <c r="M8" s="15">
         <f t="shared" si="2"/>
-        <v>3.9152833333333336E-4</v>
-      </c>
-      <c r="M8" s="19">
+        <v>1.9114416848775386</v>
+      </c>
+      <c r="N8" s="4">
+        <v>-4.2969299999999998E-4</v>
+      </c>
+      <c r="O8" s="4">
+        <v>-1.7577700000000001E-4</v>
+      </c>
+      <c r="P8" s="11">
         <f t="shared" si="3"/>
-        <v>1.7083682008368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="12">
+        <v>4.2319333333333326E-5</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>-4.2969299999999998E-4</v>
+      </c>
+      <c r="R8" s="4">
+        <v>-1.7577700000000001E-4</v>
+      </c>
+      <c r="S8" s="11">
+        <f t="shared" si="4"/>
+        <v>4.2319333333333326E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
         <v>10</v>
       </c>
       <c r="B9" s="2">
@@ -6596,7 +8564,7 @@
         <f t="shared" si="0"/>
         <v>2.3712415820923837E-4</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="8">
         <v>15</v>
       </c>
@@ -6608,7 +8576,7 @@
       </c>
       <c r="I9" s="9">
         <f t="shared" si="1"/>
-        <v>5.3166666666666662E-4</v>
+        <v>4.8934733333333327E-4</v>
       </c>
       <c r="J9" s="4">
         <v>-4.41362E-3</v>
@@ -6617,16 +8585,36 @@
         <v>-1.30602E-3</v>
       </c>
       <c r="L9" s="9">
+        <f>-(J9-K9)/6-S9</f>
+        <v>4.7561400000000007E-4</v>
+      </c>
+      <c r="M9" s="15">
         <f t="shared" si="2"/>
-        <v>5.1793333333333342E-4</v>
-      </c>
-      <c r="M9" s="19">
+        <v>2.8064592157444812</v>
+      </c>
+      <c r="N9" s="4">
+        <v>-4.2969299999999998E-4</v>
+      </c>
+      <c r="O9" s="4">
+        <v>-1.7577700000000001E-4</v>
+      </c>
+      <c r="P9" s="11">
         <f t="shared" si="3"/>
-        <v>2.583072100313454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="12"/>
+        <v>4.2319333333333326E-5</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>-4.2969299999999998E-4</v>
+      </c>
+      <c r="R9" s="4">
+        <v>-1.7577700000000001E-4</v>
+      </c>
+      <c r="S9" s="11">
+        <f t="shared" si="4"/>
+        <v>4.2319333333333326E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
       <c r="B10" s="2">
         <v>20</v>
       </c>
@@ -6637,7 +8625,7 @@
         <f t="shared" si="0"/>
         <v>4.4065578393765603E-4</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="8">
         <v>20</v>
       </c>
@@ -6649,7 +8637,7 @@
       </c>
       <c r="I10" s="9">
         <f t="shared" si="1"/>
-        <v>6.4666666666666659E-4</v>
+        <v>6.0434733333333325E-4</v>
       </c>
       <c r="J10" s="4">
         <v>-5.3113500000000003E-3</v>
@@ -6658,16 +8646,36 @@
         <v>-1.5573099999999999E-3</v>
       </c>
       <c r="L10" s="9">
+        <f>-(J10-K10)/6-S10</f>
+        <v>5.8335400000000001E-4</v>
+      </c>
+      <c r="M10" s="15">
         <f t="shared" si="2"/>
-        <v>6.2567333333333336E-4</v>
-      </c>
-      <c r="M10" s="19">
+        <v>3.4737198586684537</v>
+      </c>
+      <c r="N10" s="4">
+        <v>-4.2969299999999998E-4</v>
+      </c>
+      <c r="O10" s="4">
+        <v>-1.7577700000000001E-4</v>
+      </c>
+      <c r="P10" s="11">
         <f t="shared" si="3"/>
-        <v>3.2463917525773045</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="12"/>
+        <v>4.2319333333333326E-5</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>-4.2969299999999998E-4</v>
+      </c>
+      <c r="R10" s="4">
+        <v>-1.7577700000000001E-4</v>
+      </c>
+      <c r="S10" s="11">
+        <f t="shared" si="4"/>
+        <v>4.2319333333333326E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
       <c r="B11" s="2">
         <v>30</v>
       </c>
@@ -6678,7 +8686,7 @@
         <f t="shared" si="0"/>
         <v>6.48908211933422E-4</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="20">
         <v>10</v>
       </c>
       <c r="F11" s="8">
@@ -6692,7 +8700,7 @@
       </c>
       <c r="I11" s="9">
         <f t="shared" si="1"/>
-        <v>1.7533333333333333E-4</v>
+        <v>1.343855E-4</v>
       </c>
       <c r="J11" s="4">
         <v>-1.6078799999999999E-3</v>
@@ -6701,16 +8709,36 @@
         <v>-5.1880100000000005E-4</v>
       </c>
       <c r="L11" s="9">
+        <f>-(J11-K11)/6-S11</f>
+        <v>1.4056533333333329E-4</v>
+      </c>
+      <c r="M11" s="15">
         <f t="shared" si="2"/>
-        <v>1.8151316666666661E-4</v>
-      </c>
-      <c r="M11" s="19">
+        <v>4.5985864050312601</v>
+      </c>
+      <c r="N11" s="4">
+        <v>-4.17651E-4</v>
+      </c>
+      <c r="O11" s="4">
+        <v>-1.7196400000000001E-4</v>
+      </c>
+      <c r="P11" s="11">
         <f t="shared" si="3"/>
-        <v>3.5246197718630898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="12">
+        <v>4.0947833333333328E-5</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>-4.17651E-4</v>
+      </c>
+      <c r="R11" s="4">
+        <v>-1.7196400000000001E-4</v>
+      </c>
+      <c r="S11" s="11">
+        <f t="shared" si="4"/>
+        <v>4.0947833333333328E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
         <v>15</v>
       </c>
       <c r="B12" s="2">
@@ -6723,7 +8751,7 @@
         <f t="shared" si="0"/>
         <v>1.9942326790920657E-4</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="8">
         <v>10</v>
       </c>
@@ -6735,7 +8763,7 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="1"/>
-        <v>2.9849999999999999E-4</v>
+        <v>2.5755216666666666E-4</v>
       </c>
       <c r="J12" s="4">
         <v>-2.6446600000000001E-3</v>
@@ -6744,16 +8772,36 @@
         <v>-8.1636100000000004E-4</v>
       </c>
       <c r="L12" s="9">
+        <f>-(J12-K12)/6-S12</f>
+        <v>2.6376866666666669E-4</v>
+      </c>
+      <c r="M12" s="15">
         <f t="shared" si="2"/>
-        <v>3.0471650000000002E-4</v>
-      </c>
-      <c r="M12" s="19">
+        <v>2.4136857711026947</v>
+      </c>
+      <c r="N12" s="4">
+        <v>-4.17651E-4</v>
+      </c>
+      <c r="O12" s="4">
+        <v>-1.7196400000000001E-4</v>
+      </c>
+      <c r="P12" s="11">
         <f t="shared" si="3"/>
-        <v>2.082579564489123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="12"/>
+        <v>4.0947833333333328E-5</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>-4.17651E-4</v>
+      </c>
+      <c r="R12" s="4">
+        <v>-1.7196400000000001E-4</v>
+      </c>
+      <c r="S12" s="11">
+        <f t="shared" si="4"/>
+        <v>4.0947833333333328E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
       <c r="B13" s="2">
         <v>15</v>
       </c>
@@ -6764,7 +8812,7 @@
         <f t="shared" si="0"/>
         <v>3.0383254370631139E-4</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="8">
         <v>15</v>
       </c>
@@ -6776,7 +8824,7 @@
       </c>
       <c r="I13" s="9">
         <f t="shared" si="1"/>
-        <v>4.083333333333333E-4</v>
+        <v>3.6738549999999997E-4</v>
       </c>
       <c r="J13" s="4">
         <v>-3.5593899999999999E-3</v>
@@ -6785,16 +8833,36 @@
         <v>-1.07661E-3</v>
       </c>
       <c r="L13" s="9">
+        <f>-(J13-K13)/6-S13</f>
+        <v>3.7284883333333333E-4</v>
+      </c>
+      <c r="M13" s="15">
         <f t="shared" si="2"/>
-        <v>4.1379666666666666E-4</v>
-      </c>
-      <c r="M13" s="19">
+        <v>1.4870846381616476</v>
+      </c>
+      <c r="N13" s="4">
+        <v>-4.17651E-4</v>
+      </c>
+      <c r="O13" s="4">
+        <v>-1.7196400000000001E-4</v>
+      </c>
+      <c r="P13" s="11">
         <f t="shared" si="3"/>
-        <v>1.3379591836734759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="12"/>
+        <v>4.0947833333333328E-5</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>-4.17651E-4</v>
+      </c>
+      <c r="R13" s="4">
+        <v>-1.7196400000000001E-4</v>
+      </c>
+      <c r="S13" s="11">
+        <f t="shared" si="4"/>
+        <v>4.0947833333333328E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
       <c r="B14" s="2">
         <v>30</v>
       </c>
@@ -6805,7 +8873,7 @@
         <f t="shared" si="0"/>
         <v>5.3440880135668576E-4</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="8">
         <v>20</v>
       </c>
@@ -6817,7 +8885,7 @@
       </c>
       <c r="I14" s="9">
         <f t="shared" si="1"/>
-        <v>5.1833333333333332E-4</v>
+        <v>4.7738549999999999E-4</v>
       </c>
       <c r="J14" s="4">
         <v>-4.3771699999999997E-3</v>
@@ -6826,16 +8894,36 @@
         <v>-1.3080500000000001E-3</v>
       </c>
       <c r="L14" s="9">
+        <f>-(J14-K14)/6-S14</f>
+        <v>4.7057216666666668E-4</v>
+      </c>
+      <c r="M14" s="15">
         <f t="shared" si="2"/>
-        <v>5.1152000000000001E-4</v>
-      </c>
-      <c r="M14" s="19">
+        <v>1.4272183242543628</v>
+      </c>
+      <c r="N14" s="4">
+        <v>-4.17651E-4</v>
+      </c>
+      <c r="O14" s="4">
+        <v>-1.7196400000000001E-4</v>
+      </c>
+      <c r="P14" s="11">
         <f t="shared" si="3"/>
-        <v>1.3144694533762016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="12">
+        <v>4.0947833333333328E-5</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>-4.17651E-4</v>
+      </c>
+      <c r="R14" s="4">
+        <v>-1.7196400000000001E-4</v>
+      </c>
+      <c r="S14" s="11">
+        <f t="shared" si="4"/>
+        <v>4.0947833333333328E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
         <v>20</v>
       </c>
       <c r="B15" s="2">
@@ -6848,7 +8936,7 @@
         <f t="shared" si="0"/>
         <v>2.5123523992965415E-4</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="8">
         <v>25</v>
       </c>
@@ -6860,7 +8948,7 @@
       </c>
       <c r="I15" s="9">
         <f t="shared" si="1"/>
-        <v>6.1166666666666672E-4</v>
+        <v>5.7071883333333333E-4</v>
       </c>
       <c r="J15" s="4">
         <v>-5.1172800000000001E-3</v>
@@ -6869,16 +8957,36 @@
         <v>-1.5168200000000001E-3</v>
       </c>
       <c r="L15" s="9">
+        <f>-(J15-K15)/6-S15</f>
+        <v>5.5912883333333321E-4</v>
+      </c>
+      <c r="M15" s="15">
         <f t="shared" si="2"/>
-        <v>6.0007666666666659E-4</v>
-      </c>
-      <c r="M15" s="19">
+        <v>2.030772303816875</v>
+      </c>
+      <c r="N15" s="4">
+        <v>-4.17651E-4</v>
+      </c>
+      <c r="O15" s="4">
+        <v>-1.7196400000000001E-4</v>
+      </c>
+      <c r="P15" s="11">
         <f t="shared" si="3"/>
-        <v>1.8948228882833991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="12"/>
+        <v>4.0947833333333328E-5</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>-4.17651E-4</v>
+      </c>
+      <c r="R15" s="4">
+        <v>-1.7196400000000001E-4</v>
+      </c>
+      <c r="S15" s="11">
+        <f t="shared" si="4"/>
+        <v>4.0947833333333328E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
       <c r="B16" s="2">
         <v>20</v>
       </c>
@@ -6889,7 +8997,7 @@
         <f t="shared" si="0"/>
         <v>3.2536249448917275E-4</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="8">
         <v>30</v>
       </c>
@@ -6901,7 +9009,7 @@
       </c>
       <c r="I16" s="9">
         <f t="shared" si="1"/>
-        <v>6.9833333333333336E-4</v>
+        <v>6.5738550000000008E-4</v>
       </c>
       <c r="J16" s="4">
         <v>-5.7940300000000004E-3</v>
@@ -6910,16 +9018,36 @@
         <v>-1.70729E-3</v>
       </c>
       <c r="L16" s="9">
+        <f>-(J16-K16)/6-S16</f>
+        <v>6.4017549999999994E-4</v>
+      </c>
+      <c r="M16" s="15">
         <f t="shared" si="2"/>
-        <v>6.8112333333333332E-4</v>
-      </c>
-      <c r="M16" s="19">
+        <v>2.6179463952277833</v>
+      </c>
+      <c r="N16" s="4">
+        <v>-4.17651E-4</v>
+      </c>
+      <c r="O16" s="4">
+        <v>-1.7196400000000001E-4</v>
+      </c>
+      <c r="P16" s="11">
         <f t="shared" si="3"/>
-        <v>2.4644391408114608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="12"/>
+        <v>4.0947833333333328E-5</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>-4.17651E-4</v>
+      </c>
+      <c r="R16" s="4">
+        <v>-1.7196400000000001E-4</v>
+      </c>
+      <c r="S16" s="11">
+        <f t="shared" si="4"/>
+        <v>4.0947833333333328E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
       <c r="B17" s="2">
         <v>40</v>
       </c>
@@ -6930,7 +9058,7 @@
         <f t="shared" si="0"/>
         <v>6.1091739938572251E-4</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="8">
         <v>35</v>
       </c>
@@ -6942,7 +9070,7 @@
       </c>
       <c r="I17" s="9">
         <f t="shared" si="1"/>
-        <v>7.8333333333333336E-4</v>
+        <v>7.4238550000000009E-4</v>
       </c>
       <c r="J17" s="4">
         <v>-6.4182500000000003E-3</v>
@@ -6951,16 +9079,36 @@
         <v>-1.88273E-3</v>
       </c>
       <c r="L17" s="9">
+        <f>-(J17-K17)/6-S17</f>
+        <v>7.1497216666666671E-4</v>
+      </c>
+      <c r="M17" s="15">
         <f t="shared" si="2"/>
-        <v>7.5592000000000009E-4</v>
-      </c>
-      <c r="M17" s="19">
+        <v>3.6926008567426729</v>
+      </c>
+      <c r="N17" s="4">
+        <v>-4.17651E-4</v>
+      </c>
+      <c r="O17" s="4">
+        <v>-1.7196400000000001E-4</v>
+      </c>
+      <c r="P17" s="11">
         <f t="shared" si="3"/>
-        <v>3.4995744680850982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="E18" s="12">
+        <v>4.0947833333333328E-5</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>-4.17651E-4</v>
+      </c>
+      <c r="R17" s="4">
+        <v>-1.7196400000000001E-4</v>
+      </c>
+      <c r="S17" s="11">
+        <f t="shared" si="4"/>
+        <v>4.0947833333333328E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E18" s="16">
         <v>15</v>
       </c>
       <c r="F18" s="8">
@@ -6974,7 +9122,7 @@
       </c>
       <c r="I18" s="9">
         <f t="shared" si="1"/>
-        <v>1.4983333333333333E-4</v>
+        <v>1.079175E-4</v>
       </c>
       <c r="J18" s="4">
         <v>-1.38922E-3</v>
@@ -6983,16 +9131,36 @@
         <v>-4.5856400000000001E-4</v>
       </c>
       <c r="L18" s="9">
+        <f>-(J18-K18)/6-S18</f>
+        <v>1.1319349999999999E-4</v>
+      </c>
+      <c r="M18" s="15">
         <f t="shared" si="2"/>
-        <v>1.5510933333333333E-4</v>
-      </c>
-      <c r="M18" s="19">
+        <v>4.8889197766812567</v>
+      </c>
+      <c r="N18" s="4">
+        <v>-4.2938200000000002E-4</v>
+      </c>
+      <c r="O18" s="4">
+        <v>-1.77887E-4</v>
+      </c>
+      <c r="P18" s="11">
         <f t="shared" si="3"/>
-        <v>3.5212458286985506</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="E19" s="12"/>
+        <v>4.1915833333333336E-5</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>-4.2938200000000002E-4</v>
+      </c>
+      <c r="R18" s="4">
+        <v>-1.77887E-4</v>
+      </c>
+      <c r="S18" s="11">
+        <f t="shared" si="4"/>
+        <v>4.1915833333333336E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E19" s="16"/>
       <c r="F19" s="8">
         <v>10</v>
       </c>
@@ -7004,7 +9172,7 @@
       </c>
       <c r="I19" s="9">
         <f t="shared" si="1"/>
-        <v>2.5100000000000003E-4</v>
+        <v>2.0908416666666669E-4</v>
       </c>
       <c r="J19" s="4">
         <v>-2.27618E-3</v>
@@ -7013,16 +9181,36 @@
         <v>-7.1584399999999999E-4</v>
       </c>
       <c r="L19" s="9">
+        <f>-(J19-K19)/6-S19</f>
+        <v>2.1814016666666666E-4</v>
+      </c>
+      <c r="M19" s="15">
         <f t="shared" si="2"/>
-        <v>2.6005599999999999E-4</v>
-      </c>
-      <c r="M19" s="19">
+        <v>4.3312701025503904</v>
+      </c>
+      <c r="N19" s="4">
+        <v>-4.2938200000000002E-4</v>
+      </c>
+      <c r="O19" s="4">
+        <v>-1.77887E-4</v>
+      </c>
+      <c r="P19" s="11">
         <f t="shared" si="3"/>
-        <v>3.6079681274900244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="E20" s="12"/>
+        <v>4.1915833333333336E-5</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>-4.2938200000000002E-4</v>
+      </c>
+      <c r="R19" s="4">
+        <v>-1.77887E-4</v>
+      </c>
+      <c r="S19" s="11">
+        <f t="shared" si="4"/>
+        <v>4.1915833333333336E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E20" s="16"/>
       <c r="F20" s="8">
         <v>15</v>
       </c>
@@ -7034,7 +9222,7 @@
       </c>
       <c r="I20" s="9">
         <f t="shared" si="1"/>
-        <v>3.4833333333333336E-4</v>
+        <v>3.0641750000000003E-4</v>
       </c>
       <c r="J20" s="4">
         <v>-3.0789900000000002E-3</v>
@@ -7043,16 +9231,36 @@
         <v>-9.4639799999999999E-4</v>
       </c>
       <c r="L20" s="9">
+        <f>-(J20-K20)/6-S20</f>
+        <v>3.1351616666666664E-4</v>
+      </c>
+      <c r="M20" s="15">
         <f t="shared" si="2"/>
-        <v>3.5543199999999998E-4</v>
-      </c>
-      <c r="M20" s="19">
+        <v>2.3166648989260139</v>
+      </c>
+      <c r="N20" s="4">
+        <v>-4.2938200000000002E-4</v>
+      </c>
+      <c r="O20" s="4">
+        <v>-1.77887E-4</v>
+      </c>
+      <c r="P20" s="11">
         <f t="shared" si="3"/>
-        <v>2.0378947368420919</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="E21" s="12"/>
+        <v>4.1915833333333336E-5</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>-4.2938200000000002E-4</v>
+      </c>
+      <c r="R20" s="4">
+        <v>-1.77887E-4</v>
+      </c>
+      <c r="S20" s="11">
+        <f t="shared" si="4"/>
+        <v>4.1915833333333336E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E21" s="16"/>
       <c r="F21" s="8">
         <v>20</v>
       </c>
@@ -7064,7 +9272,7 @@
       </c>
       <c r="I21" s="9">
         <f t="shared" si="1"/>
-        <v>4.3833333333333333E-4</v>
+        <v>3.9641749999999999E-4</v>
       </c>
       <c r="J21" s="4">
         <v>-3.8170700000000001E-3</v>
@@ -7073,16 +9281,36 @@
         <v>-1.1570899999999999E-3</v>
       </c>
       <c r="L21" s="9">
+        <f>-(J21-K21)/6-S21</f>
+        <v>4.0141416666666669E-4</v>
+      </c>
+      <c r="M21" s="15">
         <f t="shared" si="2"/>
-        <v>4.4333000000000003E-4</v>
-      </c>
-      <c r="M21" s="19">
+        <v>1.2604556223342056</v>
+      </c>
+      <c r="N21" s="4">
+        <v>-4.2938200000000002E-4</v>
+      </c>
+      <c r="O21" s="4">
+        <v>-1.77887E-4</v>
+      </c>
+      <c r="P21" s="11">
         <f t="shared" si="3"/>
-        <v>1.1399239543726312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="E22" s="12"/>
+        <v>4.1915833333333336E-5</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>-4.2938200000000002E-4</v>
+      </c>
+      <c r="R21" s="4">
+        <v>-1.77887E-4</v>
+      </c>
+      <c r="S21" s="11">
+        <f t="shared" si="4"/>
+        <v>4.1915833333333336E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E22" s="16"/>
       <c r="F22" s="8">
         <v>25</v>
       </c>
@@ -7094,7 +9322,7 @@
       </c>
       <c r="I22" s="9">
         <f t="shared" si="1"/>
-        <v>5.1999999999999995E-4</v>
+        <v>4.7808416666666662E-4</v>
       </c>
       <c r="J22" s="4">
         <v>-4.4998199999999999E-3</v>
@@ -7103,16 +9331,36 @@
         <v>-1.35115E-3</v>
       </c>
       <c r="L22" s="9">
+        <f>-(J22-K22)/6-S22</f>
+        <v>4.8286249999999998E-4</v>
+      </c>
+      <c r="M22" s="15">
         <f t="shared" si="2"/>
-        <v>5.2477833333333332E-4</v>
-      </c>
-      <c r="M22" s="19">
+        <v>0.99947533645575559</v>
+      </c>
+      <c r="N22" s="4">
+        <v>-4.2938200000000002E-4</v>
+      </c>
+      <c r="O22" s="4">
+        <v>-1.77887E-4</v>
+      </c>
+      <c r="P22" s="11">
         <f t="shared" si="3"/>
-        <v>0.91891025641026203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="E23" s="12"/>
+        <v>4.1915833333333336E-5</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>-4.2938200000000002E-4</v>
+      </c>
+      <c r="R22" s="4">
+        <v>-1.77887E-4</v>
+      </c>
+      <c r="S22" s="11">
+        <f t="shared" si="4"/>
+        <v>4.1915833333333336E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E23" s="16"/>
       <c r="F23" s="8">
         <v>30</v>
       </c>
@@ -7124,7 +9372,7 @@
       </c>
       <c r="I23" s="9">
         <f t="shared" si="1"/>
-        <v>5.9833333333333342E-4</v>
+        <v>5.5641750000000008E-4</v>
       </c>
       <c r="J23" s="4">
         <v>-5.1351000000000001E-3</v>
@@ -7133,16 +9381,36 @@
         <v>-1.5311400000000001E-3</v>
       </c>
       <c r="L23" s="9">
+        <f>-(J23-K23)/6-S23</f>
+        <v>5.5874416666666659E-4</v>
+      </c>
+      <c r="M23" s="15">
         <f t="shared" si="2"/>
-        <v>6.0065999999999993E-4</v>
-      </c>
-      <c r="M23" s="19">
+        <v>0.41815123835366602</v>
+      </c>
+      <c r="N23" s="4">
+        <v>-4.2938200000000002E-4</v>
+      </c>
+      <c r="O23" s="4">
+        <v>-1.77887E-4</v>
+      </c>
+      <c r="P23" s="11">
         <f t="shared" si="3"/>
-        <v>0.38885793871863672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="E24" s="12"/>
+        <v>4.1915833333333336E-5</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>-4.2938200000000002E-4</v>
+      </c>
+      <c r="R23" s="4">
+        <v>-1.77887E-4</v>
+      </c>
+      <c r="S23" s="11">
+        <f t="shared" si="4"/>
+        <v>4.1915833333333336E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E24" s="16"/>
       <c r="F24" s="8">
         <v>35</v>
       </c>
@@ -7154,7 +9422,7 @@
       </c>
       <c r="I24" s="9">
         <f t="shared" si="1"/>
-        <v>6.8333333333333321E-4</v>
+        <v>6.4141749999999987E-4</v>
       </c>
       <c r="J24" s="4">
         <v>-5.7293400000000003E-3</v>
@@ -7163,16 +9431,36 @@
         <v>-1.69911E-3</v>
       </c>
       <c r="L24" s="9">
+        <f>-(J24-K24)/6-S24</f>
+        <v>6.2978916666666664E-4</v>
+      </c>
+      <c r="M24" s="15">
         <f t="shared" si="2"/>
-        <v>6.7170499999999998E-4</v>
-      </c>
-      <c r="M24" s="19">
+        <v>1.8129117670367945</v>
+      </c>
+      <c r="N24" s="4">
+        <v>-4.2938200000000002E-4</v>
+      </c>
+      <c r="O24" s="4">
+        <v>-1.77887E-4</v>
+      </c>
+      <c r="P24" s="11">
         <f t="shared" si="3"/>
-        <v>1.7017073170731558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="E25" s="12">
+        <v>4.1915833333333336E-5</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>-4.2938200000000002E-4</v>
+      </c>
+      <c r="R24" s="4">
+        <v>-1.77887E-4</v>
+      </c>
+      <c r="S24" s="11">
+        <f t="shared" si="4"/>
+        <v>4.1915833333333336E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E25" s="16">
         <v>20</v>
       </c>
       <c r="F25" s="8">
@@ -7186,7 +9474,7 @@
       </c>
       <c r="I25" s="9">
         <f t="shared" si="1"/>
-        <v>1.3233333333333334E-4</v>
+        <v>8.8661500000000005E-5</v>
       </c>
       <c r="J25" s="4">
         <v>-1.2723400000000001E-3</v>
@@ -7195,16 +9483,36 @@
         <v>-4.27584E-4</v>
       </c>
       <c r="L25" s="9">
+        <f>-(J25-K25)/6-S25</f>
+        <v>9.7120833333333347E-5</v>
+      </c>
+      <c r="M25" s="15">
         <f t="shared" si="2"/>
-        <v>1.4079266666666668E-4</v>
-      </c>
-      <c r="M25" s="19">
+        <v>9.5411574734618085</v>
+      </c>
+      <c r="N25" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="O25" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="P25" s="11">
         <f t="shared" si="3"/>
-        <v>6.3924433249370347</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="E26" s="12"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="R25" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="S25" s="11">
+        <f t="shared" si="4"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E26" s="16"/>
       <c r="F26" s="8">
         <v>10</v>
       </c>
@@ -7216,7 +9524,7 @@
       </c>
       <c r="I26" s="9">
         <f t="shared" si="1"/>
-        <v>2.2483333333333331E-4</v>
+        <v>1.8116149999999998E-4</v>
       </c>
       <c r="J26" s="4">
         <v>-2.0495800000000001E-3</v>
@@ -7225,16 +9533,36 @@
         <v>-6.5433099999999997E-4</v>
       </c>
       <c r="L26" s="9">
+        <f>-(J26-K26)/6-S26</f>
+        <v>1.8886966666666668E-4</v>
+      </c>
+      <c r="M26" s="15">
         <f t="shared" si="2"/>
-        <v>2.3254150000000002E-4</v>
-      </c>
-      <c r="M26" s="19">
+        <v>4.2548591542169296</v>
+      </c>
+      <c r="N26" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="O26" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="P26" s="11">
         <f t="shared" si="3"/>
-        <v>3.4283914010378216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="E27" s="12"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="R26" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="S26" s="11">
+        <f t="shared" si="4"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E27" s="16"/>
       <c r="F27" s="8">
         <v>15</v>
       </c>
@@ -7246,7 +9574,7 @@
       </c>
       <c r="I27" s="9">
         <f t="shared" si="1"/>
-        <v>3.0833333333333337E-4</v>
+        <v>2.6466150000000003E-4</v>
       </c>
       <c r="J27" s="4">
         <v>-2.76779E-3</v>
@@ -7255,16 +9583,36 @@
         <v>-8.6191499999999999E-4</v>
       </c>
       <c r="L27" s="9">
+        <f>-(J27-K27)/6-S27</f>
+        <v>2.7397400000000002E-4</v>
+      </c>
+      <c r="M27" s="15">
         <f t="shared" si="2"/>
-        <v>3.1764583333333335E-4</v>
-      </c>
-      <c r="M27" s="19">
+        <v>3.5186455151202529</v>
+      </c>
+      <c r="N27" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="O27" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="P27" s="11">
         <f t="shared" si="3"/>
-        <v>3.0202702702702666</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="E28" s="12"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="R27" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="S27" s="11">
+        <f t="shared" si="4"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E28" s="16"/>
       <c r="F28" s="8">
         <v>20</v>
       </c>
@@ -7276,7 +9624,7 @@
       </c>
       <c r="I28" s="9">
         <f t="shared" si="1"/>
-        <v>3.8999999999999999E-4</v>
+        <v>3.4632816666666666E-4</v>
       </c>
       <c r="J28" s="4">
         <v>-3.4398499999999999E-3</v>
@@ -7285,16 +9633,36 @@
         <v>-1.05499E-3</v>
       </c>
       <c r="L28" s="9">
+        <f>-(J28-K28)/6-S28</f>
+        <v>3.5380483333333332E-4</v>
+      </c>
+      <c r="M28" s="15">
         <f t="shared" si="2"/>
-        <v>3.9747666666666666E-4</v>
-      </c>
-      <c r="M28" s="19">
+        <v>2.1588387507224591</v>
+      </c>
+      <c r="N28" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="O28" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="P28" s="11">
         <f t="shared" si="3"/>
-        <v>1.9170940170940158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="E29" s="12"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="R28" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="S28" s="11">
+        <f t="shared" si="4"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E29" s="16"/>
       <c r="F29" s="8">
         <v>25</v>
       </c>
@@ -7306,7 +9674,7 @@
       </c>
       <c r="I29" s="9">
         <f t="shared" si="1"/>
-        <v>4.6499999999999997E-4</v>
+        <v>4.2132816666666664E-4</v>
       </c>
       <c r="J29" s="4">
         <v>-4.0707399999999998E-3</v>
@@ -7315,16 +9683,36 @@
         <v>-1.2354E-3</v>
       </c>
       <c r="L29" s="9">
+        <f>-(J29-K29)/6-S29</f>
+        <v>4.2888483333333326E-4</v>
+      </c>
+      <c r="M29" s="15">
         <f t="shared" si="2"/>
-        <v>4.7255666666666659E-4</v>
-      </c>
-      <c r="M29" s="19">
+        <v>1.7935346517302913</v>
+      </c>
+      <c r="N29" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="O29" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="P29" s="11">
         <f t="shared" si="3"/>
-        <v>1.6250896057347572</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="E30" s="12"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="R29" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="S29" s="11">
+        <f t="shared" si="4"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E30" s="16"/>
       <c r="F30" s="8">
         <v>30</v>
       </c>
@@ -7336,7 +9724,7 @@
       </c>
       <c r="I30" s="9">
         <f t="shared" si="1"/>
-        <v>5.3666666666666663E-4</v>
+        <v>4.9299483333333329E-4</v>
       </c>
       <c r="J30" s="4">
         <v>-4.6650399999999996E-3</v>
@@ -7345,16 +9733,36 @@
         <v>-1.40475E-3</v>
       </c>
       <c r="L30" s="9">
+        <f>-(J30-K30)/6-S30</f>
+        <v>4.9970983333333331E-4</v>
+      </c>
+      <c r="M30" s="15">
         <f t="shared" si="2"/>
-        <v>5.4338166666666665E-4</v>
-      </c>
-      <c r="M30" s="19">
+        <v>1.362083240223279</v>
+      </c>
+      <c r="N30" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="O30" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="P30" s="11">
         <f t="shared" si="3"/>
-        <v>1.2512422360248485</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="E31" s="12"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="R30" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="S30" s="11">
+        <f t="shared" si="4"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E31" s="16"/>
       <c r="F31" s="8">
         <v>35</v>
       </c>
@@ -7366,7 +9774,7 @@
       </c>
       <c r="I31" s="9">
         <f t="shared" si="1"/>
-        <v>6.0499999999999996E-4</v>
+        <v>5.6132816666666662E-4</v>
       </c>
       <c r="J31" s="4">
         <v>-5.2268000000000002E-3</v>
@@ -7375,16 +9783,36 @@
         <v>-1.5643600000000001E-3</v>
       </c>
       <c r="L31" s="9">
+        <f>-(J31-K31)/6-S31</f>
+        <v>5.6673483333333338E-4</v>
+      </c>
+      <c r="M31" s="15">
         <f t="shared" si="2"/>
-        <v>6.1040666666666672E-4</v>
-      </c>
-      <c r="M31" s="19">
+        <v>0.96319176334463152</v>
+      </c>
+      <c r="N31" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="O31" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="P31" s="11">
         <f t="shared" si="3"/>
-        <v>0.89366391184574523</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="E32" s="12"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="R31" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="S31" s="11">
+        <f t="shared" si="4"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E32" s="16"/>
       <c r="F32" s="8">
         <v>40</v>
       </c>
@@ -7396,7 +9824,7 @@
       </c>
       <c r="I32" s="9">
         <f t="shared" si="1"/>
-        <v>6.7166666666666666E-4</v>
+        <v>6.2799483333333332E-4</v>
       </c>
       <c r="J32" s="4">
         <v>-5.75948E-3</v>
@@ -7405,16 +9833,36 @@
         <v>-1.7153699999999999E-3</v>
       </c>
       <c r="L32" s="9">
+        <f>-(J32-K32)/6-S32</f>
+        <v>6.3034650000000001E-4</v>
+      </c>
+      <c r="M32" s="15">
         <f t="shared" si="2"/>
-        <v>6.7401833333333334E-4</v>
-      </c>
-      <c r="M32" s="19">
+        <v>0.37447229528693365</v>
+      </c>
+      <c r="N32" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="O32" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="P32" s="11">
         <f t="shared" si="3"/>
-        <v>0.35012406947891117</v>
-      </c>
-    </row>
-    <row r="33" spans="5:13">
-      <c r="E33" s="12"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="R32" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="S32" s="11">
+        <f t="shared" si="4"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E33" s="16"/>
       <c r="F33" s="8">
         <v>45</v>
       </c>
@@ -7426,7 +9874,7 @@
       </c>
       <c r="I33" s="9">
         <f t="shared" si="1"/>
-        <v>7.4666666666666664E-4</v>
+        <v>7.029948333333333E-4</v>
       </c>
       <c r="J33" s="4">
         <v>-6.2661000000000001E-3</v>
@@ -7435,16 +9883,36 @@
         <v>-1.8587199999999999E-3</v>
       </c>
       <c r="L33" s="9">
+        <f>-(J33-K33)/6-S33</f>
+        <v>6.9089150000000007E-4</v>
+      </c>
+      <c r="M33" s="15">
         <f t="shared" si="2"/>
-        <v>7.3456333333333341E-4</v>
-      </c>
-      <c r="M33" s="19">
+        <v>1.721681690880122</v>
+      </c>
+      <c r="N33" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="O33" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="P33" s="11">
         <f t="shared" si="3"/>
-        <v>1.6209821428571289</v>
-      </c>
-    </row>
-    <row r="34" spans="5:13">
-      <c r="E34" s="12"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="R33" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="S33" s="11">
+        <f t="shared" si="4"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E34" s="16"/>
       <c r="F34" s="8">
         <v>50</v>
       </c>
@@ -7456,7 +9924,7 @@
       </c>
       <c r="I34" s="9">
         <f t="shared" si="1"/>
-        <v>8.0666666666666658E-4</v>
+        <v>7.6299483333333324E-4</v>
       </c>
       <c r="J34" s="4">
         <v>-6.7492300000000002E-3</v>
@@ -7465,136 +9933,163 @@
         <v>-1.9952300000000002E-3</v>
       </c>
       <c r="L34" s="9">
+        <f>-(J34-K34)/6-S34</f>
+        <v>7.4866149999999992E-4</v>
+      </c>
+      <c r="M34" s="15">
         <f t="shared" si="2"/>
-        <v>7.9233333333333326E-4</v>
-      </c>
-      <c r="M34" s="19">
+        <v>1.87856230568621</v>
+      </c>
+      <c r="N34" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="O34" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="P34" s="11">
         <f t="shared" si="3"/>
-        <v>1.7768595041322301</v>
-      </c>
-    </row>
-    <row r="35" spans="5:13">
-      <c r="M35" s="18"/>
-    </row>
-    <row r="38" spans="5:13">
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" spans="5:13">
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" spans="5:13">
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" spans="5:13">
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" spans="5:13">
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="5:13">
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" spans="5:13">
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" spans="5:13">
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" spans="5:13">
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" spans="5:13">
-      <c r="J47" s="16"/>
-    </row>
-    <row r="48" spans="5:13">
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" spans="10:10">
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50" spans="10:10">
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" spans="10:10">
-      <c r="J51" s="16"/>
-    </row>
-    <row r="52" spans="10:10">
-      <c r="J52" s="16"/>
-    </row>
-    <row r="53" spans="10:10">
-      <c r="J53" s="16"/>
-    </row>
-    <row r="54" spans="10:10">
-      <c r="J54" s="16"/>
-    </row>
-    <row r="55" spans="10:10">
-      <c r="J55" s="16"/>
-    </row>
-    <row r="56" spans="10:10">
-      <c r="J56" s="16"/>
-    </row>
-    <row r="57" spans="10:10">
-      <c r="J57" s="16"/>
-    </row>
-    <row r="58" spans="10:10">
-      <c r="J58" s="16"/>
-    </row>
-    <row r="59" spans="10:10">
-      <c r="J59" s="16"/>
-    </row>
-    <row r="60" spans="10:10">
-      <c r="J60" s="16"/>
-    </row>
-    <row r="61" spans="10:10">
-      <c r="J61" s="16"/>
-    </row>
-    <row r="62" spans="10:10">
-      <c r="J62" s="16"/>
-    </row>
-    <row r="63" spans="10:10">
-      <c r="J63" s="16"/>
-    </row>
-    <row r="64" spans="10:10">
-      <c r="J64" s="16"/>
-    </row>
-    <row r="65" spans="10:10">
-      <c r="J65" s="16"/>
-    </row>
-    <row r="66" spans="10:10">
-      <c r="J66" s="16"/>
-    </row>
-    <row r="67" spans="10:10">
-      <c r="J67" s="16"/>
-    </row>
-    <row r="68" spans="10:10">
-      <c r="J68" s="16"/>
-    </row>
-    <row r="69" spans="10:10">
-      <c r="J69" s="16"/>
-    </row>
-    <row r="70" spans="10:10">
-      <c r="J70" s="16"/>
-    </row>
-    <row r="71" spans="10:10">
-      <c r="J71" s="16"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>-4.48882E-4</v>
+      </c>
+      <c r="R34" s="4">
+        <v>-1.86851E-4</v>
+      </c>
+      <c r="S34" s="11">
+        <f t="shared" si="4"/>
+        <v>4.3671833333333338E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="M35" s="14"/>
+    </row>
+    <row r="38" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="J38" s="12"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="J39" s="12"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="J40" s="12"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="J41" s="12"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="J42" s="12"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J63" s="12"/>
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J64" s="12"/>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J65" s="12"/>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J66" s="12"/>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J67" s="12"/>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J68" s="12"/>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J69" s="12"/>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J70" s="12"/>
+    </row>
+    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J71" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E17"/>
+    <mergeCell ref="E18:E24"/>
+    <mergeCell ref="E25:E34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E17"/>
-    <mergeCell ref="E18:E24"/>
-    <mergeCell ref="E25:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/FEM/Output/comparison_triaxial.xlsx
+++ b/FEM/Output/comparison_triaxial.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HHH/Desktop/Git/FEM/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6940ED1C-C642-FD4E-A7C9-49F5D0DE9A51}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3F06E2-5461-574C-8919-AE65A570A12A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="27160" windowHeight="16820" activeTab="1" xr2:uid="{6FEF4706-8CFD-764F-A62E-A73FD66A4C76}"/>
+    <workbookView xWindow="1080" yWindow="1100" windowWidth="27160" windowHeight="16820" activeTab="2" xr2:uid="{6FEF4706-8CFD-764F-A62E-A73FD66A4C76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
   <si>
     <t>Deviator stress (psi)</t>
   </si>
@@ -75,12 +76,15 @@
   <si>
     <t>Zero-Deviator Result, GT-PAVE</t>
   </si>
+  <si>
+    <t>Note:                                                                           1. GT-PAVE and C-FLEX both uses the center Gaussian point criteria                                                   2. The resilient strain is calculated by subtracting the final axial strain with the axial strain when body load is applied but no surface load is applied</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +103,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -122,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -197,11 +213,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -231,9 +276,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -244,7 +286,17 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -256,9 +308,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1621,16 +1684,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5446833333333337E-4</c:v>
+                  <c:v>2.4666666666666679E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8263499999999999E-4</c:v>
+                  <c:v>1.528333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9046833333333331E-4</c:v>
+                  <c:v>2.6066666666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8380166666666665E-4</c:v>
+                  <c:v>3.5399999999999993E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,16 +1761,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.9034733333333337E-4</c:v>
+                  <c:v>5.6666666666666671E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5601399999999993E-4</c:v>
+                  <c:v>2.2233333333333325E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8934733333333327E-4</c:v>
+                  <c:v>3.5566666666666657E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0434733333333325E-4</c:v>
+                  <c:v>4.7066666666666654E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1775,25 +1838,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.343855E-4</c:v>
+                  <c:v>-6.6666666666669191E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5755216666666666E-4</c:v>
+                  <c:v>1.2249999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6738549999999997E-4</c:v>
+                  <c:v>2.3233333333333328E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7738549999999999E-4</c:v>
+                  <c:v>3.4233333333333327E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7071883333333333E-4</c:v>
+                  <c:v>4.3566666666666667E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5738550000000008E-4</c:v>
+                  <c:v>5.2233333333333331E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4238550000000009E-4</c:v>
+                  <c:v>6.0733333333333331E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,25 +1933,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.079175E-4</c:v>
+                  <c:v>-2.6166666666666688E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0908416666666669E-4</c:v>
+                  <c:v>7.5000000000000007E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0641750000000003E-4</c:v>
+                  <c:v>1.7233333333333334E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9641749999999999E-4</c:v>
+                  <c:v>2.6233333333333328E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7808416666666662E-4</c:v>
+                  <c:v>3.439999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5641750000000008E-4</c:v>
+                  <c:v>4.2233333333333337E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4141749999999987E-4</c:v>
+                  <c:v>5.0733333333333316E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,34 +2028,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.8661500000000005E-5</c:v>
+                  <c:v>-4.366666666666668E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8116149999999998E-4</c:v>
+                  <c:v>4.8833333333333292E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6466150000000003E-4</c:v>
+                  <c:v>1.3233333333333334E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4632816666666666E-4</c:v>
+                  <c:v>2.1399999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2132816666666664E-4</c:v>
+                  <c:v>2.8899999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9299483333333329E-4</c:v>
+                  <c:v>3.6066666666666658E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6132816666666662E-4</c:v>
+                  <c:v>4.2899999999999991E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2799483333333332E-4</c:v>
+                  <c:v>4.9566666666666661E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.029948333333333E-4</c:v>
+                  <c:v>5.7066666666666659E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6299483333333324E-4</c:v>
+                  <c:v>6.3066666666666653E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2523,16 +2586,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5463250000000001E-4</c:v>
+                  <c:v>1.5601666666666684E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7844783333333335E-4</c:v>
+                  <c:v>1.3941700000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7969833333333341E-4</c:v>
+                  <c:v>2.4066750000000008E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6618666666666675E-4</c:v>
+                  <c:v>3.2715583333333342E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2602,16 +2665,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.9544199999999999E-4</c:v>
+                  <c:v>5.2532166666666651E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4920900000000001E-4</c:v>
+                  <c:v>2.062991666666667E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7561400000000007E-4</c:v>
+                  <c:v>3.3270416666666676E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8335400000000001E-4</c:v>
+                  <c:v>4.404441666666667E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2681,25 +2744,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.4056533333333329E-4</c:v>
+                  <c:v>-3.7160000000000437E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6376866666666669E-4</c:v>
+                  <c:v>1.1948733333333336E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7284883333333333E-4</c:v>
+                  <c:v>2.285675E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7057216666666668E-4</c:v>
+                  <c:v>3.2629083333333335E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5912883333333321E-4</c:v>
+                  <c:v>4.1484749999999993E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4017549999999994E-4</c:v>
+                  <c:v>4.9589416666666667E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1497216666666671E-4</c:v>
+                  <c:v>5.7069083333333344E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2778,25 +2841,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.1319349999999999E-4</c:v>
+                  <c:v>-3.0119833333333329E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1814016666666666E-4</c:v>
+                  <c:v>7.4826833333333333E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1351616666666664E-4</c:v>
+                  <c:v>1.7020283333333332E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0141416666666669E-4</c:v>
+                  <c:v>2.5810083333333337E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8286249999999998E-4</c:v>
+                  <c:v>3.3954916666666666E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5874416666666659E-4</c:v>
+                  <c:v>4.1543083333333327E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2978916666666664E-4</c:v>
+                  <c:v>4.8647583333333332E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2875,34 +2938,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.7120833333333347E-5</c:v>
+                  <c:v>-4.4436499999999973E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8886966666666668E-4</c:v>
+                  <c:v>4.7312333333333358E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7397400000000002E-4</c:v>
+                  <c:v>1.324166666666667E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5380483333333332E-4</c:v>
+                  <c:v>2.122475E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2888483333333326E-4</c:v>
+                  <c:v>2.8732749999999994E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9970983333333331E-4</c:v>
+                  <c:v>3.5815249999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6673483333333338E-4</c:v>
+                  <c:v>4.2517750000000006E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3034650000000001E-4</c:v>
+                  <c:v>4.8878916666666669E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9089150000000007E-4</c:v>
+                  <c:v>5.4933416666666675E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4866149999999992E-4</c:v>
+                  <c:v>6.071041666666666E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2988,16 +3051,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5446833333333337E-4</c:v>
+                  <c:v>2.4666666666666679E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8263499999999999E-4</c:v>
+                  <c:v>1.528333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9046833333333331E-4</c:v>
+                  <c:v>2.6066666666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8380166666666665E-4</c:v>
+                  <c:v>3.5399999999999993E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3065,16 +3128,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.9034733333333337E-4</c:v>
+                  <c:v>5.6666666666666671E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5601399999999993E-4</c:v>
+                  <c:v>2.2233333333333325E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8934733333333327E-4</c:v>
+                  <c:v>3.5566666666666657E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0434733333333325E-4</c:v>
+                  <c:v>4.7066666666666654E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3142,25 +3205,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.343855E-4</c:v>
+                  <c:v>-6.6666666666669191E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5755216666666666E-4</c:v>
+                  <c:v>1.2249999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6738549999999997E-4</c:v>
+                  <c:v>2.3233333333333328E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7738549999999999E-4</c:v>
+                  <c:v>3.4233333333333327E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7071883333333333E-4</c:v>
+                  <c:v>4.3566666666666667E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5738550000000008E-4</c:v>
+                  <c:v>5.2233333333333331E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4238550000000009E-4</c:v>
+                  <c:v>6.0733333333333331E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3237,25 +3300,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.079175E-4</c:v>
+                  <c:v>-2.6166666666666688E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0908416666666669E-4</c:v>
+                  <c:v>7.5000000000000007E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0641750000000003E-4</c:v>
+                  <c:v>1.7233333333333334E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9641749999999999E-4</c:v>
+                  <c:v>2.6233333333333328E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7808416666666662E-4</c:v>
+                  <c:v>3.439999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5641750000000008E-4</c:v>
+                  <c:v>4.2233333333333337E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4141749999999987E-4</c:v>
+                  <c:v>5.0733333333333316E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3332,34 +3395,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.8661500000000005E-5</c:v>
+                  <c:v>-4.366666666666668E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8116149999999998E-4</c:v>
+                  <c:v>4.8833333333333292E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6466150000000003E-4</c:v>
+                  <c:v>1.3233333333333334E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4632816666666666E-4</c:v>
+                  <c:v>2.1399999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2132816666666664E-4</c:v>
+                  <c:v>2.8899999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9299483333333329E-4</c:v>
+                  <c:v>3.6066666666666658E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6132816666666662E-4</c:v>
+                  <c:v>4.2899999999999991E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2799483333333332E-4</c:v>
+                  <c:v>4.9566666666666661E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.029948333333333E-4</c:v>
+                  <c:v>5.7066666666666659E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6299483333333324E-4</c:v>
+                  <c:v>6.3066666666666653E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4198,16 +4261,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5463250000000001E-4</c:v>
+                  <c:v>1.5601666666666684E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7844783333333335E-4</c:v>
+                  <c:v>1.3941700000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7969833333333341E-4</c:v>
+                  <c:v>2.4066750000000008E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6618666666666675E-4</c:v>
+                  <c:v>3.2715583333333342E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4275,16 +4338,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.9544199999999999E-4</c:v>
+                  <c:v>5.2532166666666651E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4920900000000001E-4</c:v>
+                  <c:v>2.062991666666667E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7561400000000007E-4</c:v>
+                  <c:v>3.3270416666666676E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8335400000000001E-4</c:v>
+                  <c:v>4.404441666666667E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4352,25 +4415,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.4056533333333329E-4</c:v>
+                  <c:v>-3.7160000000000437E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6376866666666669E-4</c:v>
+                  <c:v>1.1948733333333336E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7284883333333333E-4</c:v>
+                  <c:v>2.285675E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7057216666666668E-4</c:v>
+                  <c:v>3.2629083333333335E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5912883333333321E-4</c:v>
+                  <c:v>4.1484749999999993E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4017549999999994E-4</c:v>
+                  <c:v>4.9589416666666667E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1497216666666671E-4</c:v>
+                  <c:v>5.7069083333333344E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4447,25 +4510,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.1319349999999999E-4</c:v>
+                  <c:v>-3.0119833333333329E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1814016666666666E-4</c:v>
+                  <c:v>7.4826833333333333E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1351616666666664E-4</c:v>
+                  <c:v>1.7020283333333332E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0141416666666669E-4</c:v>
+                  <c:v>2.5810083333333337E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8286249999999998E-4</c:v>
+                  <c:v>3.3954916666666666E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5874416666666659E-4</c:v>
+                  <c:v>4.1543083333333327E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2978916666666664E-4</c:v>
+                  <c:v>4.8647583333333332E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4542,34 +4605,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.7120833333333347E-5</c:v>
+                  <c:v>-4.4436499999999973E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8886966666666668E-4</c:v>
+                  <c:v>4.7312333333333358E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7397400000000002E-4</c:v>
+                  <c:v>1.324166666666667E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5380483333333332E-4</c:v>
+                  <c:v>2.122475E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2888483333333326E-4</c:v>
+                  <c:v>2.8732749999999994E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9970983333333331E-4</c:v>
+                  <c:v>3.5815249999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6673483333333338E-4</c:v>
+                  <c:v>4.2517750000000006E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3034650000000001E-4</c:v>
+                  <c:v>4.8878916666666669E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9089150000000007E-4</c:v>
+                  <c:v>5.4933416666666675E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4866149999999992E-4</c:v>
+                  <c:v>6.071041666666666E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4617,6 +4680,1216 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-42C1-AD40-9F59-28B1DA86FE49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1474169040"/>
+        <c:axId val="1474170720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1474169040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+                  <a:t>Axial</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+                  <a:t>Strain</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+                  <a:t>(in./in.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1474170720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000006E-4"/>
+        <c:minorUnit val="1.0000000000000003E-4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1474170720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+                  <a:t>Deviator</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" baseline="0"/>
+                  <a:t>Stress</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" baseline="0"/>
+                  <a:t>(psi)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1474169040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1"/>
+              <a:t>Triaxial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" baseline="0"/>
+              <a:t>Test - C-FLEX</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3psi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.577511003139247E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6228820227666163E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6808009422850414E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F0E-DD45-B99E-64B00F7D1E8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5psi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$6:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.03471218996073E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3950554412553557E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.443522824895577E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$6:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F0E-DD45-B99E-64B00F7D1E8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10psi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.3712415820923837E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4065578393765603E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.48908211933422E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2F0E-DD45-B99E-64B00F7D1E8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>15psi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$12:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.9942326790920657E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0383254370631139E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3440880135668576E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2F0E-DD45-B99E-64B00F7D1E8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>20psi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.5123523992965415E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2536249448917275E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1091739938572251E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2F0E-DD45-B99E-64B00F7D1E8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>3psi_CFLEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.5463866666666666E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7845400000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7970450000000008E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6619283333333342E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2F0E-DD45-B99E-64B00F7D1E8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>5psi_CFLEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$I$7:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.954418333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4920883333333338E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7561383333333344E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8335383333333332E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$7:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2F0E-DD45-B99E-64B00F7D1E8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>10psi_CFLEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$I$11:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4032166666666661E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6352500000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7260516666666666E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7032850000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5888516666666665E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3993183333333338E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1472850000000015E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$11:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2F0E-DD45-B99E-64B00F7D1E8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>15psi_CFLEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$I$18:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.127325E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1767916666666666E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1305516666666665E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.009531666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8240149999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.582831666666666E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2932816666666665E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$18:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2F0E-DD45-B99E-64B00F7D1E8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>20psi_CFLEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$I$25:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.6703833333333368E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.884526666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7355700000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5338783333333331E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2846783333333325E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9929283333333336E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6631783333333343E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2992950000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9047450000000012E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4824449999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$25:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2F0E-DD45-B99E-64B00F7D1E8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5139,6 +6412,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6688,6 +8001,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7355,6 +9184,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>497116</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF46822C-DDA8-3049-8B46-74F39CEB0159}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7666,14 +9538,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7684,7 +9556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2.5</v>
       </c>
@@ -7695,7 +9567,7 @@
         <v>1.4640000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -7706,7 +9578,7 @@
         <v>2.7520000000000002E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>9</v>
       </c>
@@ -7717,7 +9589,7 @@
         <v>3.6880000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7728,7 +9600,7 @@
         <v>1.517E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -7739,7 +9611,7 @@
         <v>2.5700000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -7750,7 +9622,7 @@
         <v>3.6900000000000002E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>20</v>
       </c>
@@ -7761,7 +9633,7 @@
         <v>4.8099999999999998E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>25</v>
       </c>
@@ -7772,7 +9644,7 @@
         <v>5.8600000000000004E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>30</v>
       </c>
@@ -7783,7 +9655,7 @@
         <v>6.7469999999999997E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>35</v>
       </c>
@@ -7794,7 +9666,7 @@
         <v>7.6429999999999998E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -7805,7 +9677,7 @@
         <v>1.5589999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -7816,7 +9688,7 @@
         <v>2.6039999999999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>15</v>
       </c>
@@ -7827,7 +9699,7 @@
         <v>3.6529999999999999E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -7838,7 +9710,7 @@
         <v>4.5189999999999998E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>25</v>
       </c>
@@ -7849,7 +9721,7 @@
         <v>5.442E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>30</v>
       </c>
@@ -7860,7 +9732,7 @@
         <v>6.1260000000000004E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>35</v>
       </c>
@@ -7871,7 +9743,7 @@
         <v>6.9229999999999997E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -7882,7 +9754,7 @@
         <v>1.4679999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>10</v>
       </c>
@@ -7893,7 +9765,7 @@
         <v>2.4389999999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -7904,7 +9776,7 @@
         <v>3.3770000000000002E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -7915,7 +9787,7 @@
         <v>4.1060000000000001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>25</v>
       </c>
@@ -7926,7 +9798,7 @@
         <v>4.927E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>30</v>
       </c>
@@ -7937,7 +9809,7 @@
         <v>5.7149999999999996E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>35</v>
       </c>
@@ -7948,7 +9820,7 @@
         <v>6.4720000000000001E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>40</v>
       </c>
@@ -7959,7 +9831,7 @@
         <v>7.2009999999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>45</v>
       </c>
@@ -7970,7 +9842,7 @@
         <v>7.9049999999999997E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>50</v>
       </c>
@@ -7981,7 +9853,7 @@
         <v>8.2370000000000002E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>10</v>
       </c>
@@ -7992,7 +9864,7 @@
         <v>2.1460000000000001E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>20</v>
       </c>
@@ -8003,7 +9875,7 @@
         <v>3.5169999999999998E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8014,7 +9886,7 @@
         <v>4.8819999999999999E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>40</v>
       </c>
@@ -8025,7 +9897,7 @@
         <v>6.1580000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>50</v>
       </c>
@@ -8036,7 +9908,7 @@
         <v>7.3559999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>60</v>
       </c>
@@ -8055,13 +9927,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A0966C-B8B6-BC46-A53C-B5783069CE64}">
-  <dimension ref="A1:X71"/>
+  <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" customWidth="1"/>
@@ -8077,44 +9949,46 @@
     <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.83203125" customWidth="1"/>
     <col min="18" max="18" width="12.33203125" customWidth="1"/>
+    <col min="28" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
       <c r="M1" s="10"/>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-    </row>
-    <row r="2" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+    </row>
+    <row r="2" spans="1:24" ht="48">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -8151,7 +10025,7 @@
       <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -8173,8 +10047,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+    <row r="3" spans="1:24">
+      <c r="A3" s="18">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -8187,7 +10061,7 @@
         <f>B3/C3</f>
         <v>1.577511003139247E-4</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>3</v>
       </c>
       <c r="F3" s="8">
@@ -8201,7 +10075,7 @@
       </c>
       <c r="I3" s="9">
         <f>-(G3-H3)/6-P3</f>
-        <v>1.5446833333333337E-4</v>
+        <v>2.4666666666666679E-5</v>
       </c>
       <c r="J3" s="4">
         <v>-1.76296E-3</v>
@@ -8210,39 +10084,39 @@
         <v>-5.5797500000000005E-4</v>
       </c>
       <c r="L3" s="9">
-        <f>-(J3-K3)/6-S3</f>
-        <v>1.5463250000000001E-4</v>
-      </c>
-      <c r="M3" s="15">
+        <f t="shared" ref="L3:L34" si="0">-(J3-K3)/6-S3</f>
+        <v>1.5601666666666684E-5</v>
+      </c>
+      <c r="M3" s="14">
         <f>ABS(I3-L3)/I3*100</f>
-        <v>0.10627852526406081</v>
+        <v>36.749999999999957</v>
       </c>
       <c r="N3" s="4">
-        <v>-4.6758800000000001E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O3" s="4">
-        <v>-1.9039799999999999E-4</v>
-      </c>
-      <c r="P3" s="11">
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P3" s="4">
         <f>-(N3-O3)/6</f>
-        <v>4.6198333333333335E-5</v>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q3" s="4">
-        <v>-4.6758800000000001E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R3" s="4">
-        <v>-1.9039799999999999E-4</v>
-      </c>
-      <c r="S3" s="11">
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S3" s="4">
         <f>-(Q3-R3)/6</f>
-        <v>4.6198333333333335E-5</v>
+        <v>1.8522916666666666E-4</v>
       </c>
       <c r="X3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+    <row r="4" spans="1:24">
+      <c r="A4" s="18"/>
       <c r="B4" s="2">
         <v>6</v>
       </c>
@@ -8250,10 +10124,10 @@
         <v>22875.599999999999</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D17" si="0">B4/C4</f>
+        <f t="shared" ref="D4:D17" si="1">B4/C4</f>
         <v>2.6228820227666163E-4</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="8">
         <v>6</v>
       </c>
@@ -8264,8 +10138,8 @@
         <v>-8.6700000000000004E-4</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ref="I4:I34" si="1">-(G4-H4)/6-P4</f>
-        <v>2.8263499999999999E-4</v>
+        <f t="shared" ref="I4:I34" si="2">-(G4-H4)/6-P4</f>
+        <v>1.528333333333333E-4</v>
       </c>
       <c r="J4" s="4">
         <v>-2.79496E-3</v>
@@ -8274,36 +10148,36 @@
         <v>-8.4708299999999999E-4</v>
       </c>
       <c r="L4" s="9">
-        <f>-(J4-K4)/6-S4</f>
-        <v>2.7844783333333335E-4</v>
-      </c>
-      <c r="M4" s="15">
-        <f t="shared" ref="M4:M34" si="2">ABS(I4-L4)/I4*100</f>
-        <v>1.481474929384768</v>
+        <f t="shared" si="0"/>
+        <v>1.3941700000000002E-4</v>
+      </c>
+      <c r="M4" s="14">
+        <f t="shared" ref="M4:M34" si="3">ABS(I4-L4)/I4*100</f>
+        <v>8.7784078516902575</v>
       </c>
       <c r="N4" s="4">
-        <v>-4.6758800000000001E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O4" s="4">
-        <v>-1.9039799999999999E-4</v>
-      </c>
-      <c r="P4" s="11">
-        <f t="shared" ref="P4:P34" si="3">-(N4-O4)/6</f>
-        <v>4.6198333333333335E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" ref="P4:P34" si="4">-(N4-O4)/6</f>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q4" s="4">
-        <v>-4.6758800000000001E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R4" s="4">
-        <v>-1.9039799999999999E-4</v>
-      </c>
-      <c r="S4" s="11">
-        <f t="shared" ref="S4:S34" si="4">-(Q4-R4)/6</f>
-        <v>4.6198333333333335E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" ref="S4:S34" si="5">-(Q4-R4)/6</f>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="18"/>
       <c r="B5" s="2">
         <v>9</v>
       </c>
@@ -8311,10 +10185,10 @@
         <v>24451.200000000001</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6808009422850414E-4</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="8">
         <v>9</v>
       </c>
@@ -8325,8 +10199,8 @@
         <v>-1.1199999999999999E-3</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" si="1"/>
-        <v>3.9046833333333331E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.6066666666666664E-4</v>
       </c>
       <c r="J5" s="4">
         <v>-3.6374200000000001E-3</v>
@@ -8335,36 +10209,36 @@
         <v>-1.08204E-3</v>
       </c>
       <c r="L5" s="9">
-        <f>-(J5-K5)/6-S5</f>
-        <v>3.7969833333333341E-4</v>
-      </c>
-      <c r="M5" s="15">
-        <f t="shared" si="2"/>
-        <v>2.7582262326009963</v>
+        <f t="shared" si="0"/>
+        <v>2.4066750000000008E-4</v>
+      </c>
+      <c r="M5" s="14">
+        <f t="shared" si="3"/>
+        <v>7.672314578005075</v>
       </c>
       <c r="N5" s="4">
-        <v>-4.6758800000000001E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O5" s="4">
-        <v>-1.9039799999999999E-4</v>
-      </c>
-      <c r="P5" s="11">
-        <f t="shared" si="3"/>
-        <v>4.6198333333333335E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q5" s="4">
-        <v>-4.6758800000000001E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R5" s="4">
-        <v>-1.9039799999999999E-4</v>
-      </c>
-      <c r="S5" s="11">
-        <f t="shared" si="4"/>
-        <v>4.6198333333333335E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -8374,10 +10248,10 @@
         <v>24573.5</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.03471218996073E-4</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="8">
         <v>12</v>
       </c>
@@ -8388,8 +10262,8 @@
         <v>-1.33E-3</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="1"/>
-        <v>4.8380166666666665E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.5399999999999993E-4</v>
       </c>
       <c r="J6" s="4">
         <v>-4.3567900000000001E-3</v>
@@ -8398,36 +10272,36 @@
         <v>-1.2824799999999999E-3</v>
       </c>
       <c r="L6" s="9">
-        <f>-(J6-K6)/6-S6</f>
-        <v>4.6618666666666675E-4</v>
-      </c>
-      <c r="M6" s="15">
-        <f t="shared" si="2"/>
-        <v>3.640954798970633</v>
+        <f t="shared" si="0"/>
+        <v>3.2715583333333342E-4</v>
+      </c>
+      <c r="M6" s="14">
+        <f t="shared" si="3"/>
+        <v>7.58309792843687</v>
       </c>
       <c r="N6" s="4">
-        <v>-4.6758800000000001E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O6" s="4">
-        <v>-1.9039799999999999E-4</v>
-      </c>
-      <c r="P6" s="11">
-        <f t="shared" si="3"/>
-        <v>4.6198333333333335E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q6" s="4">
-        <v>-4.6758800000000001E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R6" s="4">
-        <v>-1.9039799999999999E-4</v>
-      </c>
-      <c r="S6" s="11">
-        <f t="shared" si="4"/>
-        <v>4.6198333333333335E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="18"/>
       <c r="B7" s="2">
         <v>10</v>
       </c>
@@ -8435,10 +10309,10 @@
         <v>29454.6</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3950554412553557E-4</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>5</v>
       </c>
       <c r="F7" s="8">
@@ -8451,8 +10325,8 @@
         <v>-6.4400000000000004E-4</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="1"/>
-        <v>1.9034733333333337E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.6666666666666671E-5</v>
       </c>
       <c r="J7" s="4">
         <v>-2.0743799999999998E-3</v>
@@ -8461,36 +10335,36 @@
         <v>-6.47812E-4</v>
       </c>
       <c r="L7" s="9">
-        <f>-(J7-K7)/6-S7</f>
-        <v>1.9544199999999999E-4</v>
-      </c>
-      <c r="M7" s="15">
-        <f t="shared" si="2"/>
-        <v>2.6765106594610986</v>
+        <f t="shared" si="0"/>
+        <v>5.2532166666666651E-5</v>
+      </c>
+      <c r="M7" s="14">
+        <f t="shared" si="3"/>
+        <v>7.2961764705882697</v>
       </c>
       <c r="N7" s="4">
-        <v>-4.2969299999999998E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O7" s="4">
-        <v>-1.7577700000000001E-4</v>
-      </c>
-      <c r="P7" s="11">
-        <f t="shared" si="3"/>
-        <v>4.2319333333333326E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q7" s="4">
-        <v>-4.2969299999999998E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R7" s="4">
-        <v>-1.7577700000000001E-4</v>
-      </c>
-      <c r="S7" s="11">
-        <f t="shared" si="4"/>
-        <v>4.2319333333333326E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="18"/>
       <c r="B8" s="2">
         <v>15</v>
       </c>
@@ -8498,10 +10372,10 @@
         <v>33757</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.443522824895577E-4</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="8">
         <v>10</v>
       </c>
@@ -8512,8 +10386,8 @@
         <v>-1.0300000000000001E-3</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="1"/>
-        <v>3.5601399999999993E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.2233333333333325E-4</v>
       </c>
       <c r="J8" s="4">
         <v>-3.3594900000000001E-3</v>
@@ -8522,36 +10396,36 @@
         <v>-1.0103200000000001E-3</v>
       </c>
       <c r="L8" s="9">
-        <f>-(J8-K8)/6-S8</f>
-        <v>3.4920900000000001E-4</v>
-      </c>
-      <c r="M8" s="15">
-        <f t="shared" si="2"/>
-        <v>1.9114416848775386</v>
+        <f t="shared" si="0"/>
+        <v>2.062991666666667E-4</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" si="3"/>
+        <v>7.2117691154422303</v>
       </c>
       <c r="N8" s="4">
-        <v>-4.2969299999999998E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O8" s="4">
-        <v>-1.7577700000000001E-4</v>
-      </c>
-      <c r="P8" s="11">
-        <f t="shared" si="3"/>
-        <v>4.2319333333333326E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>-4.2969299999999998E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R8" s="4">
-        <v>-1.7577700000000001E-4</v>
-      </c>
-      <c r="S8" s="11">
-        <f t="shared" si="4"/>
-        <v>4.2319333333333326E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="18">
         <v>10</v>
       </c>
       <c r="B9" s="2">
@@ -8561,10 +10435,10 @@
         <v>42172</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3712415820923837E-4</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="8">
         <v>15</v>
       </c>
@@ -8575,8 +10449,8 @@
         <v>-1.3500000000000001E-3</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="1"/>
-        <v>4.8934733333333327E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.5566666666666657E-4</v>
       </c>
       <c r="J9" s="4">
         <v>-4.41362E-3</v>
@@ -8585,36 +10459,36 @@
         <v>-1.30602E-3</v>
       </c>
       <c r="L9" s="9">
-        <f>-(J9-K9)/6-S9</f>
-        <v>4.7561400000000007E-4</v>
-      </c>
-      <c r="M9" s="15">
-        <f t="shared" si="2"/>
-        <v>2.8064592157444812</v>
+        <f t="shared" si="0"/>
+        <v>3.3270416666666676E-4</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" si="3"/>
+        <v>6.456185567010257</v>
       </c>
       <c r="N9" s="4">
-        <v>-4.2969299999999998E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O9" s="4">
-        <v>-1.7577700000000001E-4</v>
-      </c>
-      <c r="P9" s="11">
-        <f t="shared" si="3"/>
-        <v>4.2319333333333326E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q9" s="4">
-        <v>-4.2969299999999998E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R9" s="4">
-        <v>-1.7577700000000001E-4</v>
-      </c>
-      <c r="S9" s="11">
-        <f t="shared" si="4"/>
-        <v>4.2319333333333326E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="18"/>
       <c r="B10" s="2">
         <v>20</v>
       </c>
@@ -8622,10 +10496,10 @@
         <v>45386.9</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4065578393765603E-4</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="8">
         <v>20</v>
       </c>
@@ -8636,8 +10510,8 @@
         <v>-1.6199999999999999E-3</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="1"/>
-        <v>6.0434733333333325E-4</v>
+        <f t="shared" si="2"/>
+        <v>4.7066666666666654E-4</v>
       </c>
       <c r="J10" s="4">
         <v>-5.3113500000000003E-3</v>
@@ -8646,36 +10520,36 @@
         <v>-1.5573099999999999E-3</v>
       </c>
       <c r="L10" s="9">
-        <f>-(J10-K10)/6-S10</f>
-        <v>5.8335400000000001E-4</v>
-      </c>
-      <c r="M10" s="15">
-        <f t="shared" si="2"/>
-        <v>3.4737198586684537</v>
+        <f t="shared" si="0"/>
+        <v>4.404441666666667E-4</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="3"/>
+        <v>6.4212110481586082</v>
       </c>
       <c r="N10" s="4">
-        <v>-4.2969299999999998E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O10" s="4">
-        <v>-1.7577700000000001E-4</v>
-      </c>
-      <c r="P10" s="11">
-        <f t="shared" si="3"/>
-        <v>4.2319333333333326E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q10" s="4">
-        <v>-4.2969299999999998E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R10" s="4">
-        <v>-1.7577700000000001E-4</v>
-      </c>
-      <c r="S10" s="11">
-        <f t="shared" si="4"/>
-        <v>4.2319333333333326E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="18"/>
       <c r="B11" s="2">
         <v>30</v>
       </c>
@@ -8683,10 +10557,10 @@
         <v>46231.5</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.48908211933422E-4</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>10</v>
       </c>
       <c r="F11" s="8">
@@ -8699,8 +10573,8 @@
         <v>-5.0799999999999999E-4</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="1"/>
-        <v>1.343855E-4</v>
+        <f t="shared" si="2"/>
+        <v>-6.6666666666669191E-7</v>
       </c>
       <c r="J11" s="4">
         <v>-1.6078799999999999E-3</v>
@@ -8709,36 +10583,36 @@
         <v>-5.1880100000000005E-4</v>
       </c>
       <c r="L11" s="9">
-        <f>-(J11-K11)/6-S11</f>
-        <v>1.4056533333333329E-4</v>
-      </c>
-      <c r="M11" s="15">
-        <f t="shared" si="2"/>
-        <v>4.5985864050312601</v>
+        <f t="shared" si="0"/>
+        <v>-3.7160000000000437E-6</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="3"/>
+        <v>-457.39999999998543</v>
       </c>
       <c r="N11" s="4">
-        <v>-4.17651E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O11" s="4">
-        <v>-1.7196400000000001E-4</v>
-      </c>
-      <c r="P11" s="11">
-        <f t="shared" si="3"/>
-        <v>4.0947833333333328E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q11" s="4">
-        <v>-4.17651E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R11" s="4">
-        <v>-1.7196400000000001E-4</v>
-      </c>
-      <c r="S11" s="11">
-        <f t="shared" si="4"/>
-        <v>4.0947833333333328E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="18">
         <v>15</v>
       </c>
       <c r="B12" s="2">
@@ -8748,10 +10622,10 @@
         <v>50144.6</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9942326790920657E-4</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="8">
         <v>10</v>
       </c>
@@ -8762,8 +10636,8 @@
         <v>-8.0900000000000004E-4</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="1"/>
-        <v>2.5755216666666666E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.2249999999999997E-4</v>
       </c>
       <c r="J12" s="4">
         <v>-2.6446600000000001E-3</v>
@@ -8772,36 +10646,36 @@
         <v>-8.1636100000000004E-4</v>
       </c>
       <c r="L12" s="9">
-        <f>-(J12-K12)/6-S12</f>
-        <v>2.6376866666666669E-4</v>
-      </c>
-      <c r="M12" s="15">
-        <f t="shared" si="2"/>
-        <v>2.4136857711026947</v>
+        <f t="shared" si="0"/>
+        <v>1.1948733333333336E-4</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" si="3"/>
+        <v>2.4593197278911063</v>
       </c>
       <c r="N12" s="4">
-        <v>-4.17651E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O12" s="4">
-        <v>-1.7196400000000001E-4</v>
-      </c>
-      <c r="P12" s="11">
-        <f t="shared" si="3"/>
-        <v>4.0947833333333328E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q12" s="4">
-        <v>-4.17651E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R12" s="4">
-        <v>-1.7196400000000001E-4</v>
-      </c>
-      <c r="S12" s="11">
-        <f t="shared" si="4"/>
-        <v>4.0947833333333328E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="18"/>
       <c r="B13" s="2">
         <v>15</v>
       </c>
@@ -8809,10 +10683,10 @@
         <v>49369.3</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0383254370631139E-4</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="8">
         <v>15</v>
       </c>
@@ -8823,8 +10697,8 @@
         <v>-1.08E-3</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="1"/>
-        <v>3.6738549999999997E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.3233333333333328E-4</v>
       </c>
       <c r="J13" s="4">
         <v>-3.5593899999999999E-3</v>
@@ -8833,36 +10707,36 @@
         <v>-1.07661E-3</v>
       </c>
       <c r="L13" s="9">
-        <f>-(J13-K13)/6-S13</f>
-        <v>3.7284883333333333E-4</v>
-      </c>
-      <c r="M13" s="15">
-        <f t="shared" si="2"/>
-        <v>1.4870846381616476</v>
+        <f t="shared" si="0"/>
+        <v>2.285675E-4</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="3"/>
+        <v>1.6208751793400045</v>
       </c>
       <c r="N13" s="4">
-        <v>-4.17651E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O13" s="4">
-        <v>-1.7196400000000001E-4</v>
-      </c>
-      <c r="P13" s="11">
-        <f t="shared" si="3"/>
-        <v>4.0947833333333328E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q13" s="4">
-        <v>-4.17651E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R13" s="4">
-        <v>-1.7196400000000001E-4</v>
-      </c>
-      <c r="S13" s="11">
-        <f t="shared" si="4"/>
-        <v>4.0947833333333328E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="18"/>
       <c r="B14" s="2">
         <v>30</v>
       </c>
@@ -8870,10 +10744,10 @@
         <v>56136.800000000003</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3440880135668576E-4</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="8">
         <v>20</v>
       </c>
@@ -8884,8 +10758,8 @@
         <v>-1.34E-3</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="1"/>
-        <v>4.7738549999999999E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.4233333333333327E-4</v>
       </c>
       <c r="J14" s="4">
         <v>-4.3771699999999997E-3</v>
@@ -8894,36 +10768,36 @@
         <v>-1.3080500000000001E-3</v>
       </c>
       <c r="L14" s="9">
-        <f>-(J14-K14)/6-S14</f>
-        <v>4.7057216666666668E-4</v>
-      </c>
-      <c r="M14" s="15">
-        <f t="shared" si="2"/>
-        <v>1.4272183242543628</v>
+        <f t="shared" si="0"/>
+        <v>3.2629083333333335E-4</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="3"/>
+        <v>4.6862220058422368</v>
       </c>
       <c r="N14" s="4">
-        <v>-4.17651E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O14" s="4">
-        <v>-1.7196400000000001E-4</v>
-      </c>
-      <c r="P14" s="11">
-        <f t="shared" si="3"/>
-        <v>4.0947833333333328E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q14" s="4">
-        <v>-4.17651E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R14" s="4">
-        <v>-1.7196400000000001E-4</v>
-      </c>
-      <c r="S14" s="11">
-        <f t="shared" si="4"/>
-        <v>4.0947833333333328E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="18">
         <v>20</v>
       </c>
       <c r="B15" s="2">
@@ -8933,10 +10807,10 @@
         <v>59705</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5123523992965415E-4</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="8">
         <v>25</v>
       </c>
@@ -8947,8 +10821,8 @@
         <v>-1.56E-3</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="1"/>
-        <v>5.7071883333333333E-4</v>
+        <f t="shared" si="2"/>
+        <v>4.3566666666666667E-4</v>
       </c>
       <c r="J15" s="4">
         <v>-5.1172800000000001E-3</v>
@@ -8957,36 +10831,36 @@
         <v>-1.5168200000000001E-3</v>
       </c>
       <c r="L15" s="9">
-        <f>-(J15-K15)/6-S15</f>
-        <v>5.5912883333333321E-4</v>
-      </c>
-      <c r="M15" s="15">
-        <f t="shared" si="2"/>
-        <v>2.030772303816875</v>
+        <f t="shared" si="0"/>
+        <v>4.1484749999999993E-4</v>
+      </c>
+      <c r="M15" s="14">
+        <f t="shared" si="3"/>
+        <v>4.7786916602907574</v>
       </c>
       <c r="N15" s="4">
-        <v>-4.17651E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O15" s="4">
-        <v>-1.7196400000000001E-4</v>
-      </c>
-      <c r="P15" s="11">
-        <f t="shared" si="3"/>
-        <v>4.0947833333333328E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q15" s="4">
-        <v>-4.17651E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R15" s="4">
-        <v>-1.7196400000000001E-4</v>
-      </c>
-      <c r="S15" s="11">
-        <f t="shared" si="4"/>
-        <v>4.0947833333333328E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="18"/>
       <c r="B16" s="2">
         <v>20</v>
       </c>
@@ -8994,10 +10868,10 @@
         <v>61469.9</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2536249448917275E-4</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="8">
         <v>30</v>
       </c>
@@ -9008,8 +10882,8 @@
         <v>-1.7700000000000001E-3</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="1"/>
-        <v>6.5738550000000008E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.2233333333333331E-4</v>
       </c>
       <c r="J16" s="4">
         <v>-5.7940300000000004E-3</v>
@@ -9018,36 +10892,36 @@
         <v>-1.70729E-3</v>
       </c>
       <c r="L16" s="9">
-        <f>-(J16-K16)/6-S16</f>
-        <v>6.4017549999999994E-4</v>
-      </c>
-      <c r="M16" s="15">
-        <f t="shared" si="2"/>
-        <v>2.6179463952277833</v>
+        <f t="shared" si="0"/>
+        <v>4.9589416666666667E-4</v>
+      </c>
+      <c r="M16" s="14">
+        <f t="shared" si="3"/>
+        <v>5.0617421825143536</v>
       </c>
       <c r="N16" s="4">
-        <v>-4.17651E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O16" s="4">
-        <v>-1.7196400000000001E-4</v>
-      </c>
-      <c r="P16" s="11">
-        <f t="shared" si="3"/>
-        <v>4.0947833333333328E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q16" s="4">
-        <v>-4.17651E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R16" s="4">
-        <v>-1.7196400000000001E-4</v>
-      </c>
-      <c r="S16" s="11">
-        <f t="shared" si="4"/>
-        <v>4.0947833333333328E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="18"/>
       <c r="B17" s="2">
         <v>40</v>
       </c>
@@ -9055,10 +10929,10 @@
         <v>65475.3</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.1091739938572251E-4</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="8">
         <v>35</v>
       </c>
@@ -9069,8 +10943,8 @@
         <v>-1.9599999999999999E-3</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="1"/>
-        <v>7.4238550000000009E-4</v>
+        <f t="shared" si="2"/>
+        <v>6.0733333333333331E-4</v>
       </c>
       <c r="J17" s="4">
         <v>-6.4182500000000003E-3</v>
@@ -9079,36 +10953,42 @@
         <v>-1.88273E-3</v>
       </c>
       <c r="L17" s="9">
-        <f>-(J17-K17)/6-S17</f>
-        <v>7.1497216666666671E-4</v>
-      </c>
-      <c r="M17" s="15">
-        <f t="shared" si="2"/>
-        <v>3.6926008567426729</v>
+        <f t="shared" si="0"/>
+        <v>5.7069083333333344E-4</v>
+      </c>
+      <c r="M17" s="14">
+        <f t="shared" si="3"/>
+        <v>6.0333424807903206</v>
       </c>
       <c r="N17" s="4">
-        <v>-4.17651E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O17" s="4">
-        <v>-1.7196400000000001E-4</v>
-      </c>
-      <c r="P17" s="11">
-        <f t="shared" si="3"/>
-        <v>4.0947833333333328E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q17" s="4">
-        <v>-4.17651E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R17" s="4">
-        <v>-1.7196400000000001E-4</v>
-      </c>
-      <c r="S17" s="11">
-        <f t="shared" si="4"/>
-        <v>4.0947833333333328E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E18" s="16">
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="18">
         <v>15</v>
       </c>
       <c r="F18" s="8">
@@ -9121,8 +11001,8 @@
         <v>-4.5100000000000001E-4</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="1"/>
-        <v>1.079175E-4</v>
+        <f t="shared" si="2"/>
+        <v>-2.6166666666666688E-5</v>
       </c>
       <c r="J18" s="4">
         <v>-1.38922E-3</v>
@@ -9131,36 +11011,40 @@
         <v>-4.5856400000000001E-4</v>
       </c>
       <c r="L18" s="9">
-        <f>-(J18-K18)/6-S18</f>
-        <v>1.1319349999999999E-4</v>
-      </c>
-      <c r="M18" s="15">
-        <f t="shared" si="2"/>
-        <v>4.8889197766812567</v>
+        <f t="shared" si="0"/>
+        <v>-3.0119833333333329E-5</v>
+      </c>
+      <c r="M18" s="14">
+        <f t="shared" si="3"/>
+        <v>-15.107643312101802</v>
       </c>
       <c r="N18" s="4">
-        <v>-4.2938200000000002E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O18" s="4">
-        <v>-1.77887E-4</v>
-      </c>
-      <c r="P18" s="11">
-        <f t="shared" si="3"/>
-        <v>4.1915833333333336E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q18" s="4">
-        <v>-4.2938200000000002E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R18" s="4">
-        <v>-1.77887E-4</v>
-      </c>
-      <c r="S18" s="11">
-        <f t="shared" si="4"/>
-        <v>4.1915833333333336E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E19" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="8">
         <v>10</v>
       </c>
@@ -9171,8 +11055,8 @@
         <v>-7.0399999999999998E-4</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="1"/>
-        <v>2.0908416666666669E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.5000000000000007E-5</v>
       </c>
       <c r="J19" s="4">
         <v>-2.27618E-3</v>
@@ -9181,36 +11065,40 @@
         <v>-7.1584399999999999E-4</v>
       </c>
       <c r="L19" s="9">
-        <f>-(J19-K19)/6-S19</f>
-        <v>2.1814016666666666E-4</v>
-      </c>
-      <c r="M19" s="15">
-        <f t="shared" si="2"/>
-        <v>4.3312701025503904</v>
+        <f t="shared" si="0"/>
+        <v>7.4826833333333333E-5</v>
+      </c>
+      <c r="M19" s="14">
+        <f t="shared" si="3"/>
+        <v>0.23088888888889822</v>
       </c>
       <c r="N19" s="4">
-        <v>-4.2938200000000002E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O19" s="4">
-        <v>-1.77887E-4</v>
-      </c>
-      <c r="P19" s="11">
-        <f t="shared" si="3"/>
-        <v>4.1915833333333336E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q19" s="4">
-        <v>-4.2938200000000002E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R19" s="4">
-        <v>-1.77887E-4</v>
-      </c>
-      <c r="S19" s="11">
-        <f t="shared" si="4"/>
-        <v>4.1915833333333336E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E20" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="8">
         <v>15</v>
       </c>
@@ -9221,8 +11109,8 @@
         <v>-9.3999999999999997E-4</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="1"/>
-        <v>3.0641750000000003E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.7233333333333334E-4</v>
       </c>
       <c r="J20" s="4">
         <v>-3.0789900000000002E-3</v>
@@ -9231,36 +11119,40 @@
         <v>-9.4639799999999999E-4</v>
       </c>
       <c r="L20" s="9">
-        <f>-(J20-K20)/6-S20</f>
-        <v>3.1351616666666664E-4</v>
-      </c>
-      <c r="M20" s="15">
-        <f t="shared" si="2"/>
-        <v>2.3166648989260139</v>
+        <f t="shared" si="0"/>
+        <v>1.7020283333333332E-4</v>
+      </c>
+      <c r="M20" s="14">
+        <f t="shared" si="3"/>
+        <v>1.2362669245648061</v>
       </c>
       <c r="N20" s="4">
-        <v>-4.2938200000000002E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O20" s="4">
-        <v>-1.77887E-4</v>
-      </c>
-      <c r="P20" s="11">
-        <f t="shared" si="3"/>
-        <v>4.1915833333333336E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q20" s="4">
-        <v>-4.2938200000000002E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R20" s="4">
-        <v>-1.77887E-4</v>
-      </c>
-      <c r="S20" s="11">
-        <f t="shared" si="4"/>
-        <v>4.1915833333333336E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E21" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="8">
         <v>20</v>
       </c>
@@ -9271,8 +11163,8 @@
         <v>-1.15E-3</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="1"/>
-        <v>3.9641749999999999E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.6233333333333328E-4</v>
       </c>
       <c r="J21" s="4">
         <v>-3.8170700000000001E-3</v>
@@ -9281,36 +11173,40 @@
         <v>-1.1570899999999999E-3</v>
       </c>
       <c r="L21" s="9">
-        <f>-(J21-K21)/6-S21</f>
-        <v>4.0141416666666669E-4</v>
-      </c>
-      <c r="M21" s="15">
-        <f t="shared" si="2"/>
-        <v>1.2604556223342056</v>
+        <f t="shared" si="0"/>
+        <v>2.5810083333333337E-4</v>
+      </c>
+      <c r="M21" s="14">
+        <f t="shared" si="3"/>
+        <v>1.6134053367216936</v>
       </c>
       <c r="N21" s="4">
-        <v>-4.2938200000000002E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O21" s="4">
-        <v>-1.77887E-4</v>
-      </c>
-      <c r="P21" s="11">
-        <f t="shared" si="3"/>
-        <v>4.1915833333333336E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q21" s="4">
-        <v>-4.2938200000000002E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R21" s="4">
-        <v>-1.77887E-4</v>
-      </c>
-      <c r="S21" s="11">
-        <f t="shared" si="4"/>
-        <v>4.1915833333333336E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E22" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="8">
         <v>25</v>
       </c>
@@ -9321,8 +11217,8 @@
         <v>-1.3500000000000001E-3</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="1"/>
-        <v>4.7808416666666662E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.439999999999999E-4</v>
       </c>
       <c r="J22" s="4">
         <v>-4.4998199999999999E-3</v>
@@ -9331,36 +11227,40 @@
         <v>-1.35115E-3</v>
       </c>
       <c r="L22" s="9">
-        <f>-(J22-K22)/6-S22</f>
-        <v>4.8286249999999998E-4</v>
-      </c>
-      <c r="M22" s="15">
-        <f t="shared" si="2"/>
-        <v>0.99947533645575559</v>
+        <f t="shared" si="0"/>
+        <v>3.3954916666666666E-4</v>
+      </c>
+      <c r="M22" s="14">
+        <f t="shared" si="3"/>
+        <v>1.2938468992247814</v>
       </c>
       <c r="N22" s="4">
-        <v>-4.2938200000000002E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O22" s="4">
-        <v>-1.77887E-4</v>
-      </c>
-      <c r="P22" s="11">
-        <f t="shared" si="3"/>
-        <v>4.1915833333333336E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q22" s="4">
-        <v>-4.2938200000000002E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R22" s="4">
-        <v>-1.77887E-4</v>
-      </c>
-      <c r="S22" s="11">
-        <f t="shared" si="4"/>
-        <v>4.1915833333333336E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E23" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="8">
         <v>30</v>
       </c>
@@ -9371,8 +11271,8 @@
         <v>-1.5399999999999999E-3</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="1"/>
-        <v>5.5641750000000008E-4</v>
+        <f t="shared" si="2"/>
+        <v>4.2233333333333337E-4</v>
       </c>
       <c r="J23" s="4">
         <v>-5.1351000000000001E-3</v>
@@ -9381,36 +11281,40 @@
         <v>-1.5311400000000001E-3</v>
       </c>
       <c r="L23" s="9">
-        <f>-(J23-K23)/6-S23</f>
-        <v>5.5874416666666659E-4</v>
-      </c>
-      <c r="M23" s="15">
-        <f t="shared" si="2"/>
-        <v>0.41815123835366602</v>
+        <f t="shared" si="0"/>
+        <v>4.1543083333333327E-4</v>
+      </c>
+      <c r="M23" s="14">
+        <f t="shared" si="3"/>
+        <v>1.6343725335438275</v>
       </c>
       <c r="N23" s="4">
-        <v>-4.2938200000000002E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O23" s="4">
-        <v>-1.77887E-4</v>
-      </c>
-      <c r="P23" s="11">
-        <f t="shared" si="3"/>
-        <v>4.1915833333333336E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q23" s="4">
-        <v>-4.2938200000000002E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R23" s="4">
-        <v>-1.77887E-4</v>
-      </c>
-      <c r="S23" s="11">
-        <f t="shared" si="4"/>
-        <v>4.1915833333333336E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E24" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="8">
         <v>35</v>
       </c>
@@ -9421,8 +11325,8 @@
         <v>-1.74E-3</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="1"/>
-        <v>6.4141749999999987E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.0733333333333316E-4</v>
       </c>
       <c r="J24" s="4">
         <v>-5.7293400000000003E-3</v>
@@ -9431,36 +11335,40 @@
         <v>-1.69911E-3</v>
       </c>
       <c r="L24" s="9">
-        <f>-(J24-K24)/6-S24</f>
-        <v>6.2978916666666664E-4</v>
-      </c>
-      <c r="M24" s="15">
-        <f t="shared" si="2"/>
-        <v>1.8129117670367945</v>
+        <f t="shared" si="0"/>
+        <v>4.8647583333333332E-4</v>
+      </c>
+      <c r="M24" s="14">
+        <f t="shared" si="3"/>
+        <v>4.1112023653087739</v>
       </c>
       <c r="N24" s="4">
-        <v>-4.2938200000000002E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O24" s="4">
-        <v>-1.77887E-4</v>
-      </c>
-      <c r="P24" s="11">
-        <f t="shared" si="3"/>
-        <v>4.1915833333333336E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q24" s="4">
-        <v>-4.2938200000000002E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R24" s="4">
-        <v>-1.77887E-4</v>
-      </c>
-      <c r="S24" s="11">
-        <f t="shared" si="4"/>
-        <v>4.1915833333333336E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E25" s="16">
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="18">
         <v>20</v>
       </c>
       <c r="F25" s="8">
@@ -9473,8 +11381,8 @@
         <v>-4.1599999999999997E-4</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="1"/>
-        <v>8.8661500000000005E-5</v>
+        <f t="shared" si="2"/>
+        <v>-4.366666666666668E-5</v>
       </c>
       <c r="J25" s="4">
         <v>-1.2723400000000001E-3</v>
@@ -9483,36 +11391,40 @@
         <v>-4.27584E-4</v>
       </c>
       <c r="L25" s="9">
-        <f>-(J25-K25)/6-S25</f>
-        <v>9.7120833333333347E-5</v>
-      </c>
-      <c r="M25" s="15">
-        <f t="shared" si="2"/>
-        <v>9.5411574734618085</v>
+        <f t="shared" si="0"/>
+        <v>-4.4436499999999973E-5</v>
+      </c>
+      <c r="M25" s="14">
+        <f t="shared" si="3"/>
+        <v>-1.7629770992365492</v>
       </c>
       <c r="N25" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O25" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="P25" s="11">
-        <f t="shared" si="3"/>
-        <v>4.3671833333333338E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q25" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R25" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="S25" s="11">
-        <f t="shared" si="4"/>
-        <v>4.3671833333333338E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E26" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="8">
         <v>10</v>
       </c>
@@ -9523,8 +11435,8 @@
         <v>-6.4099999999999997E-4</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="1"/>
-        <v>1.8116149999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>4.8833333333333292E-5</v>
       </c>
       <c r="J26" s="4">
         <v>-2.0495800000000001E-3</v>
@@ -9533,36 +11445,40 @@
         <v>-6.5433099999999997E-4</v>
       </c>
       <c r="L26" s="9">
-        <f>-(J26-K26)/6-S26</f>
-        <v>1.8886966666666668E-4</v>
-      </c>
-      <c r="M26" s="15">
-        <f t="shared" si="2"/>
-        <v>4.2548591542169296</v>
+        <f t="shared" si="0"/>
+        <v>4.7312333333333358E-5</v>
+      </c>
+      <c r="M26" s="14">
+        <f t="shared" si="3"/>
+        <v>3.1146757679179551</v>
       </c>
       <c r="N26" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O26" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="P26" s="11">
-        <f t="shared" si="3"/>
-        <v>4.3671833333333338E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q26" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R26" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="S26" s="11">
-        <f t="shared" si="4"/>
-        <v>4.3671833333333338E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E27" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="8">
         <v>15</v>
       </c>
@@ -9573,8 +11489,8 @@
         <v>-8.4999999999999995E-4</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="1"/>
-        <v>2.6466150000000003E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.3233333333333334E-4</v>
       </c>
       <c r="J27" s="4">
         <v>-2.76779E-3</v>
@@ -9583,36 +11499,40 @@
         <v>-8.6191499999999999E-4</v>
       </c>
       <c r="L27" s="9">
-        <f>-(J27-K27)/6-S27</f>
-        <v>2.7397400000000002E-4</v>
-      </c>
-      <c r="M27" s="15">
-        <f t="shared" si="2"/>
-        <v>3.5186455151202529</v>
+        <f t="shared" si="0"/>
+        <v>1.324166666666667E-4</v>
+      </c>
+      <c r="M27" s="14">
+        <f t="shared" si="3"/>
+        <v>6.2972292191450951E-2</v>
       </c>
       <c r="N27" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O27" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="P27" s="11">
-        <f t="shared" si="3"/>
-        <v>4.3671833333333338E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q27" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R27" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="S27" s="11">
-        <f t="shared" si="4"/>
-        <v>4.3671833333333338E-5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E28" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="8">
         <v>20</v>
       </c>
@@ -9623,8 +11543,8 @@
         <v>-1.0499999999999999E-3</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="1"/>
-        <v>3.4632816666666666E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.1399999999999997E-4</v>
       </c>
       <c r="J28" s="4">
         <v>-3.4398499999999999E-3</v>
@@ -9633,36 +11553,40 @@
         <v>-1.05499E-3</v>
       </c>
       <c r="L28" s="9">
-        <f>-(J28-K28)/6-S28</f>
-        <v>3.5380483333333332E-4</v>
-      </c>
-      <c r="M28" s="15">
-        <f t="shared" si="2"/>
-        <v>2.1588387507224591</v>
+        <f t="shared" si="0"/>
+        <v>2.122475E-4</v>
+      </c>
+      <c r="M28" s="14">
+        <f t="shared" si="3"/>
+        <v>0.81892523364484759</v>
       </c>
       <c r="N28" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O28" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="P28" s="11">
-        <f t="shared" si="3"/>
-        <v>4.3671833333333338E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q28" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R28" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="S28" s="11">
-        <f t="shared" si="4"/>
-        <v>4.3671833333333338E-5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E29" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="8">
         <v>25</v>
       </c>
@@ -9673,8 +11597,8 @@
         <v>-1.23E-3</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="1"/>
-        <v>4.2132816666666664E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.8899999999999998E-4</v>
       </c>
       <c r="J29" s="4">
         <v>-4.0707399999999998E-3</v>
@@ -9683,36 +11607,40 @@
         <v>-1.2354E-3</v>
       </c>
       <c r="L29" s="9">
-        <f>-(J29-K29)/6-S29</f>
-        <v>4.2888483333333326E-4</v>
-      </c>
-      <c r="M29" s="15">
-        <f t="shared" si="2"/>
-        <v>1.7935346517302913</v>
+        <f t="shared" si="0"/>
+        <v>2.8732749999999994E-4</v>
+      </c>
+      <c r="M29" s="14">
+        <f t="shared" si="3"/>
+        <v>0.57871972318340559</v>
       </c>
       <c r="N29" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O29" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="P29" s="11">
-        <f t="shared" si="3"/>
-        <v>4.3671833333333338E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q29" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R29" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="S29" s="11">
-        <f t="shared" si="4"/>
-        <v>4.3671833333333338E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E30" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="8">
         <v>30</v>
       </c>
@@ -9723,8 +11651,8 @@
         <v>-1.4E-3</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="1"/>
-        <v>4.9299483333333329E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.6066666666666658E-4</v>
       </c>
       <c r="J30" s="4">
         <v>-4.6650399999999996E-3</v>
@@ -9733,36 +11661,40 @@
         <v>-1.40475E-3</v>
       </c>
       <c r="L30" s="9">
-        <f>-(J30-K30)/6-S30</f>
-        <v>4.9970983333333331E-4</v>
-      </c>
-      <c r="M30" s="15">
-        <f t="shared" si="2"/>
-        <v>1.362083240223279</v>
+        <f t="shared" si="0"/>
+        <v>3.5815249999999999E-4</v>
+      </c>
+      <c r="M30" s="14">
+        <f t="shared" si="3"/>
+        <v>0.69708872458408222</v>
       </c>
       <c r="N30" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O30" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="P30" s="11">
-        <f t="shared" si="3"/>
-        <v>4.3671833333333338E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q30" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R30" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="S30" s="11">
-        <f t="shared" si="4"/>
-        <v>4.3671833333333338E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E31" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S30" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="8">
         <v>35</v>
       </c>
@@ -9773,8 +11705,8 @@
         <v>-1.57E-3</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="1"/>
-        <v>5.6132816666666662E-4</v>
+        <f t="shared" si="2"/>
+        <v>4.2899999999999991E-4</v>
       </c>
       <c r="J31" s="4">
         <v>-5.2268000000000002E-3</v>
@@ -9783,36 +11715,40 @@
         <v>-1.5643600000000001E-3</v>
       </c>
       <c r="L31" s="9">
-        <f>-(J31-K31)/6-S31</f>
-        <v>5.6673483333333338E-4</v>
-      </c>
-      <c r="M31" s="15">
-        <f t="shared" si="2"/>
-        <v>0.96319176334463152</v>
+        <f t="shared" si="0"/>
+        <v>4.2517750000000006E-4</v>
+      </c>
+      <c r="M31" s="14">
+        <f t="shared" si="3"/>
+        <v>0.89102564102560633</v>
       </c>
       <c r="N31" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O31" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="P31" s="11">
-        <f t="shared" si="3"/>
-        <v>4.3671833333333338E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q31" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R31" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="S31" s="11">
-        <f t="shared" si="4"/>
-        <v>4.3671833333333338E-5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E32" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S31" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="8">
         <v>40</v>
       </c>
@@ -9823,8 +11759,8 @@
         <v>-1.72E-3</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" si="1"/>
-        <v>6.2799483333333332E-4</v>
+        <f t="shared" si="2"/>
+        <v>4.9566666666666661E-4</v>
       </c>
       <c r="J32" s="4">
         <v>-5.75948E-3</v>
@@ -9833,36 +11769,40 @@
         <v>-1.7153699999999999E-3</v>
       </c>
       <c r="L32" s="9">
-        <f>-(J32-K32)/6-S32</f>
-        <v>6.3034650000000001E-4</v>
-      </c>
-      <c r="M32" s="15">
-        <f t="shared" si="2"/>
-        <v>0.37447229528693365</v>
+        <f t="shared" si="0"/>
+        <v>4.8878916666666669E-4</v>
+      </c>
+      <c r="M32" s="14">
+        <f t="shared" si="3"/>
+        <v>1.3875252185608451</v>
       </c>
       <c r="N32" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O32" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="P32" s="11">
-        <f t="shared" si="3"/>
-        <v>4.3671833333333338E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q32" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R32" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="S32" s="11">
-        <f t="shared" si="4"/>
-        <v>4.3671833333333338E-5</v>
-      </c>
-    </row>
-    <row r="33" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E33" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S32" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="8">
         <v>45</v>
       </c>
@@ -9873,8 +11813,8 @@
         <v>-1.91E-3</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="1"/>
-        <v>7.029948333333333E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.7066666666666659E-4</v>
       </c>
       <c r="J33" s="4">
         <v>-6.2661000000000001E-3</v>
@@ -9883,36 +11823,40 @@
         <v>-1.8587199999999999E-3</v>
       </c>
       <c r="L33" s="9">
-        <f>-(J33-K33)/6-S33</f>
-        <v>6.9089150000000007E-4</v>
-      </c>
-      <c r="M33" s="15">
-        <f t="shared" si="2"/>
-        <v>1.721681690880122</v>
+        <f t="shared" si="0"/>
+        <v>5.4933416666666675E-4</v>
+      </c>
+      <c r="M33" s="14">
+        <f t="shared" si="3"/>
+        <v>3.7381717289719347</v>
       </c>
       <c r="N33" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O33" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="P33" s="11">
-        <f t="shared" si="3"/>
-        <v>4.3671833333333338E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q33" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R33" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="S33" s="11">
-        <f t="shared" si="4"/>
-        <v>4.3671833333333338E-5</v>
-      </c>
-    </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E34" s="16"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S33" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="8">
         <v>50</v>
       </c>
@@ -9923,8 +11867,8 @@
         <v>-2.0600000000000002E-3</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="1"/>
-        <v>7.6299483333333324E-4</v>
+        <f t="shared" si="2"/>
+        <v>6.3066666666666653E-4</v>
       </c>
       <c r="J34" s="4">
         <v>-6.7492300000000002E-3</v>
@@ -9933,163 +11877,1671 @@
         <v>-1.9952300000000002E-3</v>
       </c>
       <c r="L34" s="9">
-        <f>-(J34-K34)/6-S34</f>
-        <v>7.4866149999999992E-4</v>
-      </c>
-      <c r="M34" s="15">
-        <f t="shared" si="2"/>
-        <v>1.87856230568621</v>
+        <f t="shared" si="0"/>
+        <v>6.071041666666666E-4</v>
+      </c>
+      <c r="M34" s="14">
+        <f t="shared" si="3"/>
+        <v>3.7361257928118285</v>
       </c>
       <c r="N34" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="O34" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="P34" s="11">
-        <f t="shared" si="3"/>
-        <v>4.3671833333333338E-5</v>
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002E-4</v>
       </c>
       <c r="Q34" s="4">
-        <v>-4.48882E-4</v>
+        <v>-1.6665899999999999E-3</v>
       </c>
       <c r="R34" s="4">
-        <v>-1.86851E-4</v>
-      </c>
-      <c r="S34" s="11">
-        <f t="shared" si="4"/>
-        <v>4.3671833333333338E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="M35" s="14"/>
-    </row>
-    <row r="38" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="J38" s="12"/>
-      <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="J39" s="12"/>
-      <c r="N39" s="12"/>
-    </row>
-    <row r="40" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="J40" s="12"/>
-      <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="J41" s="12"/>
-      <c r="N41" s="12"/>
-    </row>
-    <row r="42" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="J42" s="12"/>
-      <c r="N42" s="12"/>
-    </row>
-    <row r="43" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="J45" s="12"/>
-    </row>
-    <row r="46" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="J46" s="12"/>
-    </row>
-    <row r="47" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="J47" s="12"/>
-    </row>
-    <row r="48" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="J48" s="12"/>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J49" s="12"/>
-    </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J50" s="12"/>
-    </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J51" s="12"/>
-    </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J52" s="12"/>
-    </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J53" s="12"/>
-    </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J54" s="12"/>
-    </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J55" s="12"/>
-    </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J56" s="12"/>
-    </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J57" s="12"/>
-    </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J58" s="12"/>
-    </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J59" s="12"/>
-    </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J60" s="12"/>
-    </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J61" s="12"/>
-    </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J62" s="12"/>
-    </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J63" s="12"/>
-    </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J64" s="12"/>
-    </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J65" s="12"/>
-    </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J66" s="12"/>
-    </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J67" s="12"/>
-    </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J68" s="12"/>
-    </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J69" s="12"/>
-    </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J70" s="12"/>
-    </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J71" s="12"/>
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="S34" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
+      <c r="M35" s="13"/>
+    </row>
+    <row r="37" spans="1:33">
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+    </row>
+    <row r="38" spans="1:33">
+      <c r="J38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="AB38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+    </row>
+    <row r="39" spans="1:33" ht="48">
+      <c r="J39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="AB39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG39" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
+      <c r="J40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="AB40" s="4">
+        <v>-1.58E-3</v>
+      </c>
+      <c r="AC40" s="4">
+        <v>-5.2400000000000005E-4</v>
+      </c>
+      <c r="AD40" s="4">
+        <f>-(AB40-AC40)/6</f>
+        <v>1.7600000000000002E-4</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>-1.6665899999999999E-3</v>
+      </c>
+      <c r="AF40" s="4">
+        <v>-5.5521499999999996E-4</v>
+      </c>
+      <c r="AG40" s="4">
+        <f>-(AE40-AF40)/6</f>
+        <v>1.8522916666666666E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
+      <c r="J41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+    </row>
+    <row r="42" spans="1:33">
+      <c r="J42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+    </row>
+    <row r="43" spans="1:33">
+      <c r="J43" s="11"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+    </row>
+    <row r="44" spans="1:33">
+      <c r="J44" s="11"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+    </row>
+    <row r="45" spans="1:33">
+      <c r="J45" s="11"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+    </row>
+    <row r="46" spans="1:33">
+      <c r="J46" s="11"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+    </row>
+    <row r="47" spans="1:33">
+      <c r="J47" s="11"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+    </row>
+    <row r="48" spans="1:33">
+      <c r="J48" s="11"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+    </row>
+    <row r="49" spans="10:30">
+      <c r="J49" s="11"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+    </row>
+    <row r="50" spans="10:30">
+      <c r="J50" s="11"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+    </row>
+    <row r="51" spans="10:30">
+      <c r="J51" s="11"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+    </row>
+    <row r="52" spans="10:30">
+      <c r="J52" s="11"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+    </row>
+    <row r="53" spans="10:30">
+      <c r="J53" s="11"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+    </row>
+    <row r="54" spans="10:30">
+      <c r="J54" s="11"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+    </row>
+    <row r="55" spans="10:30">
+      <c r="J55" s="11"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+    </row>
+    <row r="56" spans="10:30">
+      <c r="J56" s="11"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+    </row>
+    <row r="57" spans="10:30">
+      <c r="J57" s="11"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+    </row>
+    <row r="58" spans="10:30">
+      <c r="J58" s="11"/>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+    </row>
+    <row r="59" spans="10:30">
+      <c r="J59" s="11"/>
+      <c r="AB59" s="15"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+    </row>
+    <row r="60" spans="10:30">
+      <c r="J60" s="11"/>
+      <c r="AB60" s="15"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+    </row>
+    <row r="61" spans="10:30">
+      <c r="J61" s="11"/>
+      <c r="AB61" s="15"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+    </row>
+    <row r="62" spans="10:30">
+      <c r="J62" s="11"/>
+      <c r="AB62" s="15"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+    </row>
+    <row r="63" spans="10:30">
+      <c r="J63" s="11"/>
+      <c r="AB63" s="15"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+    </row>
+    <row r="64" spans="10:30">
+      <c r="J64" s="11"/>
+      <c r="AB64" s="15"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+    </row>
+    <row r="65" spans="10:30">
+      <c r="J65" s="11"/>
+      <c r="AB65" s="15"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+    </row>
+    <row r="66" spans="10:30">
+      <c r="J66" s="11"/>
+      <c r="AB66" s="15"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+    </row>
+    <row r="67" spans="10:30">
+      <c r="J67" s="11"/>
+      <c r="AB67" s="15"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+    </row>
+    <row r="68" spans="10:30">
+      <c r="J68" s="11"/>
+      <c r="AB68" s="15"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+    </row>
+    <row r="69" spans="10:30">
+      <c r="J69" s="11"/>
+    </row>
+    <row r="70" spans="10:30">
+      <c r="J70" s="11"/>
+    </row>
+    <row r="71" spans="10:30">
+      <c r="J71" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:D34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="AE38:AG38"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="E11:E17"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="E18:E24"/>
     <mergeCell ref="E25:E34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0844C83C-9B3C-BC4B-BDCD-F28D388FE91D}">
+  <dimension ref="A1:W65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U42" sqref="U42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:17" ht="48">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="18">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16">
+        <v>19017.3</v>
+      </c>
+      <c r="D3" s="6">
+        <f>B3/C3</f>
+        <v>1.577511003139247E-4</v>
+      </c>
+      <c r="E3" s="19">
+        <v>3</v>
+      </c>
+      <c r="F3" s="17">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>-1.76296E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-5.5797500000000005E-4</v>
+      </c>
+      <c r="I3" s="9">
+        <f>-(G3-H3)/6-L3</f>
+        <v>1.5463866666666666E-4</v>
+      </c>
+      <c r="J3" s="4">
+        <f>-0.000467527</f>
+        <v>-4.6752700000000003E-4</v>
+      </c>
+      <c r="K3" s="4">
+        <v>-1.9037399999999999E-4</v>
+      </c>
+      <c r="L3" s="4">
+        <f>-(J3-K3)/6</f>
+        <v>4.6192166666666675E-5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="18"/>
+      <c r="B4" s="16">
+        <v>6</v>
+      </c>
+      <c r="C4" s="16">
+        <v>22875.599999999999</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D17" si="0">B4/C4</f>
+        <v>2.6228820227666163E-4</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="17">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-2.79496E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-8.4708299999999999E-4</v>
+      </c>
+      <c r="I4" s="9">
+        <f>-(G4-H4)/6-L4</f>
+        <v>2.7845400000000003E-4</v>
+      </c>
+      <c r="J4" s="4">
+        <f>-0.000467527</f>
+        <v>-4.6752700000000003E-4</v>
+      </c>
+      <c r="K4" s="4">
+        <v>-1.9037399999999999E-4</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" ref="L4:L34" si="1">-(J4-K4)/6</f>
+        <v>4.6192166666666675E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="18"/>
+      <c r="B5" s="16">
+        <v>9</v>
+      </c>
+      <c r="C5" s="16">
+        <v>24451.200000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>3.6808009422850414E-4</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="17">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-3.6374200000000001E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-1.08204E-3</v>
+      </c>
+      <c r="I5" s="9">
+        <f>-(G5-H5)/6-L5</f>
+        <v>3.7970450000000008E-4</v>
+      </c>
+      <c r="J5" s="4">
+        <f>-0.000467527</f>
+        <v>-4.6752700000000003E-4</v>
+      </c>
+      <c r="K5" s="4">
+        <v>-1.9037399999999999E-4</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="1"/>
+        <v>4.6192166666666675E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16">
+        <v>24573.5</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>2.03471218996073E-4</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="17">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-4.3567900000000001E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-1.2824799999999999E-3</v>
+      </c>
+      <c r="I6" s="9">
+        <f>-(G6-H6)/6-L6</f>
+        <v>4.6619283333333342E-4</v>
+      </c>
+      <c r="J6" s="4">
+        <f>-0.000467527</f>
+        <v>-4.6752700000000003E-4</v>
+      </c>
+      <c r="K6" s="4">
+        <v>-1.9037399999999999E-4</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="1"/>
+        <v>4.6192166666666675E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="18"/>
+      <c r="B7" s="16">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16">
+        <v>29454.6</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>3.3950554412553557E-4</v>
+      </c>
+      <c r="E7" s="19">
+        <v>5</v>
+      </c>
+      <c r="F7" s="17">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-2.0743799999999998E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-6.47812E-4</v>
+      </c>
+      <c r="I7" s="9">
+        <f>-(G7-H7)/6-L7</f>
+        <v>1.954418333333333E-4</v>
+      </c>
+      <c r="J7" s="4">
+        <v>-4.2969299999999998E-4</v>
+      </c>
+      <c r="K7" s="4">
+        <v>-1.7577599999999999E-4</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="1"/>
+        <v>4.23195E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="18"/>
+      <c r="B8" s="16">
+        <v>15</v>
+      </c>
+      <c r="C8" s="16">
+        <v>33757</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>4.443522824895577E-4</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="17">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-3.3594900000000001E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-1.0103200000000001E-3</v>
+      </c>
+      <c r="I8" s="9">
+        <f>-(G8-H8)/6-L8</f>
+        <v>3.4920883333333338E-4</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-4.2969299999999998E-4</v>
+      </c>
+      <c r="K8" s="4">
+        <v>-1.7577599999999999E-4</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="1"/>
+        <v>4.23195E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="18">
+        <v>10</v>
+      </c>
+      <c r="B9" s="16">
+        <v>10</v>
+      </c>
+      <c r="C9" s="16">
+        <v>42172</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>2.3712415820923837E-4</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="17">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-4.41362E-3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-1.30602E-3</v>
+      </c>
+      <c r="I9" s="9">
+        <f>-(G9-H9)/6-L9</f>
+        <v>4.7561383333333344E-4</v>
+      </c>
+      <c r="J9" s="4">
+        <v>-4.2969299999999998E-4</v>
+      </c>
+      <c r="K9" s="4">
+        <v>-1.7577599999999999E-4</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="1"/>
+        <v>4.23195E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="18"/>
+      <c r="B10" s="16">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16">
+        <v>45386.9</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>4.4065578393765603E-4</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="17">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-5.3113500000000003E-3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-1.5573099999999999E-3</v>
+      </c>
+      <c r="I10" s="9">
+        <f>-(G10-H10)/6-L10</f>
+        <v>5.8335383333333332E-4</v>
+      </c>
+      <c r="J10" s="4">
+        <v>-4.2969299999999998E-4</v>
+      </c>
+      <c r="K10" s="4">
+        <v>-1.7577599999999999E-4</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
+        <v>4.23195E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="18"/>
+      <c r="B11" s="16">
+        <v>30</v>
+      </c>
+      <c r="C11" s="16">
+        <v>46231.5</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>6.48908211933422E-4</v>
+      </c>
+      <c r="E11" s="19">
+        <v>10</v>
+      </c>
+      <c r="F11" s="17">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-1.6078799999999999E-3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-5.1880100000000005E-4</v>
+      </c>
+      <c r="I11" s="9">
+        <f>-(G11-H11)/6-L11</f>
+        <v>1.4032166666666661E-4</v>
+      </c>
+      <c r="J11" s="4">
+        <v>-4.2006200000000002E-4</v>
+      </c>
+      <c r="K11" s="4">
+        <v>-1.7291299999999999E-4</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="1"/>
+        <v>4.11915E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="18">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16">
+        <v>10</v>
+      </c>
+      <c r="C12" s="16">
+        <v>50144.6</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9942326790920657E-4</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="17">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-2.6446600000000001E-3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-8.1636100000000004E-4</v>
+      </c>
+      <c r="I12" s="9">
+        <f>-(G12-H12)/6-L12</f>
+        <v>2.6352500000000002E-4</v>
+      </c>
+      <c r="J12" s="4">
+        <v>-4.2006200000000002E-4</v>
+      </c>
+      <c r="K12" s="4">
+        <v>-1.7291299999999999E-4</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="1"/>
+        <v>4.11915E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="18"/>
+      <c r="B13" s="16">
+        <v>15</v>
+      </c>
+      <c r="C13" s="16">
+        <v>49369.3</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>3.0383254370631139E-4</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="17">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-3.5593899999999999E-3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-1.07661E-3</v>
+      </c>
+      <c r="I13" s="9">
+        <f>-(G13-H13)/6-L13</f>
+        <v>3.7260516666666666E-4</v>
+      </c>
+      <c r="J13" s="4">
+        <v>-4.2006200000000002E-4</v>
+      </c>
+      <c r="K13" s="4">
+        <v>-1.7291299999999999E-4</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="1"/>
+        <v>4.11915E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="18"/>
+      <c r="B14" s="16">
+        <v>30</v>
+      </c>
+      <c r="C14" s="16">
+        <v>56136.800000000003</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>5.3440880135668576E-4</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="17">
+        <v>20</v>
+      </c>
+      <c r="G14" s="4">
+        <v>-4.3771699999999997E-3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-1.3080500000000001E-3</v>
+      </c>
+      <c r="I14" s="9">
+        <f>-(G14-H14)/6-L14</f>
+        <v>4.7032850000000001E-4</v>
+      </c>
+      <c r="J14" s="4">
+        <v>-4.2006200000000002E-4</v>
+      </c>
+      <c r="K14" s="4">
+        <v>-1.7291299999999999E-4</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="1"/>
+        <v>4.11915E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="18">
+        <v>20</v>
+      </c>
+      <c r="B15" s="16">
+        <v>15</v>
+      </c>
+      <c r="C15" s="16">
+        <v>59705</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5123523992965415E-4</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="17">
+        <v>25</v>
+      </c>
+      <c r="G15" s="4">
+        <v>-5.1172800000000001E-3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-1.5168200000000001E-3</v>
+      </c>
+      <c r="I15" s="9">
+        <f>-(G15-H15)/6-L15</f>
+        <v>5.5888516666666665E-4</v>
+      </c>
+      <c r="J15" s="4">
+        <v>-4.2006200000000002E-4</v>
+      </c>
+      <c r="K15" s="4">
+        <v>-1.7291299999999999E-4</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="1"/>
+        <v>4.11915E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="18"/>
+      <c r="B16" s="16">
+        <v>20</v>
+      </c>
+      <c r="C16" s="16">
+        <v>61469.9</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>3.2536249448917275E-4</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="17">
+        <v>30</v>
+      </c>
+      <c r="G16" s="4">
+        <v>-5.7940300000000004E-3</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-1.70729E-3</v>
+      </c>
+      <c r="I16" s="9">
+        <f>-(G16-H16)/6-L16</f>
+        <v>6.3993183333333338E-4</v>
+      </c>
+      <c r="J16" s="4">
+        <v>-4.2006200000000002E-4</v>
+      </c>
+      <c r="K16" s="4">
+        <v>-1.7291299999999999E-4</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="1"/>
+        <v>4.11915E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="18"/>
+      <c r="B17" s="16">
+        <v>40</v>
+      </c>
+      <c r="C17" s="16">
+        <v>65475.3</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>6.1091739938572251E-4</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="17">
+        <v>35</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-6.4182500000000003E-3</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-1.88273E-3</v>
+      </c>
+      <c r="I17" s="9">
+        <f>-(G17-H17)/6-L17</f>
+        <v>7.1472850000000015E-4</v>
+      </c>
+      <c r="J17" s="4">
+        <v>-4.2006200000000002E-4</v>
+      </c>
+      <c r="K17" s="4">
+        <v>-1.7291299999999999E-4</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="1"/>
+        <v>4.11915E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="18">
+        <v>15</v>
+      </c>
+      <c r="F18" s="17">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-1.38922E-3</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-4.5856400000000001E-4</v>
+      </c>
+      <c r="I18" s="9">
+        <f>-(G18-H18)/6-L18</f>
+        <v>1.127325E-4</v>
+      </c>
+      <c r="J18" s="4">
+        <v>-4.3395199999999998E-4</v>
+      </c>
+      <c r="K18" s="4">
+        <v>-1.79691E-4</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="1"/>
+        <v>4.2376833333333331E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="17">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-2.27618E-3</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-7.1584399999999999E-4</v>
+      </c>
+      <c r="I19" s="9">
+        <f>-(G19-H19)/6-L19</f>
+        <v>2.1767916666666666E-4</v>
+      </c>
+      <c r="J19" s="4">
+        <v>-4.3395199999999998E-4</v>
+      </c>
+      <c r="K19" s="4">
+        <v>-1.79691E-4</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="1"/>
+        <v>4.2376833333333331E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17">
+        <v>15</v>
+      </c>
+      <c r="G20" s="4">
+        <v>-3.0789900000000002E-3</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-9.4639799999999999E-4</v>
+      </c>
+      <c r="I20" s="9">
+        <f>-(G20-H20)/6-L20</f>
+        <v>3.1305516666666665E-4</v>
+      </c>
+      <c r="J20" s="4">
+        <v>-4.3395199999999998E-4</v>
+      </c>
+      <c r="K20" s="4">
+        <v>-1.79691E-4</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="1"/>
+        <v>4.2376833333333331E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="17">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4">
+        <v>-3.8170700000000001E-3</v>
+      </c>
+      <c r="H21" s="4">
+        <v>-1.1570899999999999E-3</v>
+      </c>
+      <c r="I21" s="9">
+        <f>-(G21-H21)/6-L21</f>
+        <v>4.009531666666667E-4</v>
+      </c>
+      <c r="J21" s="4">
+        <v>-4.3395199999999998E-4</v>
+      </c>
+      <c r="K21" s="4">
+        <v>-1.79691E-4</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="1"/>
+        <v>4.2376833333333331E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="17">
+        <v>25</v>
+      </c>
+      <c r="G22" s="4">
+        <v>-4.4998199999999999E-3</v>
+      </c>
+      <c r="H22" s="4">
+        <v>-1.35115E-3</v>
+      </c>
+      <c r="I22" s="9">
+        <f>-(G22-H22)/6-L22</f>
+        <v>4.8240149999999999E-4</v>
+      </c>
+      <c r="J22" s="4">
+        <v>-4.3395199999999998E-4</v>
+      </c>
+      <c r="K22" s="4">
+        <v>-1.79691E-4</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="1"/>
+        <v>4.2376833333333331E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="17">
+        <v>30</v>
+      </c>
+      <c r="G23" s="4">
+        <v>-5.1351000000000001E-3</v>
+      </c>
+      <c r="H23" s="4">
+        <v>-1.5311400000000001E-3</v>
+      </c>
+      <c r="I23" s="9">
+        <f>-(G23-H23)/6-L23</f>
+        <v>5.582831666666666E-4</v>
+      </c>
+      <c r="J23" s="4">
+        <v>-4.3395199999999998E-4</v>
+      </c>
+      <c r="K23" s="4">
+        <v>-1.79691E-4</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="1"/>
+        <v>4.2376833333333331E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="17">
+        <v>35</v>
+      </c>
+      <c r="G24" s="4">
+        <v>-5.7293400000000003E-3</v>
+      </c>
+      <c r="H24" s="4">
+        <v>-1.69911E-3</v>
+      </c>
+      <c r="I24" s="9">
+        <f>-(G24-H24)/6-L24</f>
+        <v>6.2932816666666665E-4</v>
+      </c>
+      <c r="J24" s="4">
+        <v>-4.3395199999999998E-4</v>
+      </c>
+      <c r="K24" s="4">
+        <v>-1.79691E-4</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="1"/>
+        <v>4.2376833333333331E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="18">
+        <v>20</v>
+      </c>
+      <c r="F25" s="17">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4">
+        <v>-1.2723400000000001E-3</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-4.27584E-4</v>
+      </c>
+      <c r="I25" s="9">
+        <f>-(G25-H25)/6-L25</f>
+        <v>9.6703833333333368E-5</v>
+      </c>
+      <c r="J25" s="4">
+        <v>-4.5303699999999999E-4</v>
+      </c>
+      <c r="K25" s="4">
+        <v>-1.8850400000000001E-4</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="1"/>
+        <v>4.4088833333333324E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="17">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4">
+        <v>-2.0495800000000001E-3</v>
+      </c>
+      <c r="H26" s="4">
+        <v>-6.5433099999999997E-4</v>
+      </c>
+      <c r="I26" s="9">
+        <f>-(G26-H26)/6-L26</f>
+        <v>1.884526666666667E-4</v>
+      </c>
+      <c r="J26" s="4">
+        <v>-4.5303699999999999E-4</v>
+      </c>
+      <c r="K26" s="4">
+        <v>-1.8850400000000001E-4</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="1"/>
+        <v>4.4088833333333324E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="17">
+        <v>15</v>
+      </c>
+      <c r="G27" s="4">
+        <v>-2.76779E-3</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-8.6191499999999999E-4</v>
+      </c>
+      <c r="I27" s="9">
+        <f>-(G27-H27)/6-L27</f>
+        <v>2.7355700000000001E-4</v>
+      </c>
+      <c r="J27" s="4">
+        <v>-4.5303699999999999E-4</v>
+      </c>
+      <c r="K27" s="4">
+        <v>-1.8850400000000001E-4</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="1"/>
+        <v>4.4088833333333324E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="17">
+        <v>20</v>
+      </c>
+      <c r="G28" s="4">
+        <v>-3.4398499999999999E-3</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-1.05499E-3</v>
+      </c>
+      <c r="I28" s="9">
+        <f>-(G28-H28)/6-L28</f>
+        <v>3.5338783333333331E-4</v>
+      </c>
+      <c r="J28" s="4">
+        <v>-4.5303699999999999E-4</v>
+      </c>
+      <c r="K28" s="4">
+        <v>-1.8850400000000001E-4</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="1"/>
+        <v>4.4088833333333324E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17">
+        <v>25</v>
+      </c>
+      <c r="G29" s="4">
+        <v>-4.0707399999999998E-3</v>
+      </c>
+      <c r="H29" s="4">
+        <v>-1.2354E-3</v>
+      </c>
+      <c r="I29" s="9">
+        <f>-(G29-H29)/6-L29</f>
+        <v>4.2846783333333325E-4</v>
+      </c>
+      <c r="J29" s="4">
+        <v>-4.5303699999999999E-4</v>
+      </c>
+      <c r="K29" s="4">
+        <v>-1.8850400000000001E-4</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="1"/>
+        <v>4.4088833333333324E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="17">
+        <v>30</v>
+      </c>
+      <c r="G30" s="4">
+        <v>-4.6650399999999996E-3</v>
+      </c>
+      <c r="H30" s="4">
+        <v>-1.40475E-3</v>
+      </c>
+      <c r="I30" s="9">
+        <f>-(G30-H30)/6-L30</f>
+        <v>4.9929283333333336E-4</v>
+      </c>
+      <c r="J30" s="4">
+        <v>-4.5303699999999999E-4</v>
+      </c>
+      <c r="K30" s="4">
+        <v>-1.8850400000000001E-4</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="1"/>
+        <v>4.4088833333333324E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="17">
+        <v>35</v>
+      </c>
+      <c r="G31" s="4">
+        <v>-5.2268000000000002E-3</v>
+      </c>
+      <c r="H31" s="4">
+        <v>-1.5643600000000001E-3</v>
+      </c>
+      <c r="I31" s="9">
+        <f>-(G31-H31)/6-L31</f>
+        <v>5.6631783333333343E-4</v>
+      </c>
+      <c r="J31" s="4">
+        <v>-4.5303699999999999E-4</v>
+      </c>
+      <c r="K31" s="4">
+        <v>-1.8850400000000001E-4</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="1"/>
+        <v>4.4088833333333324E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="17">
+        <v>40</v>
+      </c>
+      <c r="G32" s="4">
+        <v>-5.75948E-3</v>
+      </c>
+      <c r="H32" s="4">
+        <v>-1.7153699999999999E-3</v>
+      </c>
+      <c r="I32" s="9">
+        <f>-(G32-H32)/6-L32</f>
+        <v>6.2992950000000005E-4</v>
+      </c>
+      <c r="J32" s="4">
+        <v>-4.5303699999999999E-4</v>
+      </c>
+      <c r="K32" s="4">
+        <v>-1.8850400000000001E-4</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="1"/>
+        <v>4.4088833333333324E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="17">
+        <v>45</v>
+      </c>
+      <c r="G33" s="4">
+        <v>-6.2661000000000001E-3</v>
+      </c>
+      <c r="H33" s="4">
+        <v>-1.8587199999999999E-3</v>
+      </c>
+      <c r="I33" s="9">
+        <f>-(G33-H33)/6-L33</f>
+        <v>6.9047450000000012E-4</v>
+      </c>
+      <c r="J33" s="4">
+        <v>-4.5303699999999999E-4</v>
+      </c>
+      <c r="K33" s="4">
+        <v>-1.8850400000000001E-4</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="1"/>
+        <v>4.4088833333333324E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="17">
+        <v>50</v>
+      </c>
+      <c r="G34" s="4">
+        <v>-6.7492300000000002E-3</v>
+      </c>
+      <c r="H34" s="4">
+        <v>-1.9952300000000002E-3</v>
+      </c>
+      <c r="I34" s="9">
+        <f>-(G34-H34)/6-L34</f>
+        <v>7.4824449999999997E-4</v>
+      </c>
+      <c r="J34" s="4">
+        <v>-4.5303699999999999E-4</v>
+      </c>
+      <c r="K34" s="4">
+        <v>-1.8850400000000001E-4</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="1"/>
+        <v>4.4088833333333324E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="G37" s="11"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="G38" s="11"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="G39" s="11"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="G40" s="11"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="G41" s="11"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="G42" s="11"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="G43" s="11"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="G44" s="11"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="G45" s="11"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="G46" s="11"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="G47" s="11"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="G48" s="11"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="7:23">
+      <c r="G49" s="11"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="7:23">
+      <c r="G50" s="11"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+    </row>
+    <row r="51" spans="7:23">
+      <c r="G51" s="11"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="7:23">
+      <c r="G52" s="11"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="7:23">
+      <c r="G53" s="11"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="7:23">
+      <c r="G54" s="11"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="7:23">
+      <c r="G55" s="11"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="7:23">
+      <c r="G56" s="11"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="7:23">
+      <c r="G57" s="11"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+    </row>
+    <row r="58" spans="7:23">
+      <c r="G58" s="11"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+    </row>
+    <row r="59" spans="7:23">
+      <c r="G59" s="11"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+    </row>
+    <row r="60" spans="7:23">
+      <c r="G60" s="11"/>
+      <c r="U60" s="15"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="7:23">
+      <c r="G61" s="11"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+    </row>
+    <row r="62" spans="7:23">
+      <c r="G62" s="11"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+    </row>
+    <row r="63" spans="7:23">
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="7:23">
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A18:D34"/>
+    <mergeCell ref="E18:E24"/>
+    <mergeCell ref="E25:E34"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="E11:E17"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/FEM/Output/comparison_triaxial.xlsx
+++ b/FEM/Output/comparison_triaxial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HHH/Desktop/Git/FEM/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3F06E2-5461-574C-8919-AE65A570A12A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AFAD71-6B93-B74F-8FCA-831B8D3384B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1100" windowWidth="27160" windowHeight="16820" activeTab="2" xr2:uid="{6FEF4706-8CFD-764F-A62E-A73FD66A4C76}"/>
+    <workbookView xWindow="1080" yWindow="1100" windowWidth="27160" windowHeight="16820" activeTab="1" xr2:uid="{6FEF4706-8CFD-764F-A62E-A73FD66A4C76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1684,16 +1684,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.4666666666666679E-5</c:v>
+                  <c:v>2.006666666666667E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.528333333333333E-4</c:v>
+                  <c:v>3.2883333333333332E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6066666666666664E-4</c:v>
+                  <c:v>4.3666666666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5399999999999993E-4</c:v>
+                  <c:v>5.2999999999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1761,16 +1761,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.6666666666666671E-5</c:v>
+                  <c:v>2.3266666666666669E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2233333333333325E-4</c:v>
+                  <c:v>3.9833333333333328E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5566666666666657E-4</c:v>
+                  <c:v>5.3166666666666662E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7066666666666654E-4</c:v>
+                  <c:v>6.4666666666666659E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1838,25 +1838,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-6.6666666666669191E-7</c:v>
+                  <c:v>1.7533333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2249999999999997E-4</c:v>
+                  <c:v>2.9849999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3233333333333328E-4</c:v>
+                  <c:v>4.083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4233333333333327E-4</c:v>
+                  <c:v>5.1833333333333332E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3566666666666667E-4</c:v>
+                  <c:v>6.1166666666666672E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2233333333333331E-4</c:v>
+                  <c:v>6.9833333333333336E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0733333333333331E-4</c:v>
+                  <c:v>7.8333333333333336E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1933,25 +1933,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-2.6166666666666688E-5</c:v>
+                  <c:v>1.4983333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5000000000000007E-5</c:v>
+                  <c:v>2.5100000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7233333333333334E-4</c:v>
+                  <c:v>3.4833333333333336E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6233333333333328E-4</c:v>
+                  <c:v>4.3833333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.439999999999999E-4</c:v>
+                  <c:v>5.1999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2233333333333337E-4</c:v>
+                  <c:v>5.9833333333333342E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0733333333333316E-4</c:v>
+                  <c:v>6.8333333333333321E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,34 +2028,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-4.366666666666668E-5</c:v>
+                  <c:v>1.3233333333333334E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8833333333333292E-5</c:v>
+                  <c:v>2.2483333333333331E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3233333333333334E-4</c:v>
+                  <c:v>3.0833333333333337E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1399999999999997E-4</c:v>
+                  <c:v>3.8999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8899999999999998E-4</c:v>
+                  <c:v>4.6499999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6066666666666658E-4</c:v>
+                  <c:v>5.3666666666666663E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2899999999999991E-4</c:v>
+                  <c:v>6.0499999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9566666666666661E-4</c:v>
+                  <c:v>6.7166666666666666E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7066666666666659E-4</c:v>
+                  <c:v>7.4666666666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.3066666666666653E-4</c:v>
+                  <c:v>8.0666666666666658E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2586,16 +2586,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5601666666666684E-5</c:v>
+                  <c:v>2.0083083333333334E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3941700000000002E-4</c:v>
+                  <c:v>3.2464616666666668E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4066750000000008E-4</c:v>
+                  <c:v>4.2589666666666674E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2715583333333342E-4</c:v>
+                  <c:v>5.1238500000000008E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2665,16 +2665,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.2532166666666651E-5</c:v>
+                  <c:v>2.3776133333333331E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.062991666666667E-4</c:v>
+                  <c:v>3.9152833333333336E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3270416666666676E-4</c:v>
+                  <c:v>5.1793333333333342E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.404441666666667E-4</c:v>
+                  <c:v>6.2567333333333336E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2744,25 +2744,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-3.7160000000000437E-6</c:v>
+                  <c:v>1.8151316666666661E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1948733333333336E-4</c:v>
+                  <c:v>3.0471650000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.285675E-4</c:v>
+                  <c:v>4.1379666666666666E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2629083333333335E-4</c:v>
+                  <c:v>5.1152000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1484749999999993E-4</c:v>
+                  <c:v>6.0007666666666659E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9589416666666667E-4</c:v>
+                  <c:v>6.8112333333333332E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7069083333333344E-4</c:v>
+                  <c:v>7.5592000000000009E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2841,25 +2841,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-3.0119833333333329E-5</c:v>
+                  <c:v>1.5510933333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4826833333333333E-5</c:v>
+                  <c:v>2.6005599999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7020283333333332E-4</c:v>
+                  <c:v>3.5543199999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5810083333333337E-4</c:v>
+                  <c:v>4.4333000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3954916666666666E-4</c:v>
+                  <c:v>5.2477833333333332E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1543083333333327E-4</c:v>
+                  <c:v>6.0065999999999993E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8647583333333332E-4</c:v>
+                  <c:v>6.7170499999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2938,34 +2938,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-4.4436499999999973E-5</c:v>
+                  <c:v>1.4079266666666668E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7312333333333358E-5</c:v>
+                  <c:v>2.3254150000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.324166666666667E-4</c:v>
+                  <c:v>3.1764583333333335E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.122475E-4</c:v>
+                  <c:v>3.9747666666666666E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8732749999999994E-4</c:v>
+                  <c:v>4.7255666666666659E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5815249999999999E-4</c:v>
+                  <c:v>5.4338166666666665E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2517750000000006E-4</c:v>
+                  <c:v>6.1040666666666672E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8878916666666669E-4</c:v>
+                  <c:v>6.7401833333333334E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4933416666666675E-4</c:v>
+                  <c:v>7.3456333333333341E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.071041666666666E-4</c:v>
+                  <c:v>7.9233333333333326E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3051,16 +3051,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.4666666666666679E-5</c:v>
+                  <c:v>2.006666666666667E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.528333333333333E-4</c:v>
+                  <c:v>3.2883333333333332E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6066666666666664E-4</c:v>
+                  <c:v>4.3666666666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5399999999999993E-4</c:v>
+                  <c:v>5.2999999999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3128,16 +3128,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.6666666666666671E-5</c:v>
+                  <c:v>2.3266666666666669E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2233333333333325E-4</c:v>
+                  <c:v>3.9833333333333328E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5566666666666657E-4</c:v>
+                  <c:v>5.3166666666666662E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7066666666666654E-4</c:v>
+                  <c:v>6.4666666666666659E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3205,25 +3205,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-6.6666666666669191E-7</c:v>
+                  <c:v>1.7533333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2249999999999997E-4</c:v>
+                  <c:v>2.9849999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3233333333333328E-4</c:v>
+                  <c:v>4.083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4233333333333327E-4</c:v>
+                  <c:v>5.1833333333333332E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3566666666666667E-4</c:v>
+                  <c:v>6.1166666666666672E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2233333333333331E-4</c:v>
+                  <c:v>6.9833333333333336E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0733333333333331E-4</c:v>
+                  <c:v>7.8333333333333336E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3300,25 +3300,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-2.6166666666666688E-5</c:v>
+                  <c:v>1.4983333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5000000000000007E-5</c:v>
+                  <c:v>2.5100000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7233333333333334E-4</c:v>
+                  <c:v>3.4833333333333336E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6233333333333328E-4</c:v>
+                  <c:v>4.3833333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.439999999999999E-4</c:v>
+                  <c:v>5.1999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2233333333333337E-4</c:v>
+                  <c:v>5.9833333333333342E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0733333333333316E-4</c:v>
+                  <c:v>6.8333333333333321E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3395,34 +3395,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-4.366666666666668E-5</c:v>
+                  <c:v>1.3233333333333334E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8833333333333292E-5</c:v>
+                  <c:v>2.2483333333333331E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3233333333333334E-4</c:v>
+                  <c:v>3.0833333333333337E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1399999999999997E-4</c:v>
+                  <c:v>3.8999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8899999999999998E-4</c:v>
+                  <c:v>4.6499999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6066666666666658E-4</c:v>
+                  <c:v>5.3666666666666663E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2899999999999991E-4</c:v>
+                  <c:v>6.0499999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9566666666666661E-4</c:v>
+                  <c:v>6.7166666666666666E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7066666666666659E-4</c:v>
+                  <c:v>7.4666666666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.3066666666666653E-4</c:v>
+                  <c:v>8.0666666666666658E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4261,16 +4261,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5601666666666684E-5</c:v>
+                  <c:v>2.0083083333333334E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3941700000000002E-4</c:v>
+                  <c:v>3.2464616666666668E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4066750000000008E-4</c:v>
+                  <c:v>4.2589666666666674E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2715583333333342E-4</c:v>
+                  <c:v>5.1238500000000008E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4338,16 +4338,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.2532166666666651E-5</c:v>
+                  <c:v>2.3776133333333331E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.062991666666667E-4</c:v>
+                  <c:v>3.9152833333333336E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3270416666666676E-4</c:v>
+                  <c:v>5.1793333333333342E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.404441666666667E-4</c:v>
+                  <c:v>6.2567333333333336E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4415,25 +4415,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-3.7160000000000437E-6</c:v>
+                  <c:v>1.8151316666666661E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1948733333333336E-4</c:v>
+                  <c:v>3.0471650000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.285675E-4</c:v>
+                  <c:v>4.1379666666666666E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2629083333333335E-4</c:v>
+                  <c:v>5.1152000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1484749999999993E-4</c:v>
+                  <c:v>6.0007666666666659E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9589416666666667E-4</c:v>
+                  <c:v>6.8112333333333332E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7069083333333344E-4</c:v>
+                  <c:v>7.5592000000000009E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4510,25 +4510,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-3.0119833333333329E-5</c:v>
+                  <c:v>1.5510933333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4826833333333333E-5</c:v>
+                  <c:v>2.6005599999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7020283333333332E-4</c:v>
+                  <c:v>3.5543199999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5810083333333337E-4</c:v>
+                  <c:v>4.4333000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3954916666666666E-4</c:v>
+                  <c:v>5.2477833333333332E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1543083333333327E-4</c:v>
+                  <c:v>6.0065999999999993E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8647583333333332E-4</c:v>
+                  <c:v>6.7170499999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4605,34 +4605,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-4.4436499999999973E-5</c:v>
+                  <c:v>1.4079266666666668E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7312333333333358E-5</c:v>
+                  <c:v>2.3254150000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.324166666666667E-4</c:v>
+                  <c:v>3.1764583333333335E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.122475E-4</c:v>
+                  <c:v>3.9747666666666666E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8732749999999994E-4</c:v>
+                  <c:v>4.7255666666666659E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5815249999999999E-4</c:v>
+                  <c:v>5.4338166666666665E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2517750000000006E-4</c:v>
+                  <c:v>6.1040666666666672E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8878916666666669E-4</c:v>
+                  <c:v>6.7401833333333334E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4933416666666675E-4</c:v>
+                  <c:v>7.3456333333333341E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.071041666666666E-4</c:v>
+                  <c:v>7.9233333333333326E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9927,10 +9927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A0966C-B8B6-BC46-A53C-B5783069CE64}">
-  <dimension ref="A1:AG71"/>
+  <dimension ref="A1:AG78"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="K39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD58" sqref="AD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10074,8 +10074,8 @@
         <v>-5.6599999999999999E-4</v>
       </c>
       <c r="I3" s="9">
-        <f>-(G3-H3)/6-P3</f>
-        <v>2.4666666666666679E-5</v>
+        <f>-(G3-H3)/6</f>
+        <v>2.006666666666667E-4</v>
       </c>
       <c r="J3" s="4">
         <v>-1.76296E-3</v>
@@ -10084,12 +10084,12 @@
         <v>-5.5797500000000005E-4</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" ref="L3:L34" si="0">-(J3-K3)/6-S3</f>
-        <v>1.5601666666666684E-5</v>
+        <f>-(J3-K3)/6</f>
+        <v>2.0083083333333334E-4</v>
       </c>
       <c r="M3" s="14">
         <f>ABS(I3-L3)/I3*100</f>
-        <v>36.749999999999957</v>
+        <v>8.1810631229222774E-2</v>
       </c>
       <c r="N3" s="4">
         <v>-1.58E-3</v>
@@ -10124,7 +10124,7 @@
         <v>22875.599999999999</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D17" si="1">B4/C4</f>
+        <f t="shared" ref="D4:D17" si="0">B4/C4</f>
         <v>2.6228820227666163E-4</v>
       </c>
       <c r="E4" s="19"/>
@@ -10138,8 +10138,8 @@
         <v>-8.6700000000000004E-4</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ref="I4:I34" si="2">-(G4-H4)/6-P4</f>
-        <v>1.528333333333333E-4</v>
+        <f t="shared" ref="I4:I34" si="1">-(G4-H4)/6</f>
+        <v>3.2883333333333332E-4</v>
       </c>
       <c r="J4" s="4">
         <v>-2.79496E-3</v>
@@ -10148,12 +10148,12 @@
         <v>-8.4708299999999999E-4</v>
       </c>
       <c r="L4" s="9">
-        <f t="shared" si="0"/>
-        <v>1.3941700000000002E-4</v>
+        <f t="shared" ref="L4:L34" si="2">-(J4-K4)/6</f>
+        <v>3.2464616666666668E-4</v>
       </c>
       <c r="M4" s="14">
         <f t="shared" ref="M4:M34" si="3">ABS(I4-L4)/I4*100</f>
-        <v>8.7784078516902575</v>
+        <v>1.2733400912316184</v>
       </c>
       <c r="N4" s="4">
         <v>-1.58E-3</v>
@@ -10185,7 +10185,7 @@
         <v>24451.200000000001</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.6808009422850414E-4</v>
       </c>
       <c r="E5" s="19"/>
@@ -10199,8 +10199,8 @@
         <v>-1.1199999999999999E-3</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" si="2"/>
-        <v>2.6066666666666664E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.3666666666666664E-4</v>
       </c>
       <c r="J5" s="4">
         <v>-3.6374200000000001E-3</v>
@@ -10209,12 +10209,12 @@
         <v>-1.08204E-3</v>
       </c>
       <c r="L5" s="9">
-        <f t="shared" si="0"/>
-        <v>2.4066750000000008E-4</v>
+        <f t="shared" si="2"/>
+        <v>4.2589666666666674E-4</v>
       </c>
       <c r="M5" s="14">
         <f t="shared" si="3"/>
-        <v>7.672314578005075</v>
+        <v>2.4664122137404347</v>
       </c>
       <c r="N5" s="4">
         <v>-1.58E-3</v>
@@ -10248,7 +10248,7 @@
         <v>24573.5</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.03471218996073E-4</v>
       </c>
       <c r="E6" s="19"/>
@@ -10262,8 +10262,8 @@
         <v>-1.33E-3</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="2"/>
-        <v>3.5399999999999993E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.2999999999999998E-4</v>
       </c>
       <c r="J6" s="4">
         <v>-4.3567900000000001E-3</v>
@@ -10272,12 +10272,12 @@
         <v>-1.2824799999999999E-3</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" si="0"/>
-        <v>3.2715583333333342E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.1238500000000008E-4</v>
       </c>
       <c r="M6" s="14">
         <f t="shared" si="3"/>
-        <v>7.58309792843687</v>
+        <v>3.3235849056603595</v>
       </c>
       <c r="N6" s="4">
         <v>-1.58E-3</v>
@@ -10309,7 +10309,7 @@
         <v>29454.6</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.3950554412553557E-4</v>
       </c>
       <c r="E7" s="19">
@@ -10325,8 +10325,8 @@
         <v>-6.4400000000000004E-4</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="2"/>
-        <v>5.6666666666666671E-5</v>
+        <f t="shared" si="1"/>
+        <v>2.3266666666666669E-4</v>
       </c>
       <c r="J7" s="4">
         <v>-2.0743799999999998E-3</v>
@@ -10335,12 +10335,12 @@
         <v>-6.47812E-4</v>
       </c>
       <c r="L7" s="9">
-        <f t="shared" si="0"/>
-        <v>5.2532166666666651E-5</v>
+        <f t="shared" si="2"/>
+        <v>2.3776133333333331E-4</v>
       </c>
       <c r="M7" s="14">
         <f t="shared" si="3"/>
-        <v>7.2961764705882697</v>
+        <v>2.1896848137535598</v>
       </c>
       <c r="N7" s="4">
         <v>-1.58E-3</v>
@@ -10372,7 +10372,7 @@
         <v>33757</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.443522824895577E-4</v>
       </c>
       <c r="E8" s="19"/>
@@ -10386,8 +10386,8 @@
         <v>-1.0300000000000001E-3</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="2"/>
-        <v>2.2233333333333325E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.9833333333333328E-4</v>
       </c>
       <c r="J8" s="4">
         <v>-3.3594900000000001E-3</v>
@@ -10396,12 +10396,12 @@
         <v>-1.0103200000000001E-3</v>
       </c>
       <c r="L8" s="9">
-        <f t="shared" si="0"/>
-        <v>2.062991666666667E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.9152833333333336E-4</v>
       </c>
       <c r="M8" s="14">
         <f t="shared" si="3"/>
-        <v>7.2117691154422303</v>
+        <v>1.7083682008368</v>
       </c>
       <c r="N8" s="4">
         <v>-1.58E-3</v>
@@ -10435,7 +10435,7 @@
         <v>42172</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3712415820923837E-4</v>
       </c>
       <c r="E9" s="19"/>
@@ -10449,8 +10449,8 @@
         <v>-1.3500000000000001E-3</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="2"/>
-        <v>3.5566666666666657E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.3166666666666662E-4</v>
       </c>
       <c r="J9" s="4">
         <v>-4.41362E-3</v>
@@ -10459,12 +10459,12 @@
         <v>-1.30602E-3</v>
       </c>
       <c r="L9" s="9">
-        <f t="shared" si="0"/>
-        <v>3.3270416666666676E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.1793333333333342E-4</v>
       </c>
       <c r="M9" s="14">
         <f t="shared" si="3"/>
-        <v>6.456185567010257</v>
+        <v>2.583072100313454</v>
       </c>
       <c r="N9" s="4">
         <v>-1.58E-3</v>
@@ -10496,7 +10496,7 @@
         <v>45386.9</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.4065578393765603E-4</v>
       </c>
       <c r="E10" s="19"/>
@@ -10510,8 +10510,8 @@
         <v>-1.6199999999999999E-3</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="2"/>
-        <v>4.7066666666666654E-4</v>
+        <f t="shared" si="1"/>
+        <v>6.4666666666666659E-4</v>
       </c>
       <c r="J10" s="4">
         <v>-5.3113500000000003E-3</v>
@@ -10520,12 +10520,12 @@
         <v>-1.5573099999999999E-3</v>
       </c>
       <c r="L10" s="9">
-        <f t="shared" si="0"/>
-        <v>4.404441666666667E-4</v>
+        <f t="shared" si="2"/>
+        <v>6.2567333333333336E-4</v>
       </c>
       <c r="M10" s="14">
         <f t="shared" si="3"/>
-        <v>6.4212110481586082</v>
+        <v>3.2463917525773045</v>
       </c>
       <c r="N10" s="4">
         <v>-1.58E-3</v>
@@ -10557,7 +10557,7 @@
         <v>46231.5</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.48908211933422E-4</v>
       </c>
       <c r="E11" s="19">
@@ -10573,8 +10573,8 @@
         <v>-5.0799999999999999E-4</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="2"/>
-        <v>-6.6666666666669191E-7</v>
+        <f t="shared" si="1"/>
+        <v>1.7533333333333333E-4</v>
       </c>
       <c r="J11" s="4">
         <v>-1.6078799999999999E-3</v>
@@ -10583,12 +10583,12 @@
         <v>-5.1880100000000005E-4</v>
       </c>
       <c r="L11" s="9">
-        <f t="shared" si="0"/>
-        <v>-3.7160000000000437E-6</v>
+        <f t="shared" si="2"/>
+        <v>1.8151316666666661E-4</v>
       </c>
       <c r="M11" s="14">
         <f t="shared" si="3"/>
-        <v>-457.39999999998543</v>
+        <v>3.5246197718630898</v>
       </c>
       <c r="N11" s="4">
         <v>-1.58E-3</v>
@@ -10622,7 +10622,7 @@
         <v>50144.6</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9942326790920657E-4</v>
       </c>
       <c r="E12" s="19"/>
@@ -10636,8 +10636,8 @@
         <v>-8.0900000000000004E-4</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="2"/>
-        <v>1.2249999999999997E-4</v>
+        <f t="shared" si="1"/>
+        <v>2.9849999999999999E-4</v>
       </c>
       <c r="J12" s="4">
         <v>-2.6446600000000001E-3</v>
@@ -10646,12 +10646,12 @@
         <v>-8.1636100000000004E-4</v>
       </c>
       <c r="L12" s="9">
-        <f t="shared" si="0"/>
-        <v>1.1948733333333336E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.0471650000000002E-4</v>
       </c>
       <c r="M12" s="14">
         <f t="shared" si="3"/>
-        <v>2.4593197278911063</v>
+        <v>2.082579564489123</v>
       </c>
       <c r="N12" s="4">
         <v>-1.58E-3</v>
@@ -10683,7 +10683,7 @@
         <v>49369.3</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.0383254370631139E-4</v>
       </c>
       <c r="E13" s="19"/>
@@ -10697,8 +10697,8 @@
         <v>-1.08E-3</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="2"/>
-        <v>2.3233333333333328E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.083333333333333E-4</v>
       </c>
       <c r="J13" s="4">
         <v>-3.5593899999999999E-3</v>
@@ -10707,12 +10707,12 @@
         <v>-1.07661E-3</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="0"/>
-        <v>2.285675E-4</v>
+        <f t="shared" si="2"/>
+        <v>4.1379666666666666E-4</v>
       </c>
       <c r="M13" s="14">
         <f t="shared" si="3"/>
-        <v>1.6208751793400045</v>
+        <v>1.3379591836734759</v>
       </c>
       <c r="N13" s="4">
         <v>-1.58E-3</v>
@@ -10744,7 +10744,7 @@
         <v>56136.800000000003</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.3440880135668576E-4</v>
       </c>
       <c r="E14" s="19"/>
@@ -10758,8 +10758,8 @@
         <v>-1.34E-3</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="2"/>
-        <v>3.4233333333333327E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.1833333333333332E-4</v>
       </c>
       <c r="J14" s="4">
         <v>-4.3771699999999997E-3</v>
@@ -10768,12 +10768,12 @@
         <v>-1.3080500000000001E-3</v>
       </c>
       <c r="L14" s="9">
-        <f t="shared" si="0"/>
-        <v>3.2629083333333335E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.1152000000000001E-4</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" si="3"/>
-        <v>4.6862220058422368</v>
+        <v>1.3144694533762016</v>
       </c>
       <c r="N14" s="4">
         <v>-1.58E-3</v>
@@ -10807,7 +10807,7 @@
         <v>59705</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5123523992965415E-4</v>
       </c>
       <c r="E15" s="19"/>
@@ -10821,8 +10821,8 @@
         <v>-1.56E-3</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="2"/>
-        <v>4.3566666666666667E-4</v>
+        <f t="shared" si="1"/>
+        <v>6.1166666666666672E-4</v>
       </c>
       <c r="J15" s="4">
         <v>-5.1172800000000001E-3</v>
@@ -10831,12 +10831,12 @@
         <v>-1.5168200000000001E-3</v>
       </c>
       <c r="L15" s="9">
-        <f t="shared" si="0"/>
-        <v>4.1484749999999993E-4</v>
+        <f t="shared" si="2"/>
+        <v>6.0007666666666659E-4</v>
       </c>
       <c r="M15" s="14">
         <f t="shared" si="3"/>
-        <v>4.7786916602907574</v>
+        <v>1.8948228882833991</v>
       </c>
       <c r="N15" s="4">
         <v>-1.58E-3</v>
@@ -10868,7 +10868,7 @@
         <v>61469.9</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.2536249448917275E-4</v>
       </c>
       <c r="E16" s="19"/>
@@ -10882,8 +10882,8 @@
         <v>-1.7700000000000001E-3</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="2"/>
-        <v>5.2233333333333331E-4</v>
+        <f t="shared" si="1"/>
+        <v>6.9833333333333336E-4</v>
       </c>
       <c r="J16" s="4">
         <v>-5.7940300000000004E-3</v>
@@ -10892,12 +10892,12 @@
         <v>-1.70729E-3</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" si="0"/>
-        <v>4.9589416666666667E-4</v>
+        <f t="shared" si="2"/>
+        <v>6.8112333333333332E-4</v>
       </c>
       <c r="M16" s="14">
         <f t="shared" si="3"/>
-        <v>5.0617421825143536</v>
+        <v>2.4644391408114608</v>
       </c>
       <c r="N16" s="4">
         <v>-1.58E-3</v>
@@ -10929,7 +10929,7 @@
         <v>65475.3</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1091739938572251E-4</v>
       </c>
       <c r="E17" s="19"/>
@@ -10943,8 +10943,8 @@
         <v>-1.9599999999999999E-3</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="2"/>
-        <v>6.0733333333333331E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.8333333333333336E-4</v>
       </c>
       <c r="J17" s="4">
         <v>-6.4182500000000003E-3</v>
@@ -10953,12 +10953,12 @@
         <v>-1.88273E-3</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" si="0"/>
-        <v>5.7069083333333344E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.5592000000000009E-4</v>
       </c>
       <c r="M17" s="14">
         <f t="shared" si="3"/>
-        <v>6.0333424807903206</v>
+        <v>3.4995744680850982</v>
       </c>
       <c r="N17" s="4">
         <v>-1.58E-3</v>
@@ -11001,8 +11001,8 @@
         <v>-4.5100000000000001E-4</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="2"/>
-        <v>-2.6166666666666688E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.4983333333333333E-4</v>
       </c>
       <c r="J18" s="4">
         <v>-1.38922E-3</v>
@@ -11011,12 +11011,12 @@
         <v>-4.5856400000000001E-4</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="0"/>
-        <v>-3.0119833333333329E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.5510933333333333E-4</v>
       </c>
       <c r="M18" s="14">
         <f t="shared" si="3"/>
-        <v>-15.107643312101802</v>
+        <v>3.5212458286985506</v>
       </c>
       <c r="N18" s="4">
         <v>-1.58E-3</v>
@@ -11055,8 +11055,8 @@
         <v>-7.0399999999999998E-4</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="2"/>
-        <v>7.5000000000000007E-5</v>
+        <f t="shared" si="1"/>
+        <v>2.5100000000000003E-4</v>
       </c>
       <c r="J19" s="4">
         <v>-2.27618E-3</v>
@@ -11065,12 +11065,12 @@
         <v>-7.1584399999999999E-4</v>
       </c>
       <c r="L19" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4826833333333333E-5</v>
+        <f t="shared" si="2"/>
+        <v>2.6005599999999999E-4</v>
       </c>
       <c r="M19" s="14">
         <f t="shared" si="3"/>
-        <v>0.23088888888889822</v>
+        <v>3.6079681274900244</v>
       </c>
       <c r="N19" s="4">
         <v>-1.58E-3</v>
@@ -11109,8 +11109,8 @@
         <v>-9.3999999999999997E-4</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="2"/>
-        <v>1.7233333333333334E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.4833333333333336E-4</v>
       </c>
       <c r="J20" s="4">
         <v>-3.0789900000000002E-3</v>
@@ -11119,12 +11119,12 @@
         <v>-9.4639799999999999E-4</v>
       </c>
       <c r="L20" s="9">
-        <f t="shared" si="0"/>
-        <v>1.7020283333333332E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.5543199999999998E-4</v>
       </c>
       <c r="M20" s="14">
         <f t="shared" si="3"/>
-        <v>1.2362669245648061</v>
+        <v>2.0378947368420919</v>
       </c>
       <c r="N20" s="4">
         <v>-1.58E-3</v>
@@ -11163,8 +11163,8 @@
         <v>-1.15E-3</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="2"/>
-        <v>2.6233333333333328E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.3833333333333333E-4</v>
       </c>
       <c r="J21" s="4">
         <v>-3.8170700000000001E-3</v>
@@ -11173,12 +11173,12 @@
         <v>-1.1570899999999999E-3</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" si="0"/>
-        <v>2.5810083333333337E-4</v>
+        <f t="shared" si="2"/>
+        <v>4.4333000000000003E-4</v>
       </c>
       <c r="M21" s="14">
         <f t="shared" si="3"/>
-        <v>1.6134053367216936</v>
+        <v>1.1399239543726312</v>
       </c>
       <c r="N21" s="4">
         <v>-1.58E-3</v>
@@ -11217,8 +11217,8 @@
         <v>-1.3500000000000001E-3</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="2"/>
-        <v>3.439999999999999E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.1999999999999995E-4</v>
       </c>
       <c r="J22" s="4">
         <v>-4.4998199999999999E-3</v>
@@ -11227,12 +11227,12 @@
         <v>-1.35115E-3</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="0"/>
-        <v>3.3954916666666666E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.2477833333333332E-4</v>
       </c>
       <c r="M22" s="14">
         <f t="shared" si="3"/>
-        <v>1.2938468992247814</v>
+        <v>0.91891025641026203</v>
       </c>
       <c r="N22" s="4">
         <v>-1.58E-3</v>
@@ -11271,8 +11271,8 @@
         <v>-1.5399999999999999E-3</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="2"/>
-        <v>4.2233333333333337E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.9833333333333342E-4</v>
       </c>
       <c r="J23" s="4">
         <v>-5.1351000000000001E-3</v>
@@ -11281,12 +11281,12 @@
         <v>-1.5311400000000001E-3</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="0"/>
-        <v>4.1543083333333327E-4</v>
+        <f t="shared" si="2"/>
+        <v>6.0065999999999993E-4</v>
       </c>
       <c r="M23" s="14">
         <f t="shared" si="3"/>
-        <v>1.6343725335438275</v>
+        <v>0.38885793871863672</v>
       </c>
       <c r="N23" s="4">
         <v>-1.58E-3</v>
@@ -11325,8 +11325,8 @@
         <v>-1.74E-3</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="2"/>
-        <v>5.0733333333333316E-4</v>
+        <f t="shared" si="1"/>
+        <v>6.8333333333333321E-4</v>
       </c>
       <c r="J24" s="4">
         <v>-5.7293400000000003E-3</v>
@@ -11335,12 +11335,12 @@
         <v>-1.69911E-3</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="0"/>
-        <v>4.8647583333333332E-4</v>
+        <f t="shared" si="2"/>
+        <v>6.7170499999999998E-4</v>
       </c>
       <c r="M24" s="14">
         <f t="shared" si="3"/>
-        <v>4.1112023653087739</v>
+        <v>1.7017073170731558</v>
       </c>
       <c r="N24" s="4">
         <v>-1.58E-3</v>
@@ -11381,8 +11381,8 @@
         <v>-4.1599999999999997E-4</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="2"/>
-        <v>-4.366666666666668E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.3233333333333334E-4</v>
       </c>
       <c r="J25" s="4">
         <v>-1.2723400000000001E-3</v>
@@ -11391,12 +11391,12 @@
         <v>-4.27584E-4</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="0"/>
-        <v>-4.4436499999999973E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.4079266666666668E-4</v>
       </c>
       <c r="M25" s="14">
         <f t="shared" si="3"/>
-        <v>-1.7629770992365492</v>
+        <v>6.3924433249370347</v>
       </c>
       <c r="N25" s="4">
         <v>-1.58E-3</v>
@@ -11435,8 +11435,8 @@
         <v>-6.4099999999999997E-4</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="2"/>
-        <v>4.8833333333333292E-5</v>
+        <f t="shared" si="1"/>
+        <v>2.2483333333333331E-4</v>
       </c>
       <c r="J26" s="4">
         <v>-2.0495800000000001E-3</v>
@@ -11445,12 +11445,12 @@
         <v>-6.5433099999999997E-4</v>
       </c>
       <c r="L26" s="9">
-        <f t="shared" si="0"/>
-        <v>4.7312333333333358E-5</v>
+        <f t="shared" si="2"/>
+        <v>2.3254150000000002E-4</v>
       </c>
       <c r="M26" s="14">
         <f t="shared" si="3"/>
-        <v>3.1146757679179551</v>
+        <v>3.4283914010378216</v>
       </c>
       <c r="N26" s="4">
         <v>-1.58E-3</v>
@@ -11489,8 +11489,8 @@
         <v>-8.4999999999999995E-4</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="2"/>
-        <v>1.3233333333333334E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.0833333333333337E-4</v>
       </c>
       <c r="J27" s="4">
         <v>-2.76779E-3</v>
@@ -11499,12 +11499,12 @@
         <v>-8.6191499999999999E-4</v>
       </c>
       <c r="L27" s="9">
-        <f t="shared" si="0"/>
-        <v>1.324166666666667E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.1764583333333335E-4</v>
       </c>
       <c r="M27" s="14">
         <f t="shared" si="3"/>
-        <v>6.2972292191450951E-2</v>
+        <v>3.0202702702702666</v>
       </c>
       <c r="N27" s="4">
         <v>-1.58E-3</v>
@@ -11543,8 +11543,8 @@
         <v>-1.0499999999999999E-3</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="2"/>
-        <v>2.1399999999999997E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="J28" s="4">
         <v>-3.4398499999999999E-3</v>
@@ -11553,12 +11553,12 @@
         <v>-1.05499E-3</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" si="0"/>
-        <v>2.122475E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.9747666666666666E-4</v>
       </c>
       <c r="M28" s="14">
         <f t="shared" si="3"/>
-        <v>0.81892523364484759</v>
+        <v>1.9170940170940158</v>
       </c>
       <c r="N28" s="4">
         <v>-1.58E-3</v>
@@ -11597,8 +11597,8 @@
         <v>-1.23E-3</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="2"/>
-        <v>2.8899999999999998E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.6499999999999997E-4</v>
       </c>
       <c r="J29" s="4">
         <v>-4.0707399999999998E-3</v>
@@ -11607,12 +11607,12 @@
         <v>-1.2354E-3</v>
       </c>
       <c r="L29" s="9">
-        <f t="shared" si="0"/>
-        <v>2.8732749999999994E-4</v>
+        <f t="shared" si="2"/>
+        <v>4.7255666666666659E-4</v>
       </c>
       <c r="M29" s="14">
         <f t="shared" si="3"/>
-        <v>0.57871972318340559</v>
+        <v>1.6250896057347572</v>
       </c>
       <c r="N29" s="4">
         <v>-1.58E-3</v>
@@ -11651,8 +11651,8 @@
         <v>-1.4E-3</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="2"/>
-        <v>3.6066666666666658E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.3666666666666663E-4</v>
       </c>
       <c r="J30" s="4">
         <v>-4.6650399999999996E-3</v>
@@ -11661,12 +11661,12 @@
         <v>-1.40475E-3</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="0"/>
-        <v>3.5815249999999999E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.4338166666666665E-4</v>
       </c>
       <c r="M30" s="14">
         <f t="shared" si="3"/>
-        <v>0.69708872458408222</v>
+        <v>1.2512422360248485</v>
       </c>
       <c r="N30" s="4">
         <v>-1.58E-3</v>
@@ -11705,8 +11705,8 @@
         <v>-1.57E-3</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="2"/>
-        <v>4.2899999999999991E-4</v>
+        <f t="shared" si="1"/>
+        <v>6.0499999999999996E-4</v>
       </c>
       <c r="J31" s="4">
         <v>-5.2268000000000002E-3</v>
@@ -11715,12 +11715,12 @@
         <v>-1.5643600000000001E-3</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" si="0"/>
-        <v>4.2517750000000006E-4</v>
+        <f t="shared" si="2"/>
+        <v>6.1040666666666672E-4</v>
       </c>
       <c r="M31" s="14">
         <f t="shared" si="3"/>
-        <v>0.89102564102560633</v>
+        <v>0.89366391184574523</v>
       </c>
       <c r="N31" s="4">
         <v>-1.58E-3</v>
@@ -11759,8 +11759,8 @@
         <v>-1.72E-3</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" si="2"/>
-        <v>4.9566666666666661E-4</v>
+        <f t="shared" si="1"/>
+        <v>6.7166666666666666E-4</v>
       </c>
       <c r="J32" s="4">
         <v>-5.75948E-3</v>
@@ -11769,12 +11769,12 @@
         <v>-1.7153699999999999E-3</v>
       </c>
       <c r="L32" s="9">
-        <f t="shared" si="0"/>
-        <v>4.8878916666666669E-4</v>
+        <f t="shared" si="2"/>
+        <v>6.7401833333333334E-4</v>
       </c>
       <c r="M32" s="14">
         <f t="shared" si="3"/>
-        <v>1.3875252185608451</v>
+        <v>0.35012406947891117</v>
       </c>
       <c r="N32" s="4">
         <v>-1.58E-3</v>
@@ -11813,8 +11813,8 @@
         <v>-1.91E-3</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="2"/>
-        <v>5.7066666666666659E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.4666666666666664E-4</v>
       </c>
       <c r="J33" s="4">
         <v>-6.2661000000000001E-3</v>
@@ -11823,12 +11823,12 @@
         <v>-1.8587199999999999E-3</v>
       </c>
       <c r="L33" s="9">
-        <f t="shared" si="0"/>
-        <v>5.4933416666666675E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.3456333333333341E-4</v>
       </c>
       <c r="M33" s="14">
         <f t="shared" si="3"/>
-        <v>3.7381717289719347</v>
+        <v>1.6209821428571289</v>
       </c>
       <c r="N33" s="4">
         <v>-1.58E-3</v>
@@ -11867,8 +11867,8 @@
         <v>-2.0600000000000002E-3</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="2"/>
-        <v>6.3066666666666653E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.0666666666666658E-4</v>
       </c>
       <c r="J34" s="4">
         <v>-6.7492300000000002E-3</v>
@@ -11877,12 +11877,12 @@
         <v>-1.9952300000000002E-3</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" si="0"/>
-        <v>6.071041666666666E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.9233333333333326E-4</v>
       </c>
       <c r="M34" s="14">
         <f t="shared" si="3"/>
-        <v>3.7361257928118285</v>
+        <v>1.7768595041322301</v>
       </c>
       <c r="N34" s="4">
         <v>-1.58E-3</v>
@@ -12013,144 +12013,168 @@
     </row>
     <row r="47" spans="1:33">
       <c r="J47" s="11"/>
-      <c r="AB47" s="15"/>
+      <c r="AB47" s="11"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
     <row r="48" spans="1:33">
       <c r="J48" s="11"/>
-      <c r="AB48" s="15"/>
+      <c r="AB48" s="11"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
     <row r="49" spans="10:30">
       <c r="J49" s="11"/>
-      <c r="AB49" s="15"/>
+      <c r="AB49" s="11"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
     </row>
     <row r="50" spans="10:30">
       <c r="J50" s="11"/>
-      <c r="AB50" s="15"/>
+      <c r="AB50" s="11"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
     </row>
     <row r="51" spans="10:30">
       <c r="J51" s="11"/>
-      <c r="AB51" s="15"/>
+      <c r="AB51" s="11"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
     </row>
     <row r="52" spans="10:30">
       <c r="J52" s="11"/>
-      <c r="AB52" s="15"/>
+      <c r="AB52" s="11"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
     </row>
     <row r="53" spans="10:30">
       <c r="J53" s="11"/>
-      <c r="AB53" s="15"/>
+      <c r="AB53" s="11"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
     </row>
     <row r="54" spans="10:30">
       <c r="J54" s="11"/>
-      <c r="AB54" s="15"/>
+      <c r="AB54" s="11"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
     </row>
     <row r="55" spans="10:30">
       <c r="J55" s="11"/>
-      <c r="AB55" s="15"/>
+      <c r="AB55" s="11"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
     </row>
     <row r="56" spans="10:30">
       <c r="J56" s="11"/>
-      <c r="AB56" s="15"/>
+      <c r="AB56" s="11"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
     <row r="57" spans="10:30">
       <c r="J57" s="11"/>
-      <c r="AB57" s="15"/>
+      <c r="AB57" s="11"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
     </row>
     <row r="58" spans="10:30">
       <c r="J58" s="11"/>
-      <c r="AB58" s="15"/>
+      <c r="AB58" s="11"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
     </row>
     <row r="59" spans="10:30">
       <c r="J59" s="11"/>
-      <c r="AB59" s="15"/>
+      <c r="AB59" s="11"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
     </row>
     <row r="60" spans="10:30">
       <c r="J60" s="11"/>
-      <c r="AB60" s="15"/>
+      <c r="AB60" s="11"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
     </row>
     <row r="61" spans="10:30">
       <c r="J61" s="11"/>
-      <c r="AB61" s="15"/>
+      <c r="AB61" s="11"/>
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
     </row>
     <row r="62" spans="10:30">
       <c r="J62" s="11"/>
-      <c r="AB62" s="15"/>
+      <c r="AB62" s="11"/>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
     </row>
     <row r="63" spans="10:30">
       <c r="J63" s="11"/>
-      <c r="AB63" s="15"/>
+      <c r="AB63" s="11"/>
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
     </row>
     <row r="64" spans="10:30">
       <c r="J64" s="11"/>
-      <c r="AB64" s="15"/>
+      <c r="AB64" s="11"/>
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
     </row>
     <row r="65" spans="10:30">
       <c r="J65" s="11"/>
-      <c r="AB65" s="15"/>
+      <c r="AB65" s="11"/>
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
     </row>
     <row r="66" spans="10:30">
       <c r="J66" s="11"/>
-      <c r="AB66" s="15"/>
+      <c r="AB66" s="11"/>
       <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
     </row>
     <row r="67" spans="10:30">
       <c r="J67" s="11"/>
-      <c r="AB67" s="15"/>
+      <c r="AB67" s="11"/>
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
     </row>
     <row r="68" spans="10:30">
       <c r="J68" s="11"/>
-      <c r="AB68" s="15"/>
+      <c r="AB68" s="11"/>
       <c r="AC68" s="1"/>
       <c r="AD68" s="1"/>
     </row>
     <row r="69" spans="10:30">
       <c r="J69" s="11"/>
+      <c r="AB69" s="11"/>
     </row>
     <row r="70" spans="10:30">
       <c r="J70" s="11"/>
+      <c r="AB70" s="11"/>
     </row>
     <row r="71" spans="10:30">
       <c r="J71" s="11"/>
+      <c r="AB71" s="11"/>
+    </row>
+    <row r="72" spans="10:30">
+      <c r="AB72" s="11"/>
+    </row>
+    <row r="73" spans="10:30">
+      <c r="AB73" s="11"/>
+    </row>
+    <row r="74" spans="10:30">
+      <c r="AB74" s="11"/>
+    </row>
+    <row r="75" spans="10:30">
+      <c r="AB75" s="11"/>
+    </row>
+    <row r="76" spans="10:30">
+      <c r="AB76" s="11"/>
+    </row>
+    <row r="77" spans="10:30">
+      <c r="AB77" s="11"/>
+    </row>
+    <row r="78" spans="10:30">
+      <c r="AB78" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -12185,8 +12209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0844C83C-9B3C-BC4B-BDCD-F28D388FE91D}">
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U42" sqref="U42"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
